--- a/pearson.xlsx
+++ b/pearson.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8707492149741</v>
+        <v>0.9185074529839427</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8644955147840302</v>
+        <v>0.9167925940009966</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8233111941955588</v>
+        <v>0.8632064629063778</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8235943858057014</v>
+        <v>0.8616259091411155</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8725524384428691</v>
+        <v>0.9270725866819128</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8668045598860106</v>
+        <v>0.9236583339226314</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8234946378401422</v>
+        <v>0.8645926805850339</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8236992192754573</v>
+        <v>0.8622648873608452</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8718651728585759</v>
+        <v>0.9293817703650548</v>
       </c>
       <c r="C4" t="n">
-        <v>0.865329999458986</v>
+        <v>0.9246951546543307</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8336318544006573</v>
+        <v>0.8657449677378957</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8335803214586754</v>
+        <v>0.8630554566856683</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8713635862178499</v>
+        <v>0.9266546535330159</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8646869710718474</v>
+        <v>0.9207506502152385</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8368897810164619</v>
+        <v>0.8674635105325658</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8377845310388933</v>
+        <v>0.8639347287234993</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8709593232763507</v>
+        <v>0.9240804549680643</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8644786614327263</v>
+        <v>0.9170885641817828</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8354570602152499</v>
+        <v>0.8676719111656498</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8288358837583287</v>
+        <v>0.8648406984110774</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8768453245762878</v>
+        <v>0.9222128469749578</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8712425174070918</v>
+        <v>0.9143689896101705</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8234540770471275</v>
+        <v>0.8683495628893768</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8240708269271554</v>
+        <v>0.8656074998524877</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8774132974074746</v>
+        <v>0.920577773929215</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8724256058578737</v>
+        <v>0.9120630171183447</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8206694610538133</v>
+        <v>0.8694214096585704</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8206872272019761</v>
+        <v>0.8665056659180698</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8757416109262908</v>
+        <v>0.9192277368077525</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8710893997341895</v>
+        <v>0.9102534127272318</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8297785615452469</v>
+        <v>0.8701916862659692</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8219068104284737</v>
+        <v>0.866941829717025</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8758054546619483</v>
+        <v>0.9183469048911859</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8709488165201522</v>
+        <v>0.9089934460365457</v>
       </c>
       <c r="D10" t="n">
-        <v>0.823120163618275</v>
+        <v>0.871036492851283</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8231367772675766</v>
+        <v>0.8680991679290504</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8726709971179247</v>
+        <v>0.9180106017069424</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8672477815724539</v>
+        <v>0.9082896275652396</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8256338498480593</v>
+        <v>0.8723923998917795</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8249368235940542</v>
+        <v>0.8693203143455661</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.878364200067581</v>
+        <v>0.9178654958876178</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8727011209244664</v>
+        <v>0.9078022064720203</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8373420271220525</v>
+        <v>0.8735611994183277</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8368774245209454</v>
+        <v>0.8702502241669478</v>
       </c>
     </row>
     <row r="13">
@@ -652,16 +652,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.886772785811816</v>
+        <v>0.9177330045746104</v>
       </c>
       <c r="C13" t="n">
-        <v>0.880736794623116</v>
+        <v>0.9073957027618946</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8451838345375323</v>
+        <v>0.8731219121044987</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8433284384294574</v>
+        <v>0.870669577629632</v>
       </c>
     </row>
     <row r="14">
@@ -669,16 +669,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8903296243087786</v>
+        <v>0.9179960975868033</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8841632583544478</v>
+        <v>0.9074613760072736</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8595782920562142</v>
+        <v>0.8743335459174143</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8461501454677114</v>
+        <v>0.87171384339092</v>
       </c>
     </row>
     <row r="15">
@@ -686,16 +686,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8932130559209448</v>
+        <v>0.9180529289819936</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8871499818643476</v>
+        <v>0.9073139013380971</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8487287089060827</v>
+        <v>0.8746941178040928</v>
       </c>
       <c r="E15" t="n">
-        <v>0.84863454321066</v>
+        <v>0.8719990343934989</v>
       </c>
     </row>
     <row r="16">
@@ -703,16 +703,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8990638396782151</v>
+        <v>0.9180802202271959</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8937241306607648</v>
+        <v>0.9072322366601659</v>
       </c>
       <c r="D16" t="n">
-        <v>0.854150098045717</v>
+        <v>0.8748714935687472</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8526630132400066</v>
+        <v>0.8718008164526698</v>
       </c>
     </row>
     <row r="17">
@@ -720,16 +720,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9023762374860544</v>
+        <v>0.9185014483573632</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8972480268585586</v>
+        <v>0.907529459330412</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8801636977225905</v>
+        <v>0.8748273319392373</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8547209064410175</v>
+        <v>0.8721297447096341</v>
       </c>
     </row>
     <row r="18">
@@ -737,16 +737,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9049397542746174</v>
+        <v>0.9183032666366473</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8999784448085179</v>
+        <v>0.9072572078025111</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8564800750450364</v>
+        <v>0.8745949556068296</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8562825054380061</v>
+        <v>0.8720919752198675</v>
       </c>
     </row>
     <row r="19">
@@ -754,16 +754,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9051701337590627</v>
+        <v>0.9182707040907281</v>
       </c>
       <c r="C19" t="n">
-        <v>0.900985609000085</v>
+        <v>0.9070918614595169</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8602317548923362</v>
+        <v>0.8742595677910694</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8571745127906669</v>
+        <v>0.8719716933784276</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9044864892056729</v>
+        <v>0.9182260771930904</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9009539264291773</v>
+        <v>0.9069350590325507</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8561510936251699</v>
+        <v>0.8743879581096849</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8607543241434625</v>
+        <v>0.871857960366063</v>
       </c>
     </row>
     <row r="21">
@@ -788,16 +788,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8978441383165912</v>
+        <v>0.9181796604343181</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8943047703311046</v>
+        <v>0.9068043979543599</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8535637040683597</v>
+        <v>0.873999471117485</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8536945841048968</v>
+        <v>0.8713414359864154</v>
       </c>
     </row>
     <row r="22">
@@ -805,16 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8917506203338966</v>
+        <v>0.9185862606312181</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8880795775101353</v>
+        <v>0.9071607541547291</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8518989751746628</v>
+        <v>0.8734280206726158</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8520509998478196</v>
+        <v>0.8709111714431189</v>
       </c>
     </row>
     <row r="23">
@@ -822,16 +822,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8904670226517368</v>
+        <v>0.9192956468704196</v>
       </c>
       <c r="C23" t="n">
-        <v>0.886707366385422</v>
+        <v>0.9077325867679379</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8480539540240274</v>
+        <v>0.8728439731577591</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8483568633667594</v>
+        <v>0.8705234427012311</v>
       </c>
     </row>
     <row r="24">
@@ -839,16 +839,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8874043684346344</v>
+        <v>0.9199807501581028</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8841593732641956</v>
+        <v>0.9083777772865891</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8456462729266653</v>
+        <v>0.8728784948803114</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8505041563707555</v>
+        <v>0.870033910032595</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8857497400377943</v>
+        <v>0.9207395818305281</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8822837778553698</v>
+        <v>0.9091093756020334</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8708028263424493</v>
+        <v>0.8731895371989091</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8503250453322191</v>
+        <v>0.8702030331542256</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8867290339961511</v>
+        <v>0.921496772155137</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8824218584288516</v>
+        <v>0.9098472258361125</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8653516447590066</v>
+        <v>0.8733609323846135</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8498751182013293</v>
+        <v>0.8704287560911159</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8900141509826498</v>
+        <v>0.9226056076490011</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8851402548842742</v>
+        <v>0.9109303628528043</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8550878892118796</v>
+        <v>0.8739004243133064</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8550717585228946</v>
+        <v>0.871184864352329</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8866634606550476</v>
+        <v>0.9232313799936251</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8810941325559025</v>
+        <v>0.9115458085109979</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8602438433717901</v>
+        <v>0.8747826904911347</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8601840037547617</v>
+        <v>0.8715189016739899</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.899106506851342</v>
+        <v>0.9235122348959114</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8940189720498579</v>
+        <v>0.9118716716215707</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8705920310625481</v>
+        <v>0.8740911604402722</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8661075303916984</v>
+        <v>0.8712915722015628</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9109343476843855</v>
+        <v>0.9238737255786426</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9065640378501701</v>
+        <v>0.9122595511230944</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8851223673058566</v>
+        <v>0.874934376296625</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8781903237776735</v>
+        <v>0.8720335879584852</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9202191965196391</v>
+        <v>0.9243974514025236</v>
       </c>
       <c r="C31" t="n">
-        <v>0.916569380858301</v>
+        <v>0.9128403479499058</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8891368281819383</v>
+        <v>0.8748594642734685</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8887650425365898</v>
+        <v>0.8719421765484474</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9271366473813051</v>
+        <v>0.9247089884069514</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9237386019509467</v>
+        <v>0.9132071181781746</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8968340476723611</v>
+        <v>0.8747518621679916</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8970472806131424</v>
+        <v>0.8713952968962385</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.925365109667905</v>
+        <v>0.9249285148084451</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9220816859562453</v>
+        <v>0.9134994127022551</v>
       </c>
       <c r="D33" t="n">
-        <v>0.89577780376743</v>
+        <v>0.8739815392719946</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8961093590050268</v>
+        <v>0.8708901471893153</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9187350667495979</v>
+        <v>0.9255942224247731</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9149287813478313</v>
+        <v>0.9142576817549105</v>
       </c>
       <c r="D34" t="n">
-        <v>0.899152878765542</v>
+        <v>0.8742403864311835</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9010385356665374</v>
+        <v>0.8709965100302844</v>
       </c>
     </row>
     <row r="35">
@@ -1026,16 +1026,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9186527147179457</v>
+        <v>0.9259759086888475</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9148454054020605</v>
+        <v>0.9147297818342855</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8994299653989458</v>
+        <v>0.8737464805572961</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8983308052011925</v>
+        <v>0.8704640566340118</v>
       </c>
     </row>
     <row r="36">
@@ -1043,16 +1043,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9173582619788139</v>
+        <v>0.9263439380053737</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9138198888638766</v>
+        <v>0.9151647742185726</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8936814374495055</v>
+        <v>0.8738994850228673</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8939232586099989</v>
+        <v>0.8707189374838824</v>
       </c>
     </row>
     <row r="37">
@@ -1060,16 +1060,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9189408794521698</v>
+        <v>0.9268204703411154</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9158541868383309</v>
+        <v>0.9157022416805443</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8914353050423823</v>
+        <v>0.8745632618181329</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8914206595535052</v>
+        <v>0.8712599152999305</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9195173300808774</v>
+        <v>0.9271748167851205</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9166951994894259</v>
+        <v>0.9161741887207637</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8929385775580735</v>
+        <v>0.8748455684810961</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8932396654750958</v>
+        <v>0.8712178052853261</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9198002661712357</v>
+        <v>0.9280020089983643</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9172062314649359</v>
+        <v>0.9171499841803172</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8946271570001558</v>
+        <v>0.8744033499968439</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8936958407201295</v>
+        <v>0.8714341132071189</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9176135942260129</v>
+        <v>0.928898924819739</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9147586198801867</v>
+        <v>0.9182344325077346</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8945403805126511</v>
+        <v>0.8748491692975312</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9019074284500779</v>
+        <v>0.8715130819639121</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9177697307628608</v>
+        <v>0.929632490283026</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9146138650964909</v>
+        <v>0.9191018776190316</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8915015756323774</v>
+        <v>0.8739688617099821</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8915428694722825</v>
+        <v>0.8710486928634392</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9172366141549952</v>
+        <v>0.9297249307686463</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9146205871319146</v>
+        <v>0.9192997986170403</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8916061144039953</v>
+        <v>0.8741870374444719</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8936579062882566</v>
+        <v>0.8711054289320301</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9181821552404279</v>
+        <v>0.9294104770915695</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9159603382221619</v>
+        <v>0.9191111060519679</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8945802613049522</v>
+        <v>0.8738802832007597</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8950920002775009</v>
+        <v>0.8708521847550288</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9125716864029755</v>
+        <v>0.9289064574466174</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9108513225687828</v>
+        <v>0.9187113137958294</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8889698939529399</v>
+        <v>0.8741554698157897</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8890860180853088</v>
+        <v>0.8707882094746889</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9123822808819777</v>
+        <v>0.9284751214759371</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9107578279201244</v>
+        <v>0.9183370733548629</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8874340089256085</v>
+        <v>0.8735993424774565</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8869820033866666</v>
+        <v>0.8702350053258228</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9091009136951287</v>
+        <v>0.928002033134957</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9069613626906735</v>
+        <v>0.917913331715519</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8856660728426508</v>
+        <v>0.8751216203739962</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8855622838968208</v>
+        <v>0.871045767848263</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9039730457307216</v>
+        <v>0.9275866103509056</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9013559519991292</v>
+        <v>0.9175629312958945</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8806610536271703</v>
+        <v>0.8749644253466362</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8807769816044566</v>
+        <v>0.8709589764953263</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9002839463062976</v>
+        <v>0.9271995862911528</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8975549582782731</v>
+        <v>0.9172817382729925</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8793866853889993</v>
+        <v>0.874392033433419</v>
       </c>
       <c r="E48" t="n">
-        <v>0.878485804501446</v>
+        <v>0.8706288181751174</v>
       </c>
     </row>
     <row r="49">
@@ -1264,16 +1264,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8994223067662284</v>
+        <v>0.9268104587349253</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8960986603848818</v>
+        <v>0.9169533701720317</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8729728212081209</v>
+        <v>0.8744269875800088</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8726402368731119</v>
+        <v>0.8708850610293272</v>
       </c>
     </row>
     <row r="50">
@@ -1281,16 +1281,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8979590986455133</v>
+        <v>0.9262109737776265</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8944173253810672</v>
+        <v>0.9163285454525057</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8774645220036813</v>
+        <v>0.8749206884916195</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8795237762453924</v>
+        <v>0.8708869585421672</v>
       </c>
     </row>
     <row r="51">
@@ -1298,16 +1298,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8967298535538744</v>
+        <v>0.9255908495993385</v>
       </c>
       <c r="C51" t="n">
-        <v>0.893233611311307</v>
+        <v>0.915756223635215</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8736778629350053</v>
+        <v>0.8744817627947015</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8751609223268961</v>
+        <v>0.8707742907974423</v>
       </c>
     </row>
     <row r="52">
@@ -1315,16 +1315,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9002240470231939</v>
+        <v>0.9253105116139754</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8964370302838357</v>
+        <v>0.9154202718180224</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8779953612326356</v>
+        <v>0.8738516503087485</v>
       </c>
       <c r="E52" t="n">
-        <v>0.879755968795615</v>
+        <v>0.8703667561784877</v>
       </c>
     </row>
     <row r="53">
@@ -1332,16 +1332,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8999526736494073</v>
+        <v>0.9256329123244563</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8964183579110754</v>
+        <v>0.9157169086943938</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8797976122865016</v>
+        <v>0.8745512150685961</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8811584510148669</v>
+        <v>0.8703576759475911</v>
       </c>
     </row>
     <row r="54">
@@ -1349,16 +1349,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8984927189685924</v>
+        <v>0.925721949415381</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8953146621484058</v>
+        <v>0.9157066494989343</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8770191530608489</v>
+        <v>0.8727780915037781</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8775427759912986</v>
+        <v>0.869630157033548</v>
       </c>
     </row>
     <row r="55">
@@ -1366,16 +1366,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9004493814999147</v>
+        <v>0.9260435254408128</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8972853651350902</v>
+        <v>0.9159649465223954</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8846939840179185</v>
+        <v>0.8727133772710344</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8837685866561209</v>
+        <v>0.8693231708625559</v>
       </c>
     </row>
     <row r="56">
@@ -1383,16 +1383,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9039782643759858</v>
+        <v>0.9258875653676639</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9008395858627881</v>
+        <v>0.9157704168078333</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8859344061748402</v>
+        <v>0.8722893522171578</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8860456617013387</v>
+        <v>0.86885046834619</v>
       </c>
     </row>
     <row r="57">
@@ -1400,16 +1400,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9042194058952371</v>
+        <v>0.9259274130920281</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9010044146961103</v>
+        <v>0.9158236129228123</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8847300375014696</v>
+        <v>0.8721807979117143</v>
       </c>
       <c r="E57" t="n">
-        <v>0.8847320904077672</v>
+        <v>0.8687920031791051</v>
       </c>
     </row>
     <row r="58">
@@ -1417,16 +1417,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.906794892247592</v>
+        <v>0.925843490117269</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9035245869954007</v>
+        <v>0.9156796720837977</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8843602040041718</v>
+        <v>0.872209432989693</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8845231337276962</v>
+        <v>0.8684465021959454</v>
       </c>
     </row>
     <row r="59">
@@ -1434,16 +1434,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9045595257324457</v>
+        <v>0.9262289573562777</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9013803122131817</v>
+        <v>0.9160723736765174</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8828242212274789</v>
+        <v>0.8724566759653195</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8826167529419643</v>
+        <v>0.8688414617860656</v>
       </c>
     </row>
     <row r="60">
@@ -1451,16 +1451,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9008613372052338</v>
+        <v>0.9258190551793022</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8974660457007193</v>
+        <v>0.9156762321063719</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8802056275456454</v>
+        <v>0.872664108013418</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8803721848409589</v>
+        <v>0.8693287658941107</v>
       </c>
     </row>
     <row r="61">
@@ -1468,16 +1468,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9030824885980777</v>
+        <v>0.9257299239997716</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8993800407756429</v>
+        <v>0.9155991981507527</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8837312449511294</v>
+        <v>0.871978437398</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8838585903460203</v>
+        <v>0.8688382680568982</v>
       </c>
     </row>
     <row r="62">
@@ -1485,16 +1485,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9009736408684204</v>
+        <v>0.925594200586829</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8970363295503836</v>
+        <v>0.9155575915146718</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8783062145921539</v>
+        <v>0.8717691628722217</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8784746019374573</v>
+        <v>0.8686303430996926</v>
       </c>
     </row>
     <row r="63">
@@ -1502,16 +1502,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9001174357915243</v>
+        <v>0.9252847258091914</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8961277821697213</v>
+        <v>0.9153764828893108</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8815200879785856</v>
+        <v>0.8727278373699272</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8828282065311566</v>
+        <v>0.8694875886875211</v>
       </c>
     </row>
     <row r="64">
@@ -1519,16 +1519,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8996231221269857</v>
+        <v>0.9251191590824823</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8957897678293636</v>
+        <v>0.9152987767763379</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8807316747321756</v>
+        <v>0.8733538604855914</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8810418366360858</v>
+        <v>0.8700289758791415</v>
       </c>
     </row>
     <row r="65">
@@ -1536,16 +1536,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9024733717674421</v>
+        <v>0.9243951079467138</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8991263699826546</v>
+        <v>0.9147529004496564</v>
       </c>
       <c r="D65" t="n">
-        <v>0.884073578660576</v>
+        <v>0.8736793400904022</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8848393918032272</v>
+        <v>0.8702492435849997</v>
       </c>
     </row>
     <row r="66">
@@ -1553,16 +1553,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9027451994034497</v>
+        <v>0.9241943717601862</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8999274701101329</v>
+        <v>0.9146327823862483</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8811022665987376</v>
+        <v>0.873711056048791</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8843281489359209</v>
+        <v>0.8705657224908501</v>
       </c>
     </row>
     <row r="67">
@@ -1570,16 +1570,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.905601530141031</v>
+        <v>0.9239427905371655</v>
       </c>
       <c r="C67" t="n">
-        <v>0.902894048104512</v>
+        <v>0.9145624667200161</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8840633826969347</v>
+        <v>0.8737167447220696</v>
       </c>
       <c r="E67" t="n">
-        <v>0.8855980068583171</v>
+        <v>0.8710938227003977</v>
       </c>
     </row>
     <row r="68">
@@ -1587,16 +1587,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9020197716952819</v>
+        <v>0.9239823291863196</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8993519068900838</v>
+        <v>0.914754801366941</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8859755845273199</v>
+        <v>0.8738236346109711</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8861122257503083</v>
+        <v>0.8711857250254869</v>
       </c>
     </row>
     <row r="69">
@@ -1604,16 +1604,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9084140884229905</v>
+        <v>0.923774213250014</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9051240310345918</v>
+        <v>0.9148220107366505</v>
       </c>
       <c r="D69" t="n">
-        <v>0.890315819268795</v>
+        <v>0.874187855837932</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8903585231278772</v>
+        <v>0.8711459679333918</v>
       </c>
     </row>
     <row r="70">
@@ -1621,16 +1621,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8965824373866603</v>
+        <v>0.9233923062612285</v>
       </c>
       <c r="C70" t="n">
-        <v>0.893923573594134</v>
+        <v>0.9147111976619398</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8808117208775559</v>
+        <v>0.8740821762517148</v>
       </c>
       <c r="E70" t="n">
-        <v>0.88097905582821</v>
+        <v>0.8707373900802006</v>
       </c>
     </row>
     <row r="71">
@@ -1638,16 +1638,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8904459007536922</v>
+        <v>0.9230405179102674</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8887783982499157</v>
+        <v>0.9147408443710822</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8751481726992474</v>
+        <v>0.8751070132847916</v>
       </c>
       <c r="E71" t="n">
-        <v>0.8756060922017572</v>
+        <v>0.871056620532577</v>
       </c>
     </row>
     <row r="72">
@@ -1655,16 +1655,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8876463896311569</v>
+        <v>0.9231131626354727</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8872059497117633</v>
+        <v>0.9150299787747066</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8646122357580344</v>
+        <v>0.8733833388564806</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8688507131672701</v>
+        <v>0.8702692042931209</v>
       </c>
     </row>
     <row r="73">
@@ -1672,16 +1672,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9017613540649956</v>
+        <v>0.9224384795031995</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9007348831931583</v>
+        <v>0.9146382479576891</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8774468263748021</v>
+        <v>0.8738856868642055</v>
       </c>
       <c r="E73" t="n">
-        <v>0.877834179245859</v>
+        <v>0.8698419165176693</v>
       </c>
     </row>
     <row r="74">
@@ -1689,16 +1689,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8955508112265522</v>
+        <v>0.9220683998337345</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8938181182949578</v>
+        <v>0.9144489073502313</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8709549258498847</v>
+        <v>0.8743025627836376</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8713933202408176</v>
+        <v>0.8704399596871921</v>
       </c>
     </row>
     <row r="75">
@@ -1706,16 +1706,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8867178296358627</v>
+        <v>0.9215263299273015</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8848225638985536</v>
+        <v>0.9139928428445598</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8651196353208546</v>
+        <v>0.8739361460259016</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8654769737318238</v>
+        <v>0.8705514810637954</v>
       </c>
     </row>
     <row r="76">
@@ -1723,16 +1723,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8889940589225356</v>
+        <v>0.9219812458043667</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8868113180714491</v>
+        <v>0.9144992413751398</v>
       </c>
       <c r="D76" t="n">
-        <v>0.869062399327479</v>
+        <v>0.8739561335879946</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8703819886416556</v>
+        <v>0.8708243926058472</v>
       </c>
     </row>
     <row r="77">
@@ -1740,16 +1740,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8945295589664982</v>
+        <v>0.921968721494258</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8926757239230813</v>
+        <v>0.9146136413947176</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8771254184567625</v>
+        <v>0.8751489083790415</v>
       </c>
       <c r="E77" t="n">
-        <v>0.8774545019231745</v>
+        <v>0.8714090800328279</v>
       </c>
     </row>
     <row r="78">
@@ -1757,16 +1757,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8947131164538263</v>
+        <v>0.9221905385865933</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8923260863406874</v>
+        <v>0.9149910841850758</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8753122128704217</v>
+        <v>0.8754049101545489</v>
       </c>
       <c r="E78" t="n">
-        <v>0.8757425081315848</v>
+        <v>0.8725044915801791</v>
       </c>
     </row>
     <row r="79">
@@ -1774,16 +1774,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8972097502333801</v>
+        <v>0.9218857141571677</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8943096026504482</v>
+        <v>0.9147871782450954</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8791520983319151</v>
+        <v>0.8762069332430752</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8796904775134275</v>
+        <v>0.8728949575425881</v>
       </c>
     </row>
     <row r="80">
@@ -1791,16 +1791,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9015039757388086</v>
+        <v>0.9221981754230051</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8984874787821122</v>
+        <v>0.9151196520510575</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8790594552380895</v>
+        <v>0.8765290731588421</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8795032429124294</v>
+        <v>0.8739263396984713</v>
       </c>
     </row>
     <row r="81">
@@ -1808,16 +1808,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9061782966763922</v>
+        <v>0.9230397714826292</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9032537595060627</v>
+        <v>0.9159596033048188</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8791395477479202</v>
+        <v>0.8790393408871627</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8794265828455937</v>
+        <v>0.8756951453314228</v>
       </c>
     </row>
     <row r="82">
@@ -1825,16 +1825,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9113880249212725</v>
+        <v>0.9242599391900088</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9089367283391562</v>
+        <v>0.9172213357886507</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8842718116904035</v>
+        <v>0.8807201063116648</v>
       </c>
       <c r="E82" t="n">
-        <v>0.884437616134678</v>
+        <v>0.8774306750969236</v>
       </c>
     </row>
     <row r="83">
@@ -1842,16 +1842,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9118675013903814</v>
+        <v>0.9251560602281027</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9089571110814397</v>
+        <v>0.9180830381901879</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8841846868367726</v>
+        <v>0.8809587498529494</v>
       </c>
       <c r="E83" t="n">
-        <v>0.884141449721334</v>
+        <v>0.8780503844239878</v>
       </c>
     </row>
     <row r="84">
@@ -1859,16 +1859,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.911471917833</v>
+        <v>0.9258690765825323</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9086044475575035</v>
+        <v>0.9187763236085241</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8859673694047916</v>
+        <v>0.8813270008380549</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8856553748041367</v>
+        <v>0.8783641053589761</v>
       </c>
     </row>
     <row r="85">
@@ -1876,16 +1876,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9108492828237575</v>
+        <v>0.926614953043157</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9074879728819207</v>
+        <v>0.9195308706759291</v>
       </c>
       <c r="D85" t="n">
-        <v>0.881223379683221</v>
+        <v>0.8820120266893267</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8815512744024185</v>
+        <v>0.8790632728852628</v>
       </c>
     </row>
     <row r="86">
@@ -1893,16 +1893,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9097707701304819</v>
+        <v>0.9275683351753057</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9063602689705775</v>
+        <v>0.9205053459496803</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8815578848395275</v>
+        <v>0.8822069189088266</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8815261848574072</v>
+        <v>0.8786621547443996</v>
       </c>
     </row>
     <row r="87">
@@ -1910,16 +1910,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9118135610826543</v>
+        <v>0.9280985735932505</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9073378577337727</v>
+        <v>0.9210484238297365</v>
       </c>
       <c r="D87" t="n">
-        <v>0.883734606139291</v>
+        <v>0.8823507870133557</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8834210538682452</v>
+        <v>0.8787240735985157</v>
       </c>
     </row>
     <row r="88">
@@ -1927,16 +1927,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9068548449925342</v>
+        <v>0.9283088526589693</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9014181519851183</v>
+        <v>0.9212810199160137</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8864824042298964</v>
+        <v>0.8817661654103117</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8903035019438565</v>
+        <v>0.8781188433173759</v>
       </c>
     </row>
     <row r="89">
@@ -1944,16 +1944,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9016079384637351</v>
+        <v>0.928375490973871</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8957414583561421</v>
+        <v>0.9213412057656384</v>
       </c>
       <c r="D89" t="n">
-        <v>0.879151633900096</v>
+        <v>0.8821009547489964</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8802072829449408</v>
+        <v>0.8790828431576632</v>
       </c>
     </row>
     <row r="90">
@@ -1961,16 +1961,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.904010792681174</v>
+        <v>0.9285884033171488</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8976935852399919</v>
+        <v>0.921616435610813</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8816788019071065</v>
+        <v>0.8825721444458202</v>
       </c>
       <c r="E90" t="n">
-        <v>0.882058358041252</v>
+        <v>0.8794099326957068</v>
       </c>
     </row>
     <row r="91">
@@ -1978,16 +1978,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.906838281145375</v>
+        <v>0.9288161950783022</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9001853542102523</v>
+        <v>0.9217414859159683</v>
       </c>
       <c r="D91" t="n">
-        <v>0.8831926239836787</v>
+        <v>0.8825116325305018</v>
       </c>
       <c r="E91" t="n">
-        <v>0.8832363529353618</v>
+        <v>0.8798526010149718</v>
       </c>
     </row>
     <row r="92">
@@ -1995,16 +1995,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9067909140330951</v>
+        <v>0.9292845614376452</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9003919195513341</v>
+        <v>0.9222376610447758</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8774723545763679</v>
+        <v>0.8828690366983627</v>
       </c>
       <c r="E92" t="n">
-        <v>0.8776446842924384</v>
+        <v>0.8795934320856525</v>
       </c>
     </row>
     <row r="93">
@@ -2012,16 +2012,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9122835474439489</v>
+        <v>0.9286379191629862</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9058430488034255</v>
+        <v>0.9215872771668666</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8810938811201323</v>
+        <v>0.8836727005809745</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8811251578755092</v>
+        <v>0.8798265219443326</v>
       </c>
     </row>
     <row r="94">
@@ -2029,16 +2029,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9206884239438311</v>
+        <v>0.9282537442826679</v>
       </c>
       <c r="C94" t="n">
-        <v>0.91385484327463</v>
+        <v>0.9212755807629371</v>
       </c>
       <c r="D94" t="n">
-        <v>0.890430629292486</v>
+        <v>0.882481191392111</v>
       </c>
       <c r="E94" t="n">
-        <v>0.8904539027604244</v>
+        <v>0.8792510595012413</v>
       </c>
     </row>
     <row r="95">
@@ -2046,16 +2046,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9185077057747066</v>
+        <v>0.926576220947956</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9117152795415201</v>
+        <v>0.9195955479455323</v>
       </c>
       <c r="D95" t="n">
-        <v>0.8916767015973115</v>
+        <v>0.8818021968814878</v>
       </c>
       <c r="E95" t="n">
-        <v>0.8915899065363745</v>
+        <v>0.8787330847264804</v>
       </c>
     </row>
     <row r="96">
@@ -2063,16 +2063,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9208263834115766</v>
+        <v>0.9260259235903013</v>
       </c>
       <c r="C96" t="n">
-        <v>0.91415918187511</v>
+        <v>0.9190668234713021</v>
       </c>
       <c r="D96" t="n">
-        <v>0.8956515450999938</v>
+        <v>0.881294231013847</v>
       </c>
       <c r="E96" t="n">
-        <v>0.8966313110232462</v>
+        <v>0.8784268270121942</v>
       </c>
     </row>
     <row r="97">
@@ -2080,16 +2080,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9272024592629915</v>
+        <v>0.9250480875070416</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9205605306597214</v>
+        <v>0.9180607458883036</v>
       </c>
       <c r="D97" t="n">
-        <v>0.894958173904282</v>
+        <v>0.880593794496054</v>
       </c>
       <c r="E97" t="n">
-        <v>0.8958095040458819</v>
+        <v>0.8775934158740825</v>
       </c>
     </row>
     <row r="98">
@@ -2097,16 +2097,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9279538529360415</v>
+        <v>0.9254150739673903</v>
       </c>
       <c r="C98" t="n">
-        <v>0.921918219301737</v>
+        <v>0.9183849922089439</v>
       </c>
       <c r="D98" t="n">
-        <v>0.8943633979839707</v>
+        <v>0.879887865732166</v>
       </c>
       <c r="E98" t="n">
-        <v>0.8944668458871858</v>
+        <v>0.8774174188245264</v>
       </c>
     </row>
     <row r="99">
@@ -2114,16 +2114,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9291362331288</v>
+        <v>0.925168563228625</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9229778944727381</v>
+        <v>0.9179982200960942</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8958178036515657</v>
+        <v>0.8799913767523568</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8947096589258099</v>
+        <v>0.8770036886747888</v>
       </c>
     </row>
     <row r="100">
@@ -2131,16 +2131,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9251500471651966</v>
+        <v>0.9262527611649376</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9190298530165337</v>
+        <v>0.919016277864769</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8927172851925078</v>
+        <v>0.8811875695295733</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8917947780651572</v>
+        <v>0.8780562910407244</v>
       </c>
     </row>
     <row r="101">
@@ -2148,16 +2148,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9250511476714893</v>
+        <v>0.9266302453471496</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9191163024216843</v>
+        <v>0.9192678927211563</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8880111533169728</v>
+        <v>0.8821345104713925</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8828605871339458</v>
+        <v>0.8790761745234899</v>
       </c>
     </row>
     <row r="102">
@@ -2165,16 +2165,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9148218996730285</v>
+        <v>0.9278217952586074</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9064194090253261</v>
+        <v>0.9204286230615399</v>
       </c>
       <c r="D102" t="n">
-        <v>0.877751921393457</v>
+        <v>0.8825638323488508</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8783111407346926</v>
+        <v>0.8799696785841399</v>
       </c>
     </row>
     <row r="103">
@@ -2182,16 +2182,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9033183836028682</v>
+        <v>0.9279180997486348</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8936685653818011</v>
+        <v>0.920506720754913</v>
       </c>
       <c r="D103" t="n">
-        <v>0.8745272530748787</v>
+        <v>0.8827174443927082</v>
       </c>
       <c r="E103" t="n">
-        <v>0.8762086285821341</v>
+        <v>0.880232984905136</v>
       </c>
     </row>
     <row r="104">
@@ -2199,16 +2199,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8981227065900502</v>
+        <v>0.9281369715198099</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8883815636199841</v>
+        <v>0.9207141345680944</v>
       </c>
       <c r="D104" t="n">
-        <v>0.8755954735784828</v>
+        <v>0.8835185572008566</v>
       </c>
       <c r="E104" t="n">
-        <v>0.8769529239396605</v>
+        <v>0.8801962895478923</v>
       </c>
     </row>
     <row r="105">
@@ -2216,16 +2216,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9094220308668793</v>
+        <v>0.9281771335122462</v>
       </c>
       <c r="C105" t="n">
-        <v>0.901504129070489</v>
+        <v>0.9207794504531577</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8756782184863121</v>
+        <v>0.8845743402203586</v>
       </c>
       <c r="E105" t="n">
-        <v>0.8737142012073483</v>
+        <v>0.8813595520631359</v>
       </c>
     </row>
     <row r="106">
@@ -2233,16 +2233,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9174493793552155</v>
+        <v>0.9277071943811535</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9096552535567624</v>
+        <v>0.920259128949631</v>
       </c>
       <c r="D106" t="n">
-        <v>0.8741091165096365</v>
+        <v>0.8848641944401239</v>
       </c>
       <c r="E106" t="n">
-        <v>0.8737024209406065</v>
+        <v>0.8815632197754351</v>
       </c>
     </row>
     <row r="107">
@@ -2250,16 +2250,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9154221709805768</v>
+        <v>0.9270699979244236</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9085661724656183</v>
+        <v>0.9195469482578371</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8718074603778476</v>
+        <v>0.8852778110546012</v>
       </c>
       <c r="E107" t="n">
-        <v>0.8720081493637561</v>
+        <v>0.8817838172023132</v>
       </c>
     </row>
     <row r="108">
@@ -2267,16 +2267,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9223334368375915</v>
+        <v>0.9267987738056364</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9149880063621193</v>
+        <v>0.9192612701978931</v>
       </c>
       <c r="D108" t="n">
-        <v>0.8776309096283137</v>
+        <v>0.8843630092437113</v>
       </c>
       <c r="E108" t="n">
-        <v>0.8752743271599279</v>
+        <v>0.8813884582878301</v>
       </c>
     </row>
     <row r="109">
@@ -2284,16 +2284,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9316478517699236</v>
+        <v>0.9255958065029349</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9231332722217273</v>
+        <v>0.9180047237776342</v>
       </c>
       <c r="D109" t="n">
-        <v>0.8861454482831232</v>
+        <v>0.8848597381919654</v>
       </c>
       <c r="E109" t="n">
-        <v>0.8862321967817878</v>
+        <v>0.8815329847381261</v>
       </c>
     </row>
     <row r="110">
@@ -2301,16 +2301,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9317086297834696</v>
+        <v>0.9254066170609669</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9225391023020288</v>
+        <v>0.9177304655654819</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9046682184922752</v>
+        <v>0.8841451642567033</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9058777655855147</v>
+        <v>0.8806935048138456</v>
       </c>
     </row>
     <row r="111">
@@ -2318,16 +2318,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9279067238867115</v>
+        <v>0.9247040908689887</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9177347473689336</v>
+        <v>0.9169744805727553</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9077934786906668</v>
+        <v>0.8831729815282232</v>
       </c>
       <c r="E111" t="n">
-        <v>0.900653100541864</v>
+        <v>0.8799039762068077</v>
       </c>
     </row>
     <row r="112">
@@ -2335,16 +2335,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9279495202455306</v>
+        <v>0.9250181044081196</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9173020073154768</v>
+        <v>0.9171973599500376</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8999069650702574</v>
+        <v>0.8828699561748016</v>
       </c>
       <c r="E112" t="n">
-        <v>0.8967801779297585</v>
+        <v>0.8792085708300625</v>
       </c>
     </row>
     <row r="113">
@@ -2352,16 +2352,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9302464763886078</v>
+        <v>0.9242986381633709</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9193986236914462</v>
+        <v>0.9164019307226373</v>
       </c>
       <c r="D113" t="n">
-        <v>0.8992050211626172</v>
+        <v>0.8820911235943563</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9031373828911584</v>
+        <v>0.878800317648636</v>
       </c>
     </row>
     <row r="114">
@@ -2369,16 +2369,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9340113342253383</v>
+        <v>0.923311172380274</v>
       </c>
       <c r="C114" t="n">
-        <v>0.923485185956081</v>
+        <v>0.9153805585453557</v>
       </c>
       <c r="D114" t="n">
-        <v>0.8998933078096973</v>
+        <v>0.8812232891830435</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9001256692743418</v>
+        <v>0.8783356611212859</v>
       </c>
     </row>
     <row r="115">
@@ -2386,16 +2386,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9353284783259057</v>
+        <v>0.9227551109216011</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9250855862861237</v>
+        <v>0.9147987090904932</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8992750946632204</v>
+        <v>0.8808304681380558</v>
       </c>
       <c r="E115" t="n">
-        <v>0.8987265503303927</v>
+        <v>0.878052157402063</v>
       </c>
     </row>
     <row r="116">
@@ -2403,16 +2403,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9359199844845997</v>
+        <v>0.922227341615398</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9256554438075391</v>
+        <v>0.9141880024067488</v>
       </c>
       <c r="D116" t="n">
-        <v>0.8982179286732515</v>
+        <v>0.8815142032657675</v>
       </c>
       <c r="E116" t="n">
-        <v>0.8971907437511263</v>
+        <v>0.8775603292887895</v>
       </c>
     </row>
     <row r="117">
@@ -2420,16 +2420,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9356860260705204</v>
+        <v>0.9216136971713372</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9252327673838345</v>
+        <v>0.913503037443693</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9001620949653155</v>
+        <v>0.8807118072278067</v>
       </c>
       <c r="E117" t="n">
-        <v>0.8959936688686421</v>
+        <v>0.8775361060306686</v>
       </c>
     </row>
     <row r="118">
@@ -2437,16 +2437,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9329543913250414</v>
+        <v>0.921348596803501</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9225876089250703</v>
+        <v>0.9131111508350825</v>
       </c>
       <c r="D118" t="n">
-        <v>0.8928248592886411</v>
+        <v>0.8808401930808661</v>
       </c>
       <c r="E118" t="n">
-        <v>0.8927223471267201</v>
+        <v>0.8771655947400518</v>
       </c>
     </row>
     <row r="119">
@@ -2454,16 +2454,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9304560862257124</v>
+        <v>0.9209304476923394</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9201245949341612</v>
+        <v>0.9126674412075093</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8868594153811324</v>
+        <v>0.8802624114365916</v>
       </c>
       <c r="E119" t="n">
-        <v>0.8870873065535443</v>
+        <v>0.876892594152629</v>
       </c>
     </row>
     <row r="120">
@@ -2471,16 +2471,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9306017949753531</v>
+        <v>0.921159908594675</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9210334710869283</v>
+        <v>0.9128923388974346</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8863243575888109</v>
+        <v>0.8803994830611291</v>
       </c>
       <c r="E120" t="n">
-        <v>0.8865085466240472</v>
+        <v>0.8765598992511239</v>
       </c>
     </row>
     <row r="121">
@@ -2488,16 +2488,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9319371834709946</v>
+        <v>0.9204558344461214</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9226210275876526</v>
+        <v>0.9121825700540218</v>
       </c>
       <c r="D121" t="n">
-        <v>0.8855572102339631</v>
+        <v>0.8790759496517135</v>
       </c>
       <c r="E121" t="n">
-        <v>0.8857558129454638</v>
+        <v>0.8759280320418265</v>
       </c>
     </row>
     <row r="122">
@@ -2505,16 +2505,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.9331444464261608</v>
+        <v>0.920037075765181</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9236842675466129</v>
+        <v>0.9117028250571568</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9025848429557614</v>
+        <v>0.8785745353111597</v>
       </c>
       <c r="E122" t="n">
-        <v>0.8924395152276456</v>
+        <v>0.8750898187175349</v>
       </c>
     </row>
     <row r="123">
@@ -2522,16 +2522,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.934411314369508</v>
+        <v>0.9187710295982024</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9250073326923023</v>
+        <v>0.9103750074612754</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9071228816162996</v>
+        <v>0.8771862055729589</v>
       </c>
       <c r="E123" t="n">
-        <v>0.8901706801093884</v>
+        <v>0.8739065398448866</v>
       </c>
     </row>
     <row r="124">
@@ -2539,16 +2539,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9307304484261707</v>
+        <v>0.9179536337729037</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9214085034441669</v>
+        <v>0.9095996700889516</v>
       </c>
       <c r="D124" t="n">
-        <v>0.8967760495033473</v>
+        <v>0.8763093929393807</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9051731024499468</v>
+        <v>0.8732906971111709</v>
       </c>
     </row>
     <row r="125">
@@ -2556,16 +2556,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9268878861222312</v>
+        <v>0.9172031684371651</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9174126744662428</v>
+        <v>0.9089501250844162</v>
       </c>
       <c r="D125" t="n">
-        <v>0.8940556702792258</v>
+        <v>0.8757068563195416</v>
       </c>
       <c r="E125" t="n">
-        <v>0.8997941755445913</v>
+        <v>0.8726507918107304</v>
       </c>
     </row>
     <row r="126">
@@ -2573,16 +2573,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.9271868091369668</v>
+        <v>0.9156493847960687</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9171097395155661</v>
+        <v>0.9075215153985019</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8869900256585294</v>
+        <v>0.8746496639650956</v>
       </c>
       <c r="E126" t="n">
-        <v>0.8873466660801117</v>
+        <v>0.8719725697584184</v>
       </c>
     </row>
     <row r="127">
@@ -2590,16 +2590,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9262378324555735</v>
+        <v>0.9139767993977973</v>
       </c>
       <c r="C127" t="n">
-        <v>0.915435839535679</v>
+        <v>0.9059624452949686</v>
       </c>
       <c r="D127" t="n">
-        <v>0.8872370728573122</v>
+        <v>0.8744987948867343</v>
       </c>
       <c r="E127" t="n">
-        <v>0.8922988925345603</v>
+        <v>0.8716244138521418</v>
       </c>
     </row>
     <row r="128">
@@ -2607,16 +2607,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9247588602793055</v>
+        <v>0.9128351719743921</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9132874938080524</v>
+        <v>0.9049719026720979</v>
       </c>
       <c r="D128" t="n">
-        <v>0.886136409659914</v>
+        <v>0.8743937729383164</v>
       </c>
       <c r="E128" t="n">
-        <v>0.8813022404318275</v>
+        <v>0.8715651246873855</v>
       </c>
     </row>
     <row r="129">
@@ -2624,16 +2624,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.9249446816238873</v>
+        <v>0.9107607082846499</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9133609625303134</v>
+        <v>0.9030300437903506</v>
       </c>
       <c r="D129" t="n">
-        <v>0.8830661161244148</v>
+        <v>0.8745351925537528</v>
       </c>
       <c r="E129" t="n">
-        <v>0.8807488154513088</v>
+        <v>0.8708193389385895</v>
       </c>
     </row>
     <row r="130">
@@ -2641,16 +2641,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9243759717610449</v>
+        <v>0.9094042323970769</v>
       </c>
       <c r="C130" t="n">
-        <v>0.912436357695525</v>
+        <v>0.9018690003373095</v>
       </c>
       <c r="D130" t="n">
-        <v>0.8902845894857025</v>
+        <v>0.8738710345761801</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9038912013059839</v>
+        <v>0.8700958875318744</v>
       </c>
     </row>
     <row r="131">
@@ -2658,16 +2658,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.923122706657854</v>
+        <v>0.907696062678738</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9110124691345926</v>
+        <v>0.900299000566963</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8969730027073954</v>
+        <v>0.8715734008188853</v>
       </c>
       <c r="E131" t="n">
-        <v>0.9026842264721662</v>
+        <v>0.8692701305830264</v>
       </c>
     </row>
     <row r="132">
@@ -2675,16 +2675,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9202298765322382</v>
+        <v>0.9063234448502715</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9078145389989946</v>
+        <v>0.8990830620090748</v>
       </c>
       <c r="D132" t="n">
-        <v>0.874661952314298</v>
+        <v>0.8708873395671632</v>
       </c>
       <c r="E132" t="n">
-        <v>0.8748268816954339</v>
+        <v>0.8681960454076927</v>
       </c>
     </row>
     <row r="133">
@@ -2692,16 +2692,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.917051167777676</v>
+        <v>0.9044503304089795</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9044426277599305</v>
+        <v>0.8972164030102405</v>
       </c>
       <c r="D133" t="n">
-        <v>0.8814612819492182</v>
+        <v>0.8698137539810679</v>
       </c>
       <c r="E133" t="n">
-        <v>0.8862758212975873</v>
+        <v>0.867285646283228</v>
       </c>
     </row>
     <row r="134">
@@ -2709,16 +2709,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9166792587100362</v>
+        <v>0.9039496346707434</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9044663239788763</v>
+        <v>0.8968443738452252</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8783579201338734</v>
+        <v>0.8701821889530568</v>
       </c>
       <c r="E134" t="n">
-        <v>0.8870075625806875</v>
+        <v>0.8668939927975883</v>
       </c>
     </row>
     <row r="135">
@@ -2726,16 +2726,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.9172628032648196</v>
+        <v>0.9026095972438279</v>
       </c>
       <c r="C135" t="n">
-        <v>0.9053605473950581</v>
+        <v>0.8956753286895499</v>
       </c>
       <c r="D135" t="n">
-        <v>0.871455188895255</v>
+        <v>0.8691985975875408</v>
       </c>
       <c r="E135" t="n">
-        <v>0.8776790514244428</v>
+        <v>0.8665546511471743</v>
       </c>
     </row>
     <row r="136">
@@ -2743,16 +2743,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.9216165190611254</v>
+        <v>0.90185236454492</v>
       </c>
       <c r="C136" t="n">
-        <v>0.909509095026771</v>
+        <v>0.8950145399077196</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8757892340433943</v>
+        <v>0.867593346446524</v>
       </c>
       <c r="E136" t="n">
-        <v>0.8837731358158367</v>
+        <v>0.8653360147091185</v>
       </c>
     </row>
     <row r="137">
@@ -2760,16 +2760,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.924082541731156</v>
+        <v>0.9011032501779737</v>
       </c>
       <c r="C137" t="n">
-        <v>0.911911958718404</v>
+        <v>0.8944117431804266</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8754568866894195</v>
+        <v>0.8668699588376665</v>
       </c>
       <c r="E137" t="n">
-        <v>0.8761845060587139</v>
+        <v>0.8646010379529419</v>
       </c>
     </row>
     <row r="138">
@@ -2777,16 +2777,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.9221033607248362</v>
+        <v>0.9006490231045301</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9096405214138937</v>
+        <v>0.8941054722140533</v>
       </c>
       <c r="D138" t="n">
-        <v>0.8780749822125019</v>
+        <v>0.86594982109765</v>
       </c>
       <c r="E138" t="n">
-        <v>0.8783155596188355</v>
+        <v>0.8639311424088966</v>
       </c>
     </row>
     <row r="139">
@@ -2794,16 +2794,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9259587504516746</v>
+        <v>0.9006043706478717</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9140563158820627</v>
+        <v>0.8942543907821858</v>
       </c>
       <c r="D139" t="n">
-        <v>0.8816150795218851</v>
+        <v>0.8660906923861882</v>
       </c>
       <c r="E139" t="n">
-        <v>0.8821269791372101</v>
+        <v>0.8632532804150856</v>
       </c>
     </row>
     <row r="140">
@@ -2811,16 +2811,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9266061232973339</v>
+        <v>0.9011807231561469</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9149539879730695</v>
+        <v>0.8950513547463611</v>
       </c>
       <c r="D140" t="n">
-        <v>0.8820744094520367</v>
+        <v>0.8644261084495188</v>
       </c>
       <c r="E140" t="n">
-        <v>0.881638518431766</v>
+        <v>0.862221930619732</v>
       </c>
     </row>
     <row r="141">
@@ -2828,16 +2828,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9249742163432781</v>
+        <v>0.900904765344426</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9134724934377559</v>
+        <v>0.8949327806416489</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8896569503625971</v>
+        <v>0.8636898052439742</v>
       </c>
       <c r="E141" t="n">
-        <v>0.8939755486507528</v>
+        <v>0.8608976838902124</v>
       </c>
     </row>
     <row r="142">
@@ -2845,16 +2845,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.9220662299235332</v>
+        <v>0.9005385732258371</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9105414628788513</v>
+        <v>0.8947682261066869</v>
       </c>
       <c r="D142" t="n">
-        <v>0.8803863337907504</v>
+        <v>0.8628891480477825</v>
       </c>
       <c r="E142" t="n">
-        <v>0.8824631393130657</v>
+        <v>0.8604231808527296</v>
       </c>
     </row>
     <row r="143">
@@ -2862,16 +2862,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.9212844940397602</v>
+        <v>0.9003338491976338</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9104436830505709</v>
+        <v>0.8946137479682802</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8814020261774482</v>
+        <v>0.8630725101951496</v>
       </c>
       <c r="E143" t="n">
-        <v>0.8815257035120212</v>
+        <v>0.8609605002983138</v>
       </c>
     </row>
     <row r="144">
@@ -2879,16 +2879,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.9245413928370332</v>
+        <v>0.9001120001824707</v>
       </c>
       <c r="C144" t="n">
-        <v>0.9144770286391675</v>
+        <v>0.8944565505948949</v>
       </c>
       <c r="D144" t="n">
-        <v>0.8857168599810349</v>
+        <v>0.8638502555067581</v>
       </c>
       <c r="E144" t="n">
-        <v>0.8859243510360748</v>
+        <v>0.8616679065375208</v>
       </c>
     </row>
     <row r="145">
@@ -2896,16 +2896,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.9230075828617641</v>
+        <v>0.8988127971184949</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9134585797796564</v>
+        <v>0.8932713034770807</v>
       </c>
       <c r="D145" t="n">
-        <v>0.8920111713170036</v>
+        <v>0.8632346934398947</v>
       </c>
       <c r="E145" t="n">
-        <v>0.8853025444564955</v>
+        <v>0.8612648804400937</v>
       </c>
     </row>
     <row r="146">
@@ -2913,16 +2913,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.9245267188499342</v>
+        <v>0.8981831483136296</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9161875500888561</v>
+        <v>0.8927337132646276</v>
       </c>
       <c r="D146" t="n">
-        <v>0.8862150572025771</v>
+        <v>0.8637370697999066</v>
       </c>
       <c r="E146" t="n">
-        <v>0.8886028684663386</v>
+        <v>0.8613111797323568</v>
       </c>
     </row>
     <row r="147">
@@ -2930,16 +2930,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.9224030438625748</v>
+        <v>0.8972216893665141</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9146737531989724</v>
+        <v>0.8918187857524817</v>
       </c>
       <c r="D147" t="n">
-        <v>0.8832166736204732</v>
+        <v>0.8630684086862066</v>
       </c>
       <c r="E147" t="n">
-        <v>0.8845211870239502</v>
+        <v>0.8609540379946755</v>
       </c>
     </row>
     <row r="148">
@@ -2947,16 +2947,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.9222894253000015</v>
+        <v>0.8969587983347571</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9144210572674341</v>
+        <v>0.8916155898169712</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9006999605778989</v>
+        <v>0.8636303206448868</v>
       </c>
       <c r="E148" t="n">
-        <v>0.9065314173763612</v>
+        <v>0.8613132957669638</v>
       </c>
     </row>
     <row r="149">
@@ -2964,16 +2964,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.9216227936254189</v>
+        <v>0.8965137663297402</v>
       </c>
       <c r="C149" t="n">
-        <v>0.913718991530771</v>
+        <v>0.8912061427041393</v>
       </c>
       <c r="D149" t="n">
-        <v>0.8899309461740292</v>
+        <v>0.8632120797921319</v>
       </c>
       <c r="E149" t="n">
-        <v>0.8900607666129777</v>
+        <v>0.8610998788898026</v>
       </c>
     </row>
     <row r="150">
@@ -2981,16 +2981,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.9214075906288322</v>
+        <v>0.8957681096496072</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9129733659470778</v>
+        <v>0.8904782609716315</v>
       </c>
       <c r="D150" t="n">
-        <v>0.8927395787205317</v>
+        <v>0.8628007889980035</v>
       </c>
       <c r="E150" t="n">
-        <v>0.8928745784651682</v>
+        <v>0.8608816504697314</v>
       </c>
     </row>
     <row r="151">
@@ -2998,16 +2998,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.9224008842717093</v>
+        <v>0.8952853483574275</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9132373407779535</v>
+        <v>0.8899676725231661</v>
       </c>
       <c r="D151" t="n">
-        <v>0.8999668357248241</v>
+        <v>0.862804021722033</v>
       </c>
       <c r="E151" t="n">
-        <v>0.907008911413633</v>
+        <v>0.8608686692327762</v>
       </c>
     </row>
     <row r="152">
@@ -3015,16 +3015,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.9189791868707744</v>
+        <v>0.8952909867581433</v>
       </c>
       <c r="C152" t="n">
-        <v>0.909288898968899</v>
+        <v>0.8899924106509365</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9013455366414402</v>
+        <v>0.8625343336338782</v>
       </c>
       <c r="E152" t="n">
-        <v>0.9046876490230394</v>
+        <v>0.860890668063912</v>
       </c>
     </row>
     <row r="153">
@@ -3032,16 +3032,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.9153686538583337</v>
+        <v>0.895927457588037</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9059913979822521</v>
+        <v>0.8906595158687018</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9011684979566084</v>
+        <v>0.8628253162066022</v>
       </c>
       <c r="E153" t="n">
-        <v>0.8916509129912749</v>
+        <v>0.8610717571917641</v>
       </c>
     </row>
     <row r="154">
@@ -3049,16 +3049,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.9119486249448234</v>
+        <v>0.8953493729820671</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9028691059624984</v>
+        <v>0.8900950800707352</v>
       </c>
       <c r="D154" t="n">
-        <v>0.8976126341760724</v>
+        <v>0.8630560292165562</v>
       </c>
       <c r="E154" t="n">
-        <v>0.8889301053960704</v>
+        <v>0.8606946309955883</v>
       </c>
     </row>
     <row r="155">
@@ -3066,16 +3066,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.9114159351898723</v>
+        <v>0.8946963275985931</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9024740267556863</v>
+        <v>0.8894469110582455</v>
       </c>
       <c r="D155" t="n">
-        <v>0.896177166092316</v>
+        <v>0.8620817873095949</v>
       </c>
       <c r="E155" t="n">
-        <v>0.9056165044565576</v>
+        <v>0.8597536304116862</v>
       </c>
     </row>
     <row r="156">
@@ -3083,16 +3083,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.9145642657829813</v>
+        <v>0.8944225754020958</v>
       </c>
       <c r="C156" t="n">
-        <v>0.9057223555061968</v>
+        <v>0.8892215257215967</v>
       </c>
       <c r="D156" t="n">
-        <v>0.8973964732562298</v>
+        <v>0.8616722090638934</v>
       </c>
       <c r="E156" t="n">
-        <v>0.9041060400095319</v>
+        <v>0.8591860915378404</v>
       </c>
     </row>
     <row r="157">
@@ -3100,16 +3100,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.9159813671893466</v>
+        <v>0.8946352651787033</v>
       </c>
       <c r="C157" t="n">
-        <v>0.907919542658945</v>
+        <v>0.8895358607436905</v>
       </c>
       <c r="D157" t="n">
-        <v>0.8891619325724128</v>
+        <v>0.8608251031185102</v>
       </c>
       <c r="E157" t="n">
-        <v>0.889122955737961</v>
+        <v>0.8584369257436452</v>
       </c>
     </row>
     <row r="158">
@@ -3117,16 +3117,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.9171685616780729</v>
+        <v>0.894427076376126</v>
       </c>
       <c r="C158" t="n">
-        <v>0.909520472567543</v>
+        <v>0.8894928310288921</v>
       </c>
       <c r="D158" t="n">
-        <v>0.8896817529922267</v>
+        <v>0.8600136315450589</v>
       </c>
       <c r="E158" t="n">
-        <v>0.8914495562698579</v>
+        <v>0.8578013378098566</v>
       </c>
     </row>
     <row r="159">
@@ -3134,16 +3134,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.9200378875076929</v>
+        <v>0.8935955395880442</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9121449433021165</v>
+        <v>0.888835180288839</v>
       </c>
       <c r="D159" t="n">
-        <v>0.8887952036968764</v>
+        <v>0.8594469617887478</v>
       </c>
       <c r="E159" t="n">
-        <v>0.8890046513519555</v>
+        <v>0.8567095917830625</v>
       </c>
     </row>
     <row r="160">
@@ -3151,16 +3151,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.9285848740838758</v>
+        <v>0.8927758734326188</v>
       </c>
       <c r="C160" t="n">
-        <v>0.9212017774293455</v>
+        <v>0.8881641852702669</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9019789442225937</v>
+        <v>0.8583206195659628</v>
       </c>
       <c r="E160" t="n">
-        <v>0.9011206672121886</v>
+        <v>0.855671642279846</v>
       </c>
     </row>
     <row r="161">
@@ -3168,16 +3168,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.934393759297552</v>
+        <v>0.8925996204788681</v>
       </c>
       <c r="C161" t="n">
-        <v>0.9262103468864908</v>
+        <v>0.8880406942472382</v>
       </c>
       <c r="D161" t="n">
-        <v>0.8979121716997231</v>
+        <v>0.8577873069680549</v>
       </c>
       <c r="E161" t="n">
-        <v>0.8982729889150048</v>
+        <v>0.8549859266375827</v>
       </c>
     </row>
     <row r="162">
@@ -3185,16 +3185,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.9309529665896864</v>
+        <v>0.8925829492435883</v>
       </c>
       <c r="C162" t="n">
-        <v>0.9233903847705031</v>
+        <v>0.8880713869361334</v>
       </c>
       <c r="D162" t="n">
-        <v>0.8967620425136683</v>
+        <v>0.8572098604699565</v>
       </c>
       <c r="E162" t="n">
-        <v>0.8969402912483105</v>
+        <v>0.8544357871147242</v>
       </c>
     </row>
     <row r="163">
@@ -3202,16 +3202,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.9360925188194201</v>
+        <v>0.8920133681807025</v>
       </c>
       <c r="C163" t="n">
-        <v>0.928808730692682</v>
+        <v>0.8875226104249511</v>
       </c>
       <c r="D163" t="n">
-        <v>0.8992666549429291</v>
+        <v>0.8566329951480638</v>
       </c>
       <c r="E163" t="n">
-        <v>0.8940889676820386</v>
+        <v>0.8538080585252596</v>
       </c>
     </row>
     <row r="164">
@@ -3219,16 +3219,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.9365418093025559</v>
+        <v>0.8916109574584864</v>
       </c>
       <c r="C164" t="n">
-        <v>0.9293466310266194</v>
+        <v>0.8871452749509762</v>
       </c>
       <c r="D164" t="n">
-        <v>0.8942518903761921</v>
+        <v>0.8562798317351619</v>
       </c>
       <c r="E164" t="n">
-        <v>0.8945914770741279</v>
+        <v>0.8536801600471304</v>
       </c>
     </row>
     <row r="165">
@@ -3236,16 +3236,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.9340333458869596</v>
+        <v>0.8908737604866944</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9263824642546317</v>
+        <v>0.8864222694184634</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9109673906358754</v>
+        <v>0.856799246955211</v>
       </c>
       <c r="E165" t="n">
-        <v>0.9170270202445294</v>
+        <v>0.854301121156829</v>
       </c>
     </row>
     <row r="166">
@@ -3253,16 +3253,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.9330666538074253</v>
+        <v>0.8897594654986867</v>
       </c>
       <c r="C166" t="n">
-        <v>0.9249792402292469</v>
+        <v>0.8852676232753025</v>
       </c>
       <c r="D166" t="n">
-        <v>0.8901734464938522</v>
+        <v>0.8575010415974191</v>
       </c>
       <c r="E166" t="n">
-        <v>0.8901435950481902</v>
+        <v>0.8546498661015113</v>
       </c>
     </row>
     <row r="167">
@@ -3270,16 +3270,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.9345416181920285</v>
+        <v>0.8887593595337672</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9259164993468962</v>
+        <v>0.8842270833273214</v>
       </c>
       <c r="D167" t="n">
-        <v>0.8898265756523691</v>
+        <v>0.8573981546844387</v>
       </c>
       <c r="E167" t="n">
-        <v>0.8900239126915861</v>
+        <v>0.8550271997324749</v>
       </c>
     </row>
     <row r="168">
@@ -3287,16 +3287,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.9316245453650898</v>
+        <v>0.8884061527203806</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9227985284790571</v>
+        <v>0.8838004538762586</v>
       </c>
       <c r="D168" t="n">
-        <v>0.8912435584997946</v>
+        <v>0.8580342189649235</v>
       </c>
       <c r="E168" t="n">
-        <v>0.8917948731770928</v>
+        <v>0.8554027530934446</v>
       </c>
     </row>
     <row r="169">
@@ -3304,16 +3304,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.9312727265167554</v>
+        <v>0.8882118004545959</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9216941422886361</v>
+        <v>0.8836163507537421</v>
       </c>
       <c r="D169" t="n">
-        <v>0.8826746210217624</v>
+        <v>0.8574089156671598</v>
       </c>
       <c r="E169" t="n">
-        <v>0.8830283035370798</v>
+        <v>0.8552217817777159</v>
       </c>
     </row>
     <row r="170">
@@ -3321,16 +3321,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.928756175945185</v>
+        <v>0.8879801588376012</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9196142803425515</v>
+        <v>0.8834141184964247</v>
       </c>
       <c r="D170" t="n">
-        <v>0.8797552302850704</v>
+        <v>0.8562154450989761</v>
       </c>
       <c r="E170" t="n">
-        <v>0.8803819901052827</v>
+        <v>0.8543989897350657</v>
       </c>
     </row>
     <row r="171">
@@ -3338,16 +3338,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.9262291936161047</v>
+        <v>0.8875124388407185</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9162502046520655</v>
+        <v>0.8829072972802392</v>
       </c>
       <c r="D171" t="n">
-        <v>0.880609714775882</v>
+        <v>0.8547614194432487</v>
       </c>
       <c r="E171" t="n">
-        <v>0.8798697487058597</v>
+        <v>0.8526908745323269</v>
       </c>
     </row>
     <row r="172">
@@ -3355,16 +3355,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.9266935740572346</v>
+        <v>0.8877586953008404</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9167159070537176</v>
+        <v>0.8831277103578672</v>
       </c>
       <c r="D172" t="n">
-        <v>0.8804940799825536</v>
+        <v>0.8542588876701714</v>
       </c>
       <c r="E172" t="n">
-        <v>0.881047509161888</v>
+        <v>0.8523282816573488</v>
       </c>
     </row>
     <row r="173">
@@ -3372,16 +3372,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.9243088774645017</v>
+        <v>0.8877266624517917</v>
       </c>
       <c r="C173" t="n">
-        <v>0.9137722255227826</v>
+        <v>0.8830191645367302</v>
       </c>
       <c r="D173" t="n">
-        <v>0.8788749394404543</v>
+        <v>0.8540280258366048</v>
       </c>
       <c r="E173" t="n">
-        <v>0.8793269169824499</v>
+        <v>0.8517720903980537</v>
       </c>
     </row>
     <row r="174">
@@ -3389,16 +3389,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.9235599942687747</v>
+        <v>0.8875009989777776</v>
       </c>
       <c r="C174" t="n">
-        <v>0.9127904813341521</v>
+        <v>0.8827404590058596</v>
       </c>
       <c r="D174" t="n">
-        <v>0.8756722507769734</v>
+        <v>0.8539305892351798</v>
       </c>
       <c r="E174" t="n">
-        <v>0.8779325037072907</v>
+        <v>0.851354088422029</v>
       </c>
     </row>
     <row r="175">
@@ -3406,16 +3406,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.9258231567284491</v>
+        <v>0.8875047432170233</v>
       </c>
       <c r="C175" t="n">
-        <v>0.915270927673143</v>
+        <v>0.8826148114740862</v>
       </c>
       <c r="D175" t="n">
-        <v>0.8799424273695478</v>
+        <v>0.8527298576623972</v>
       </c>
       <c r="E175" t="n">
-        <v>0.8730597571598259</v>
+        <v>0.8509691516554807</v>
       </c>
     </row>
     <row r="176">
@@ -3423,16 +3423,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.9268384160947176</v>
+        <v>0.8869515423793403</v>
       </c>
       <c r="C176" t="n">
-        <v>0.916554400380664</v>
+        <v>0.8819160520036906</v>
       </c>
       <c r="D176" t="n">
-        <v>0.8771362975842589</v>
+        <v>0.8523861629011497</v>
       </c>
       <c r="E176" t="n">
-        <v>0.8736666329688543</v>
+        <v>0.8504384554657556</v>
       </c>
     </row>
     <row r="177">
@@ -3440,16 +3440,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.9233872473981397</v>
+        <v>0.8864494308452913</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9132616642339866</v>
+        <v>0.8812842529369717</v>
       </c>
       <c r="D177" t="n">
-        <v>0.8726559467154211</v>
+        <v>0.8521294906634149</v>
       </c>
       <c r="E177" t="n">
-        <v>0.8761546418031216</v>
+        <v>0.8499685111411781</v>
       </c>
     </row>
     <row r="178">
@@ -3457,16 +3457,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.922057927530487</v>
+        <v>0.8864963348439032</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9123407159398619</v>
+        <v>0.8811772034709549</v>
       </c>
       <c r="D178" t="n">
-        <v>0.8729359557760467</v>
+        <v>0.8527463268833381</v>
       </c>
       <c r="E178" t="n">
-        <v>0.8733264729123984</v>
+        <v>0.8501808143443903</v>
       </c>
     </row>
     <row r="179">
@@ -3474,16 +3474,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.9231414843086182</v>
+        <v>0.8862571354009567</v>
       </c>
       <c r="C179" t="n">
-        <v>0.9139228528297956</v>
+        <v>0.8807113988932667</v>
       </c>
       <c r="D179" t="n">
-        <v>0.872783748967612</v>
+        <v>0.8520316799395522</v>
       </c>
       <c r="E179" t="n">
-        <v>0.873194798021469</v>
+        <v>0.8501080499802948</v>
       </c>
     </row>
     <row r="180">
@@ -3491,16 +3491,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.9212320210396285</v>
+        <v>0.8855081586537077</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9117707714546959</v>
+        <v>0.8798123418996036</v>
       </c>
       <c r="D180" t="n">
-        <v>0.8712384169264769</v>
+        <v>0.8519506126132337</v>
       </c>
       <c r="E180" t="n">
-        <v>0.8708169161896124</v>
+        <v>0.8499710178487023</v>
       </c>
     </row>
     <row r="181">
@@ -3508,16 +3508,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.916515050203469</v>
+        <v>0.8848038691918585</v>
       </c>
       <c r="C181" t="n">
-        <v>0.9076363796883564</v>
+        <v>0.8790067447338739</v>
       </c>
       <c r="D181" t="n">
-        <v>0.8632170226837794</v>
+        <v>0.8526009734047082</v>
       </c>
       <c r="E181" t="n">
-        <v>0.863253451438552</v>
+        <v>0.8495372207774997</v>
       </c>
     </row>
     <row r="182">
@@ -3525,16 +3525,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.9133431821143158</v>
+        <v>0.8845304943669101</v>
       </c>
       <c r="C182" t="n">
-        <v>0.9049347856816496</v>
+        <v>0.878668323713733</v>
       </c>
       <c r="D182" t="n">
-        <v>0.8587055472674349</v>
+        <v>0.8516881792059379</v>
       </c>
       <c r="E182" t="n">
-        <v>0.8583604707187604</v>
+        <v>0.8493481640472369</v>
       </c>
     </row>
     <row r="183">
@@ -3542,16 +3542,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.9131048830969608</v>
+        <v>0.8835991573841973</v>
       </c>
       <c r="C183" t="n">
-        <v>0.9050638762914703</v>
+        <v>0.8776718620827823</v>
       </c>
       <c r="D183" t="n">
-        <v>0.8532470522575256</v>
+        <v>0.8506541534623797</v>
       </c>
       <c r="E183" t="n">
-        <v>0.8536616909278238</v>
+        <v>0.8481781403556145</v>
       </c>
     </row>
     <row r="184">
@@ -3559,16 +3559,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.9108943737086868</v>
+        <v>0.8828732547574154</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9029676854816093</v>
+        <v>0.8769353427120709</v>
       </c>
       <c r="D184" t="n">
-        <v>0.8531024298863642</v>
+        <v>0.8497552489830085</v>
       </c>
       <c r="E184" t="n">
-        <v>0.8533500357634218</v>
+        <v>0.8471997496350485</v>
       </c>
     </row>
     <row r="185">
@@ -3576,16 +3576,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.9088700611043539</v>
+        <v>0.8820120701914212</v>
       </c>
       <c r="C185" t="n">
-        <v>0.9007554190475651</v>
+        <v>0.8760721767992202</v>
       </c>
       <c r="D185" t="n">
-        <v>0.8508233710297359</v>
+        <v>0.848422190598896</v>
       </c>
       <c r="E185" t="n">
-        <v>0.8498437684042472</v>
+        <v>0.8460607740801998</v>
       </c>
     </row>
     <row r="186">
@@ -3593,16 +3593,16 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.9085201594357953</v>
+        <v>0.8810238458311449</v>
       </c>
       <c r="C186" t="n">
-        <v>0.900517175446351</v>
+        <v>0.8750318602690123</v>
       </c>
       <c r="D186" t="n">
-        <v>0.8502109480780204</v>
+        <v>0.847858463332033</v>
       </c>
       <c r="E186" t="n">
-        <v>0.8583168489302508</v>
+        <v>0.8452670740068637</v>
       </c>
     </row>
     <row r="187">
@@ -3610,16 +3610,16 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.9075862811881232</v>
+        <v>0.8801926816623689</v>
       </c>
       <c r="C187" t="n">
-        <v>0.899525727649941</v>
+        <v>0.8742156296090315</v>
       </c>
       <c r="D187" t="n">
-        <v>0.8612881528737543</v>
+        <v>0.8472144932427226</v>
       </c>
       <c r="E187" t="n">
-        <v>0.8484443405937123</v>
+        <v>0.8444921542454762</v>
       </c>
     </row>
     <row r="188">
@@ -3627,16 +3627,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.9034681181749744</v>
+        <v>0.8789589378094534</v>
       </c>
       <c r="C188" t="n">
-        <v>0.8950640675628665</v>
+        <v>0.8730625560677433</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8593554447986433</v>
+        <v>0.8459339317887191</v>
       </c>
       <c r="E188" t="n">
-        <v>0.8560220430215337</v>
+        <v>0.8431013452565717</v>
       </c>
     </row>
     <row r="189">
@@ -3644,16 +3644,16 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.9033124517081088</v>
+        <v>0.8784824249932464</v>
       </c>
       <c r="C189" t="n">
-        <v>0.8951187944231944</v>
+        <v>0.8726724446083656</v>
       </c>
       <c r="D189" t="n">
-        <v>0.8587426639702329</v>
+        <v>0.8440777866243758</v>
       </c>
       <c r="E189" t="n">
-        <v>0.8579263442369606</v>
+        <v>0.8415316251020197</v>
       </c>
     </row>
     <row r="190">
@@ -3661,16 +3661,16 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.9021767666689824</v>
+        <v>0.8791812965856718</v>
       </c>
       <c r="C190" t="n">
-        <v>0.8939184230992985</v>
+        <v>0.873408317352561</v>
       </c>
       <c r="D190" t="n">
-        <v>0.8587113700886597</v>
+        <v>0.8438564288114687</v>
       </c>
       <c r="E190" t="n">
-        <v>0.853313361300334</v>
+        <v>0.8410387854273981</v>
       </c>
     </row>
     <row r="191">
@@ -3678,16 +3678,16 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.9011682896806503</v>
+        <v>0.8796044712910274</v>
       </c>
       <c r="C191" t="n">
-        <v>0.8925553439636658</v>
+        <v>0.8739221302483778</v>
       </c>
       <c r="D191" t="n">
-        <v>0.8529119895492605</v>
+        <v>0.8431345182861536</v>
       </c>
       <c r="E191" t="n">
-        <v>0.8591249365863416</v>
+        <v>0.8402549658303812</v>
       </c>
     </row>
     <row r="192">
@@ -3695,16 +3695,16 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.8988812675847863</v>
+        <v>0.8798975098770525</v>
       </c>
       <c r="C192" t="n">
-        <v>0.8904571101103675</v>
+        <v>0.8742459050061839</v>
       </c>
       <c r="D192" t="n">
-        <v>0.8556255095479688</v>
+        <v>0.8432797453821337</v>
       </c>
       <c r="E192" t="n">
-        <v>0.8586509001934148</v>
+        <v>0.8405522038954587</v>
       </c>
     </row>
     <row r="193">
@@ -3712,16 +3712,16 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.8882610170832753</v>
+        <v>0.8790236040236716</v>
       </c>
       <c r="C193" t="n">
-        <v>0.8800618333940347</v>
+        <v>0.8732852676210779</v>
       </c>
       <c r="D193" t="n">
-        <v>0.8500744083276461</v>
+        <v>0.8425219763119128</v>
       </c>
       <c r="E193" t="n">
-        <v>0.8501359718744749</v>
+        <v>0.8395957886165765</v>
       </c>
     </row>
     <row r="194">
@@ -3729,16 +3729,16 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.8877532192502997</v>
+        <v>0.879027359753537</v>
       </c>
       <c r="C194" t="n">
-        <v>0.8796391288229319</v>
+        <v>0.873166286963251</v>
       </c>
       <c r="D194" t="n">
-        <v>0.8592153300858287</v>
+        <v>0.8414252279905444</v>
       </c>
       <c r="E194" t="n">
-        <v>0.8585430297563028</v>
+        <v>0.8386609216484934</v>
       </c>
     </row>
     <row r="195">
@@ -3746,16 +3746,16 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.8881817815157499</v>
+        <v>0.8791563294142273</v>
       </c>
       <c r="C195" t="n">
-        <v>0.8802729393111542</v>
+        <v>0.8732246124163946</v>
       </c>
       <c r="D195" t="n">
-        <v>0.8587396804670323</v>
+        <v>0.8405007633179228</v>
       </c>
       <c r="E195" t="n">
-        <v>0.8589689326045866</v>
+        <v>0.8375713996817293</v>
       </c>
     </row>
     <row r="196">
@@ -3763,16 +3763,16 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.8878234685782536</v>
+        <v>0.8790198801958875</v>
       </c>
       <c r="C196" t="n">
-        <v>0.8797941613548541</v>
+        <v>0.8730757845702507</v>
       </c>
       <c r="D196" t="n">
-        <v>0.865286218893936</v>
+        <v>0.8392169534212327</v>
       </c>
       <c r="E196" t="n">
-        <v>0.8748311922500971</v>
+        <v>0.8363291340068573</v>
       </c>
     </row>
     <row r="197">
@@ -3780,16 +3780,16 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.8859690608683768</v>
+        <v>0.8799926664129176</v>
       </c>
       <c r="C197" t="n">
-        <v>0.8776421588918535</v>
+        <v>0.8741476671971046</v>
       </c>
       <c r="D197" t="n">
-        <v>0.8573343422936855</v>
+        <v>0.8381912979687811</v>
       </c>
       <c r="E197" t="n">
-        <v>0.8572198710334815</v>
+        <v>0.8357340460688625</v>
       </c>
     </row>
     <row r="198">
@@ -3797,16 +3797,16 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.8872737162721595</v>
+        <v>0.8814760330266491</v>
       </c>
       <c r="C198" t="n">
-        <v>0.8786593407715024</v>
+        <v>0.8756816948754079</v>
       </c>
       <c r="D198" t="n">
-        <v>0.8565058794893867</v>
+        <v>0.8388938331622671</v>
       </c>
       <c r="E198" t="n">
-        <v>0.8567010198008285</v>
+        <v>0.8352865530485092</v>
       </c>
     </row>
     <row r="199">
@@ -3814,16 +3814,16 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.8884650520314313</v>
+        <v>0.8819487064438734</v>
       </c>
       <c r="C199" t="n">
-        <v>0.8799811956945718</v>
+        <v>0.8760735756671534</v>
       </c>
       <c r="D199" t="n">
-        <v>0.8537637237174482</v>
+        <v>0.8379957960317386</v>
       </c>
       <c r="E199" t="n">
-        <v>0.8534911961291195</v>
+        <v>0.8341345784149075</v>
       </c>
     </row>
     <row r="200">
@@ -3831,16 +3831,16 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.8879403264891017</v>
+        <v>0.8829747031855848</v>
       </c>
       <c r="C200" t="n">
-        <v>0.8790584994071734</v>
+        <v>0.8770405130111201</v>
       </c>
       <c r="D200" t="n">
-        <v>0.8533760315960384</v>
+        <v>0.8379642950587327</v>
       </c>
       <c r="E200" t="n">
-        <v>0.8535133683838892</v>
+        <v>0.8342736022130832</v>
       </c>
     </row>
     <row r="201">
@@ -3848,16 +3848,16 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.8871604430460072</v>
+        <v>0.8833075218735613</v>
       </c>
       <c r="C201" t="n">
-        <v>0.8780243646353708</v>
+        <v>0.8773345791562772</v>
       </c>
       <c r="D201" t="n">
-        <v>0.8613868489779131</v>
+        <v>0.8367603400759971</v>
       </c>
       <c r="E201" t="n">
-        <v>0.858588422040639</v>
+        <v>0.8337650663966317</v>
       </c>
     </row>
     <row r="202">
@@ -3865,16 +3865,16 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.8913988543040524</v>
+        <v>0.884006692922934</v>
       </c>
       <c r="C202" t="n">
-        <v>0.8820553778884923</v>
+        <v>0.8780311758890242</v>
       </c>
       <c r="D202" t="n">
-        <v>0.8589595454028938</v>
+        <v>0.836831416200198</v>
       </c>
       <c r="E202" t="n">
-        <v>0.8590012529510372</v>
+        <v>0.8323959126486291</v>
       </c>
     </row>
     <row r="203">
@@ -3882,16 +3882,16 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.8936933082016663</v>
+        <v>0.8843541105082431</v>
       </c>
       <c r="C203" t="n">
-        <v>0.8839693163203793</v>
+        <v>0.8783167362365689</v>
       </c>
       <c r="D203" t="n">
-        <v>0.8613405586836657</v>
+        <v>0.8357214903491261</v>
       </c>
       <c r="E203" t="n">
-        <v>0.8567756406394448</v>
+        <v>0.8317237115453553</v>
       </c>
     </row>
     <row r="204">
@@ -3899,16 +3899,16 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.8964598189870867</v>
+        <v>0.8849276280626397</v>
       </c>
       <c r="C204" t="n">
-        <v>0.8865375902475425</v>
+        <v>0.8787452877277719</v>
       </c>
       <c r="D204" t="n">
-        <v>0.8558482105440581</v>
+        <v>0.8352822121561431</v>
       </c>
       <c r="E204" t="n">
-        <v>0.8560164855282006</v>
+        <v>0.8309326768339894</v>
       </c>
     </row>
     <row r="205">
@@ -3916,16 +3916,16 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.900191164044406</v>
+        <v>0.8840416291518957</v>
       </c>
       <c r="C205" t="n">
-        <v>0.8904293746955798</v>
+        <v>0.877703239091148</v>
       </c>
       <c r="D205" t="n">
-        <v>0.8645654553277157</v>
+        <v>0.8334763198972843</v>
       </c>
       <c r="E205" t="n">
-        <v>0.857406434639045</v>
+        <v>0.8298848273365</v>
       </c>
     </row>
     <row r="206">
@@ -3933,16 +3933,16 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.9034718904490133</v>
+        <v>0.8839792371931704</v>
       </c>
       <c r="C206" t="n">
-        <v>0.8937540746520023</v>
+        <v>0.8775746742421113</v>
       </c>
       <c r="D206" t="n">
-        <v>0.8599487545185396</v>
+        <v>0.8336566131004178</v>
       </c>
       <c r="E206" t="n">
-        <v>0.8598871885134138</v>
+        <v>0.8295581773861613</v>
       </c>
     </row>
     <row r="207">
@@ -3950,16 +3950,16 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.9074705408552483</v>
+        <v>0.8824758300777037</v>
       </c>
       <c r="C207" t="n">
-        <v>0.8978980653985329</v>
+        <v>0.8760592206504825</v>
       </c>
       <c r="D207" t="n">
-        <v>0.8657522779017937</v>
+        <v>0.8315654755327857</v>
       </c>
       <c r="E207" t="n">
-        <v>0.8815640214961082</v>
+        <v>0.8276090228531695</v>
       </c>
     </row>
     <row r="208">
@@ -3967,16 +3967,16 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.9037032229692659</v>
+        <v>0.8827526882787726</v>
       </c>
       <c r="C208" t="n">
-        <v>0.8940640518157085</v>
+        <v>0.8763126996436659</v>
       </c>
       <c r="D208" t="n">
-        <v>0.8571415642039952</v>
+        <v>0.8307855163183101</v>
       </c>
       <c r="E208" t="n">
-        <v>0.8569177110769408</v>
+        <v>0.8271035336098498</v>
       </c>
     </row>
     <row r="209">
@@ -3984,16 +3984,16 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.8997954873640387</v>
+        <v>0.8822386577116892</v>
       </c>
       <c r="C209" t="n">
-        <v>0.8899580062562437</v>
+        <v>0.8757823816721264</v>
       </c>
       <c r="D209" t="n">
-        <v>0.8666424049276225</v>
+        <v>0.8300763012347128</v>
       </c>
       <c r="E209" t="n">
-        <v>0.8517925607020111</v>
+        <v>0.8258813465976457</v>
       </c>
     </row>
     <row r="210">
@@ -4001,16 +4001,16 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0.9023396344776262</v>
+        <v>0.8826882548411235</v>
       </c>
       <c r="C210" t="n">
-        <v>0.8933506158442548</v>
+        <v>0.8761761973271847</v>
       </c>
       <c r="D210" t="n">
-        <v>0.8453638690913828</v>
+        <v>0.8297129741699566</v>
       </c>
       <c r="E210" t="n">
-        <v>0.8455621143341532</v>
+        <v>0.8257423269325023</v>
       </c>
     </row>
     <row r="211">
@@ -4018,16 +4018,16 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>0.904642644676142</v>
+        <v>0.8824656669027967</v>
       </c>
       <c r="C211" t="n">
-        <v>0.8968779232765487</v>
+        <v>0.8758425462336266</v>
       </c>
       <c r="D211" t="n">
-        <v>0.8436862643888218</v>
+        <v>0.8295791213258665</v>
       </c>
       <c r="E211" t="n">
-        <v>0.8435807351988766</v>
+        <v>0.8253286686618306</v>
       </c>
     </row>
     <row r="212">
@@ -4035,16 +4035,16 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.9047869086044733</v>
+        <v>0.8821599104136275</v>
       </c>
       <c r="C212" t="n">
-        <v>0.8979937658040833</v>
+        <v>0.8753833584930227</v>
       </c>
       <c r="D212" t="n">
-        <v>0.8571447346958259</v>
+        <v>0.8289381883662397</v>
       </c>
       <c r="E212" t="n">
-        <v>0.8461789338644878</v>
+        <v>0.8244721645584562</v>
       </c>
     </row>
     <row r="213">
@@ -4052,16 +4052,16 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.9075764759999025</v>
+        <v>0.881268524059399</v>
       </c>
       <c r="C213" t="n">
-        <v>0.9017206874119432</v>
+        <v>0.8742570757820598</v>
       </c>
       <c r="D213" t="n">
-        <v>0.8529936571457273</v>
+        <v>0.8281656783781344</v>
       </c>
       <c r="E213" t="n">
-        <v>0.8545555046916523</v>
+        <v>0.8241960012212821</v>
       </c>
     </row>
     <row r="214">
@@ -4069,16 +4069,16 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.9132724689927642</v>
+        <v>0.8811654566685841</v>
       </c>
       <c r="C214" t="n">
-        <v>0.9071949922271404</v>
+        <v>0.8739772518811192</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8543106350581435</v>
+        <v>0.827507421423607</v>
       </c>
       <c r="E214" t="n">
-        <v>0.8535016118939955</v>
+        <v>0.8236787005590869</v>
       </c>
     </row>
     <row r="215">
@@ -4086,16 +4086,16 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.9137585124654497</v>
+        <v>0.8815815337439624</v>
       </c>
       <c r="C215" t="n">
-        <v>0.9074431723716075</v>
+        <v>0.8742522056014904</v>
       </c>
       <c r="D215" t="n">
-        <v>0.8557211412235761</v>
+        <v>0.82807306950624</v>
       </c>
       <c r="E215" t="n">
-        <v>0.8565318518398066</v>
+        <v>0.8231045686601691</v>
       </c>
     </row>
     <row r="216">
@@ -4103,16 +4103,16 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>0.91280201647157</v>
+        <v>0.8836787928278185</v>
       </c>
       <c r="C216" t="n">
-        <v>0.9051422034423233</v>
+        <v>0.8762666468988515</v>
       </c>
       <c r="D216" t="n">
-        <v>0.856818904260791</v>
+        <v>0.8272274493635611</v>
       </c>
       <c r="E216" t="n">
-        <v>0.8628284350268615</v>
+        <v>0.8233572945915719</v>
       </c>
     </row>
     <row r="217">
@@ -4120,16 +4120,16 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.9140252225024292</v>
+        <v>0.8850094517189533</v>
       </c>
       <c r="C217" t="n">
-        <v>0.9050480778552635</v>
+        <v>0.8774010789960627</v>
       </c>
       <c r="D217" t="n">
-        <v>0.8655543554720966</v>
+        <v>0.825695759838334</v>
       </c>
       <c r="E217" t="n">
-        <v>0.8712678667559552</v>
+        <v>0.8222013240199729</v>
       </c>
     </row>
     <row r="218">
@@ -4137,16 +4137,16 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.9111214583750957</v>
+        <v>0.88642703026963</v>
       </c>
       <c r="C218" t="n">
-        <v>0.9025612944145627</v>
+        <v>0.878668797878011</v>
       </c>
       <c r="D218" t="n">
-        <v>0.8616140105917964</v>
+        <v>0.8265178864013909</v>
       </c>
       <c r="E218" t="n">
-        <v>0.861457438156376</v>
+        <v>0.8228356958182672</v>
       </c>
     </row>
     <row r="219">
@@ -4154,16 +4154,16 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.9121394791330439</v>
+        <v>0.8867677735050874</v>
       </c>
       <c r="C219" t="n">
-        <v>0.9043687958845612</v>
+        <v>0.8788615562757279</v>
       </c>
       <c r="D219" t="n">
-        <v>0.8524928683533988</v>
+        <v>0.8269099059400539</v>
       </c>
       <c r="E219" t="n">
-        <v>0.8525822192609409</v>
+        <v>0.8226050519622992</v>
       </c>
     </row>
     <row r="220">
@@ -4171,16 +4171,16 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0.9091607679865052</v>
+        <v>0.8875571323936152</v>
       </c>
       <c r="C220" t="n">
-        <v>0.9009249345592659</v>
+        <v>0.8796675999203116</v>
       </c>
       <c r="D220" t="n">
-        <v>0.8549563586192535</v>
+        <v>0.828071766428084</v>
       </c>
       <c r="E220" t="n">
-        <v>0.8517410438016086</v>
+        <v>0.823331269510407</v>
       </c>
     </row>
     <row r="221">
@@ -4188,16 +4188,16 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0.9134721211379774</v>
+        <v>0.8875024801028902</v>
       </c>
       <c r="C221" t="n">
-        <v>0.9047934071944254</v>
+        <v>0.8797241830440383</v>
       </c>
       <c r="D221" t="n">
-        <v>0.8491792057425029</v>
+        <v>0.8275664780270304</v>
       </c>
       <c r="E221" t="n">
-        <v>0.8493164808794216</v>
+        <v>0.8233316536578852</v>
       </c>
     </row>
     <row r="222">
@@ -4205,16 +4205,16 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.9161291945116098</v>
+        <v>0.8878175782644417</v>
       </c>
       <c r="C222" t="n">
-        <v>0.9074656802191727</v>
+        <v>0.8800406059202982</v>
       </c>
       <c r="D222" t="n">
-        <v>0.8517418333557667</v>
+        <v>0.8273309331478347</v>
       </c>
       <c r="E222" t="n">
-        <v>0.8533278386680292</v>
+        <v>0.8230858129126459</v>
       </c>
     </row>
     <row r="223">
@@ -4222,16 +4222,16 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.9209552641017427</v>
+        <v>0.888086170093787</v>
       </c>
       <c r="C223" t="n">
-        <v>0.9117361818561989</v>
+        <v>0.8802044535207443</v>
       </c>
       <c r="D223" t="n">
-        <v>0.8599021227886081</v>
+        <v>0.8266921922829422</v>
       </c>
       <c r="E223" t="n">
-        <v>0.8598942397134814</v>
+        <v>0.8225569309283814</v>
       </c>
     </row>
     <row r="224">
@@ -4239,16 +4239,16 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0.9222161884092035</v>
+        <v>0.8896477284551495</v>
       </c>
       <c r="C224" t="n">
-        <v>0.9129372433265501</v>
+        <v>0.8817332711746243</v>
       </c>
       <c r="D224" t="n">
-        <v>0.8652705746031101</v>
+        <v>0.8277977070520194</v>
       </c>
       <c r="E224" t="n">
-        <v>0.8607135014229239</v>
+        <v>0.8227072462886732</v>
       </c>
     </row>
     <row r="225">
@@ -4256,16 +4256,16 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.917663060812695</v>
+        <v>0.8915470208624467</v>
       </c>
       <c r="C225" t="n">
-        <v>0.9083053797864821</v>
+        <v>0.8835287528899924</v>
       </c>
       <c r="D225" t="n">
-        <v>0.8490946555576881</v>
+        <v>0.8280987524502319</v>
       </c>
       <c r="E225" t="n">
-        <v>0.8618807851996877</v>
+        <v>0.8232893688991564</v>
       </c>
     </row>
     <row r="226">
@@ -4273,16 +4273,16 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>0.9157063454443823</v>
+        <v>0.8941559130464916</v>
       </c>
       <c r="C226" t="n">
-        <v>0.9058985734392919</v>
+        <v>0.8860513947374806</v>
       </c>
       <c r="D226" t="n">
-        <v>0.8438425340599773</v>
+        <v>0.8296850467070145</v>
       </c>
       <c r="E226" t="n">
-        <v>0.8437531941929413</v>
+        <v>0.8248516460589174</v>
       </c>
     </row>
     <row r="227">
@@ -4290,16 +4290,16 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.91454628599639</v>
+        <v>0.8957692817655397</v>
       </c>
       <c r="C227" t="n">
-        <v>0.9050956075963801</v>
+        <v>0.8876621320140151</v>
       </c>
       <c r="D227" t="n">
-        <v>0.8462174379543286</v>
+        <v>0.8315579369585833</v>
       </c>
       <c r="E227" t="n">
-        <v>0.8468700511348871</v>
+        <v>0.826128358074697</v>
       </c>
     </row>
     <row r="228">
@@ -4307,16 +4307,16 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.9133905420863826</v>
+        <v>0.8975882376680515</v>
       </c>
       <c r="C228" t="n">
-        <v>0.9037885489297518</v>
+        <v>0.8894953893505673</v>
       </c>
       <c r="D228" t="n">
-        <v>0.8518833726984488</v>
+        <v>0.832569157043308</v>
       </c>
       <c r="E228" t="n">
-        <v>0.8519099736382862</v>
+        <v>0.8272002577456683</v>
       </c>
     </row>
     <row r="229">
@@ -4324,16 +4324,16 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>0.9122033887732623</v>
+        <v>0.8988778500659552</v>
       </c>
       <c r="C229" t="n">
-        <v>0.9017384384264808</v>
+        <v>0.8907421678266183</v>
       </c>
       <c r="D229" t="n">
-        <v>0.8585527527218602</v>
+        <v>0.8329371939622724</v>
       </c>
       <c r="E229" t="n">
-        <v>0.8603978218503057</v>
+        <v>0.8287020050630498</v>
       </c>
     </row>
     <row r="230">
@@ -4341,16 +4341,16 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0.9047299082263105</v>
+        <v>0.8999011596234293</v>
       </c>
       <c r="C230" t="n">
-        <v>0.8928960997633444</v>
+        <v>0.8916657572081401</v>
       </c>
       <c r="D230" t="n">
-        <v>0.8748936606288696</v>
+        <v>0.83520009651785</v>
       </c>
       <c r="E230" t="n">
-        <v>0.862047592062293</v>
+        <v>0.8304840140262134</v>
       </c>
     </row>
     <row r="231">
@@ -4358,16 +4358,16 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>0.8957020108139482</v>
+        <v>0.9007945963570396</v>
       </c>
       <c r="C231" t="n">
-        <v>0.8839922848281119</v>
+        <v>0.8925686834310815</v>
       </c>
       <c r="D231" t="n">
-        <v>0.8451887266468883</v>
+        <v>0.8363265788484712</v>
       </c>
       <c r="E231" t="n">
-        <v>0.8448887539000358</v>
+        <v>0.8318131823390807</v>
       </c>
     </row>
     <row r="232">
@@ -4375,16 +4375,16 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.8926449083416652</v>
+        <v>0.9029142869822511</v>
       </c>
       <c r="C232" t="n">
-        <v>0.8825970656068756</v>
+        <v>0.8946560218566667</v>
       </c>
       <c r="D232" t="n">
-        <v>0.8417000547832392</v>
+        <v>0.839553702726074</v>
       </c>
       <c r="E232" t="n">
-        <v>0.8374264212840159</v>
+        <v>0.8342429096588609</v>
       </c>
     </row>
     <row r="233">
@@ -4392,16 +4392,16 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.8945013295085911</v>
+        <v>0.9047732268318349</v>
       </c>
       <c r="C233" t="n">
-        <v>0.8858341506934969</v>
+        <v>0.8964227634237382</v>
       </c>
       <c r="D233" t="n">
-        <v>0.8329040722433096</v>
+        <v>0.8398864442267179</v>
       </c>
       <c r="E233" t="n">
-        <v>0.8339169705249609</v>
+        <v>0.8357136429530556</v>
       </c>
     </row>
     <row r="234">
@@ -4409,16 +4409,16 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0.9026074694070823</v>
+        <v>0.9062005415391698</v>
       </c>
       <c r="C234" t="n">
-        <v>0.8945278138330028</v>
+        <v>0.8978492744538522</v>
       </c>
       <c r="D234" t="n">
-        <v>0.8537031936644377</v>
+        <v>0.8418478250528244</v>
       </c>
       <c r="E234" t="n">
-        <v>0.8536964563509087</v>
+        <v>0.8372790067686516</v>
       </c>
     </row>
     <row r="235">
@@ -4426,16 +4426,16 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>0.9015448600248234</v>
+        <v>0.9073967619904968</v>
       </c>
       <c r="C235" t="n">
-        <v>0.8928610113703475</v>
+        <v>0.899051567188526</v>
       </c>
       <c r="D235" t="n">
-        <v>0.8333317118799267</v>
+        <v>0.8430670577516639</v>
       </c>
       <c r="E235" t="n">
-        <v>0.830240470554551</v>
+        <v>0.8388408519398887</v>
       </c>
     </row>
     <row r="236">
@@ -4443,16 +4443,16 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>0.8992215553638854</v>
+        <v>0.9079795187533874</v>
       </c>
       <c r="C236" t="n">
-        <v>0.8903842046186301</v>
+        <v>0.8996545308598531</v>
       </c>
       <c r="D236" t="n">
-        <v>0.8217459918499175</v>
+        <v>0.8438975373273809</v>
       </c>
       <c r="E236" t="n">
-        <v>0.8215543058597573</v>
+        <v>0.8394300341600855</v>
       </c>
     </row>
     <row r="237">
@@ -4460,16 +4460,16 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>0.8921172092099381</v>
+        <v>0.9088889602380705</v>
       </c>
       <c r="C237" t="n">
-        <v>0.8838652047486424</v>
+        <v>0.9005618924322769</v>
       </c>
       <c r="D237" t="n">
-        <v>0.8087106339771013</v>
+        <v>0.8459594866711608</v>
       </c>
       <c r="E237" t="n">
-        <v>0.8084672153954287</v>
+        <v>0.8407614222502027</v>
       </c>
     </row>
     <row r="238">
@@ -4477,16 +4477,16 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>0.8874073928195865</v>
+        <v>0.910195797440106</v>
       </c>
       <c r="C238" t="n">
-        <v>0.8794802852013233</v>
+        <v>0.9018913759680744</v>
       </c>
       <c r="D238" t="n">
-        <v>0.8193213873397045</v>
+        <v>0.8467753946496575</v>
       </c>
       <c r="E238" t="n">
-        <v>0.8219974484695127</v>
+        <v>0.8417447254070052</v>
       </c>
     </row>
     <row r="239">
@@ -4494,16 +4494,16 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>0.8864111064747074</v>
+        <v>0.9120576701636367</v>
       </c>
       <c r="C239" t="n">
-        <v>0.878318247675182</v>
+        <v>0.9037414204301963</v>
       </c>
       <c r="D239" t="n">
-        <v>0.8247300953784628</v>
+        <v>0.8474085216181575</v>
       </c>
       <c r="E239" t="n">
-        <v>0.8243144365720863</v>
+        <v>0.8424140365867052</v>
       </c>
     </row>
     <row r="240">
@@ -4511,16 +4511,16 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>0.8865496287627248</v>
+        <v>0.9143419503204624</v>
       </c>
       <c r="C240" t="n">
-        <v>0.8775011781310067</v>
+        <v>0.9060254151458351</v>
       </c>
       <c r="D240" t="n">
-        <v>0.8434543557390621</v>
+        <v>0.8471546479751815</v>
       </c>
       <c r="E240" t="n">
-        <v>0.8322635210127739</v>
+        <v>0.8432036585403201</v>
       </c>
     </row>
     <row r="241">
@@ -4528,16 +4528,16 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>0.8852370993938901</v>
+        <v>0.9160996669424799</v>
       </c>
       <c r="C241" t="n">
-        <v>0.8767578605726107</v>
+        <v>0.9077779332161847</v>
       </c>
       <c r="D241" t="n">
-        <v>0.8343684333294396</v>
+        <v>0.8491454981741979</v>
       </c>
       <c r="E241" t="n">
-        <v>0.8346000800482338</v>
+        <v>0.8440829709161319</v>
       </c>
     </row>
     <row r="242">
@@ -4545,16 +4545,16 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>0.8857448114086288</v>
+        <v>0.9173767326750428</v>
       </c>
       <c r="C242" t="n">
-        <v>0.877577268082899</v>
+        <v>0.909069555829763</v>
       </c>
       <c r="D242" t="n">
-        <v>0.8432269729458813</v>
+        <v>0.8491977510440066</v>
       </c>
       <c r="E242" t="n">
-        <v>0.8447607538757924</v>
+        <v>0.8443075375006265</v>
       </c>
     </row>
     <row r="243">
@@ -4562,16 +4562,16 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>0.8807405751957146</v>
+        <v>0.9180039951128437</v>
       </c>
       <c r="C243" t="n">
-        <v>0.8720158743785396</v>
+        <v>0.9097180787985415</v>
       </c>
       <c r="D243" t="n">
-        <v>0.8395284572210426</v>
+        <v>0.8503886489664272</v>
       </c>
       <c r="E243" t="n">
-        <v>0.8397213881925748</v>
+        <v>0.8449743498706758</v>
       </c>
     </row>
     <row r="244">
@@ -4579,16 +4579,16 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>0.8738611849539949</v>
+        <v>0.9188639989627172</v>
       </c>
       <c r="C244" t="n">
-        <v>0.8644131946595761</v>
+        <v>0.9106191913865426</v>
       </c>
       <c r="D244" t="n">
-        <v>0.8380150726558583</v>
+        <v>0.8510493992236895</v>
       </c>
       <c r="E244" t="n">
-        <v>0.8386243135666975</v>
+        <v>0.8460167323129699</v>
       </c>
     </row>
     <row r="245">
@@ -4596,16 +4596,16 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>0.874373208114186</v>
+        <v>0.9198203285805757</v>
       </c>
       <c r="C245" t="n">
-        <v>0.8650416893176703</v>
+        <v>0.9117022301420248</v>
       </c>
       <c r="D245" t="n">
-        <v>0.8504087356302474</v>
+        <v>0.8521665164590078</v>
       </c>
       <c r="E245" t="n">
-        <v>0.8629743349907983</v>
+        <v>0.8470623168786495</v>
       </c>
     </row>
     <row r="246">
@@ -4613,16 +4613,16 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0.8720809525036148</v>
+        <v>0.9207511124565134</v>
       </c>
       <c r="C246" t="n">
-        <v>0.8624644003561808</v>
+        <v>0.9128168336821776</v>
       </c>
       <c r="D246" t="n">
-        <v>0.8434721676329713</v>
+        <v>0.8533082011441653</v>
       </c>
       <c r="E246" t="n">
-        <v>0.8372677080448049</v>
+        <v>0.8489496164709269</v>
       </c>
     </row>
     <row r="247">
@@ -4630,16 +4630,16 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>0.8771787658466463</v>
+        <v>0.9215796877125403</v>
       </c>
       <c r="C247" t="n">
-        <v>0.8674224219878597</v>
+        <v>0.9137582994110751</v>
       </c>
       <c r="D247" t="n">
-        <v>0.8464134213512003</v>
+        <v>0.8540819061405093</v>
       </c>
       <c r="E247" t="n">
-        <v>0.8570104935051662</v>
+        <v>0.8499970147041477</v>
       </c>
     </row>
     <row r="248">
@@ -4647,16 +4647,16 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>0.8824994514093092</v>
+        <v>0.9229399271405466</v>
       </c>
       <c r="C248" t="n">
-        <v>0.8726908296333532</v>
+        <v>0.9152061756575309</v>
       </c>
       <c r="D248" t="n">
-        <v>0.8293315129079907</v>
+        <v>0.8558111620313799</v>
       </c>
       <c r="E248" t="n">
-        <v>0.8291251135517864</v>
+        <v>0.8512382434957978</v>
       </c>
     </row>
     <row r="249">
@@ -4664,16 +4664,16 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>0.8790741873300859</v>
+        <v>0.9250387495071231</v>
       </c>
       <c r="C249" t="n">
-        <v>0.8698086606017122</v>
+        <v>0.917495825250611</v>
       </c>
       <c r="D249" t="n">
-        <v>0.8364006092640408</v>
+        <v>0.8573359489285037</v>
       </c>
       <c r="E249" t="n">
-        <v>0.8204354654124454</v>
+        <v>0.8520547614563466</v>
       </c>
     </row>
     <row r="250">
@@ -4681,16 +4681,16 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>0.8737865864028966</v>
+        <v>0.9267891838321639</v>
       </c>
       <c r="C250" t="n">
-        <v>0.8646189812112075</v>
+        <v>0.9195364170586335</v>
       </c>
       <c r="D250" t="n">
-        <v>0.8130938213612282</v>
+        <v>0.8575612264159194</v>
       </c>
       <c r="E250" t="n">
-        <v>0.8109939941954073</v>
+        <v>0.8532944647030832</v>
       </c>
     </row>
     <row r="251">
@@ -4698,16 +4698,16 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>0.8745926406983479</v>
+        <v>0.9287771766093206</v>
       </c>
       <c r="C251" t="n">
-        <v>0.8657075475228582</v>
+        <v>0.9218475778049732</v>
       </c>
       <c r="D251" t="n">
-        <v>0.8154343361164469</v>
+        <v>0.8586890263458827</v>
       </c>
       <c r="E251" t="n">
-        <v>0.8132296556039346</v>
+        <v>0.8544826860347765</v>
       </c>
     </row>
     <row r="252">
@@ -4715,16 +4715,16 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>0.8790178605414533</v>
+        <v>0.9307376242502088</v>
       </c>
       <c r="C252" t="n">
-        <v>0.8712220388014211</v>
+        <v>0.9241624947467142</v>
       </c>
       <c r="D252" t="n">
-        <v>0.818806660003255</v>
+        <v>0.8592520042445778</v>
       </c>
       <c r="E252" t="n">
-        <v>0.8186812591267747</v>
+        <v>0.8554433093488473</v>
       </c>
     </row>
     <row r="253">
@@ -4732,16 +4732,16 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>0.8814823703407428</v>
+        <v>0.9321401540528256</v>
       </c>
       <c r="C253" t="n">
-        <v>0.8742569806857925</v>
+        <v>0.9259460177357011</v>
       </c>
       <c r="D253" t="n">
-        <v>0.8263046834818472</v>
+        <v>0.860038729917734</v>
       </c>
       <c r="E253" t="n">
-        <v>0.8263126736717185</v>
+        <v>0.8562875969531339</v>
       </c>
     </row>
     <row r="254">
@@ -4749,16 +4749,16 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0.8868747824845595</v>
+        <v>0.9328254812952296</v>
       </c>
       <c r="C254" t="n">
-        <v>0.8806894712381914</v>
+        <v>0.9271273304284913</v>
       </c>
       <c r="D254" t="n">
-        <v>0.8328401241796133</v>
+        <v>0.8624028499371824</v>
       </c>
       <c r="E254" t="n">
-        <v>0.8281386597342912</v>
+        <v>0.8585078937453106</v>
       </c>
     </row>
     <row r="255">
@@ -4766,16 +4766,16 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>0.8872590803392107</v>
+        <v>0.9346977392591105</v>
       </c>
       <c r="C255" t="n">
-        <v>0.8814553755502637</v>
+        <v>0.9297624031183866</v>
       </c>
       <c r="D255" t="n">
-        <v>0.8353892728846825</v>
+        <v>0.8632346539718091</v>
       </c>
       <c r="E255" t="n">
-        <v>0.8354914361335886</v>
+        <v>0.8587289235545699</v>
       </c>
     </row>
   </sheetData>

--- a/pearson.xlsx
+++ b/pearson.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9185074529839427</v>
+        <v>0.8707492149741</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9167925940009966</v>
+        <v>0.8644955147840302</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8632064629063778</v>
+        <v>0.864480758781777</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8616259091411155</v>
+        <v>0.864811322685918</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9270725866819128</v>
+        <v>0.8725524384428691</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9236583339226314</v>
+        <v>0.8668045598860106</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8645926805850339</v>
+        <v>0.8594382452531389</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8622648873608452</v>
+        <v>0.8604596763994128</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9293817703650548</v>
+        <v>0.8718651728585759</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9246951546543307</v>
+        <v>0.865329999458986</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8657449677378957</v>
+        <v>0.8597065801950039</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8630554566856683</v>
+        <v>0.8579115460387617</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9266546535330159</v>
+        <v>0.8713635862178499</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9207506502152385</v>
+        <v>0.8646869710718474</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8674635105325658</v>
+        <v>0.864419192782975</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8639347287234993</v>
+        <v>0.8621560242397992</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9240804549680643</v>
+        <v>0.8709593232763507</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9170885641817828</v>
+        <v>0.8644786614327263</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8676719111656498</v>
+        <v>0.8625020852523384</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8648406984110774</v>
+        <v>0.8618210089567671</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9222128469749578</v>
+        <v>0.8768453245762878</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9143689896101705</v>
+        <v>0.8712425174070918</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8683495628893768</v>
+        <v>0.863673820011528</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8656074998524877</v>
+        <v>0.8629839798341865</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.920577773929215</v>
+        <v>0.8774132974074746</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9120630171183447</v>
+        <v>0.8724256058578737</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8694214096585704</v>
+        <v>0.8629146029551826</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8665056659180698</v>
+        <v>0.8625301933433265</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9192277368077525</v>
+        <v>0.8757416109262908</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9102534127272318</v>
+        <v>0.8710893997341895</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8701916862659692</v>
+        <v>0.8610326858649926</v>
       </c>
       <c r="E9" t="n">
-        <v>0.866941829717025</v>
+        <v>0.861296838210694</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9183469048911859</v>
+        <v>0.8758054546619483</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9089934460365457</v>
+        <v>0.8709488165201522</v>
       </c>
       <c r="D10" t="n">
-        <v>0.871036492851283</v>
+        <v>0.8591271452820712</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8680991679290504</v>
+        <v>0.8603396193414372</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9180106017069424</v>
+        <v>0.8726709971179247</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9082896275652396</v>
+        <v>0.8672477815724539</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8723923998917795</v>
+        <v>0.8568994363883802</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8693203143455661</v>
+        <v>0.8595107077380391</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9178654958876178</v>
+        <v>0.878364200067581</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9078022064720203</v>
+        <v>0.8727011209244664</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8735611994183277</v>
+        <v>0.8650628096966052</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8702502241669478</v>
+        <v>0.8681574016823529</v>
       </c>
     </row>
     <row r="13">
@@ -652,16 +652,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9177330045746104</v>
+        <v>0.886772785811816</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9073957027618946</v>
+        <v>0.880736794623116</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8731219121044987</v>
+        <v>0.872579649664268</v>
       </c>
       <c r="E13" t="n">
-        <v>0.870669577629632</v>
+        <v>0.8759667533949925</v>
       </c>
     </row>
     <row r="14">
@@ -669,16 +669,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9179960975868033</v>
+        <v>0.8903296243087786</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9074613760072736</v>
+        <v>0.8841632583544478</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8743335459174143</v>
+        <v>0.8789098223006518</v>
       </c>
       <c r="E14" t="n">
-        <v>0.87171384339092</v>
+        <v>0.882021501115497</v>
       </c>
     </row>
     <row r="15">
@@ -686,16 +686,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9180529289819936</v>
+        <v>0.8932130559209448</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9073139013380971</v>
+        <v>0.8871499818643476</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8746941178040928</v>
+        <v>0.8816820717793492</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8719990343934989</v>
+        <v>0.8847468075264513</v>
       </c>
     </row>
     <row r="16">
@@ -703,16 +703,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9180802202271959</v>
+        <v>0.8990638396782151</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9072322366601659</v>
+        <v>0.8937241306607648</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8748714935687472</v>
+        <v>0.8847336367088096</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8718008164526698</v>
+        <v>0.8887215108705128</v>
       </c>
     </row>
     <row r="17">
@@ -720,16 +720,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9185014483573632</v>
+        <v>0.9023762374860544</v>
       </c>
       <c r="C17" t="n">
-        <v>0.907529459330412</v>
+        <v>0.8972480268585586</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8748273319392373</v>
+        <v>0.8876590914868685</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8721297447096341</v>
+        <v>0.8919434214110114</v>
       </c>
     </row>
     <row r="18">
@@ -737,16 +737,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9183032666366473</v>
+        <v>0.9049397542746174</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9072572078025111</v>
+        <v>0.8999784448085179</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8745949556068296</v>
+        <v>0.8872760438855997</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8720919752198675</v>
+        <v>0.8920347462776499</v>
       </c>
     </row>
     <row r="19">
@@ -754,16 +754,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9182707040907281</v>
+        <v>0.9051701337590627</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9070918614595169</v>
+        <v>0.900985609000085</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8742595677910694</v>
+        <v>0.8858999293870237</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8719716933784276</v>
+        <v>0.8913828641852304</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9182260771930904</v>
+        <v>0.9044864892056729</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9069350590325507</v>
+        <v>0.9009539264291773</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8743879581096849</v>
+        <v>0.8839738425641829</v>
       </c>
       <c r="E20" t="n">
-        <v>0.871857960366063</v>
+        <v>0.8900811887541604</v>
       </c>
     </row>
     <row r="21">
@@ -788,16 +788,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9181796604343181</v>
+        <v>0.8978441383165912</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9068043979543599</v>
+        <v>0.8943047703311046</v>
       </c>
       <c r="D21" t="n">
-        <v>0.873999471117485</v>
+        <v>0.8814092343531474</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8713414359864154</v>
+        <v>0.886832931587856</v>
       </c>
     </row>
     <row r="22">
@@ -805,16 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9185862606312181</v>
+        <v>0.8917506203338966</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9071607541547291</v>
+        <v>0.8880795775101353</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8734280206726158</v>
+        <v>0.8791495855640278</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8709111714431189</v>
+        <v>0.8841545876656987</v>
       </c>
     </row>
     <row r="23">
@@ -822,16 +822,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9192956468704196</v>
+        <v>0.8904670226517368</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9077325867679379</v>
+        <v>0.886707366385422</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8728439731577591</v>
+        <v>0.8785339323874171</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8705234427012311</v>
+        <v>0.8828170288045909</v>
       </c>
     </row>
     <row r="24">
@@ -839,16 +839,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9199807501581028</v>
+        <v>0.8874043684346344</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9083777772865891</v>
+        <v>0.8841593732641956</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8728784948803114</v>
+        <v>0.8780669298836397</v>
       </c>
       <c r="E24" t="n">
-        <v>0.870033910032595</v>
+        <v>0.8819108679701275</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9207395818305281</v>
+        <v>0.8857497400377943</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9091093756020334</v>
+        <v>0.8822837778553698</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8731895371989091</v>
+        <v>0.8781725322407896</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8702030331542256</v>
+        <v>0.8818619473060453</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.921496772155137</v>
+        <v>0.8867290339961511</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9098472258361125</v>
+        <v>0.8824218584288516</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8733609323846135</v>
+        <v>0.8807562480690782</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8704287560911159</v>
+        <v>0.8842349619161689</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9226056076490011</v>
+        <v>0.8900141509826498</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9109303628528043</v>
+        <v>0.8851402548842742</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8739004243133064</v>
+        <v>0.8853804117703371</v>
       </c>
       <c r="E27" t="n">
-        <v>0.871184864352329</v>
+        <v>0.8880032406394323</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9232313799936251</v>
+        <v>0.8866634606550476</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9115458085109979</v>
+        <v>0.8810941325559025</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8747826904911347</v>
+        <v>0.8821142627866452</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8715189016739899</v>
+        <v>0.8843991126088883</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9235122348959114</v>
+        <v>0.899106506851342</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9118716716215707</v>
+        <v>0.8940189720498579</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8740911604402722</v>
+        <v>0.8908812227561507</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8712915722015628</v>
+        <v>0.8930817574796833</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9238737255786426</v>
+        <v>0.9109343476843855</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9122595511230944</v>
+        <v>0.9065640378501701</v>
       </c>
       <c r="D30" t="n">
-        <v>0.874934376296625</v>
+        <v>0.9020484422586202</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8720335879584852</v>
+        <v>0.9039053727209854</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9243974514025236</v>
+        <v>0.9202191965196391</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9128403479499058</v>
+        <v>0.916569380858301</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8748594642734685</v>
+        <v>0.9130716987481071</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8719421765484474</v>
+        <v>0.9151485816620034</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9247089884069514</v>
+        <v>0.9271366473813051</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9132071181781746</v>
+        <v>0.9237386019509467</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8747518621679916</v>
+        <v>0.9176985415146123</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8713952968962385</v>
+        <v>0.9194723167251135</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9249285148084451</v>
+        <v>0.925365109667905</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9134994127022551</v>
+        <v>0.9220816859562453</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8739815392719946</v>
+        <v>0.9149457910110842</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8708901471893153</v>
+        <v>0.9163609472213025</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9255942224247731</v>
+        <v>0.9187350667495979</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9142576817549105</v>
+        <v>0.9149287813478313</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8742403864311835</v>
+        <v>0.9107536967021654</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8709965100302844</v>
+        <v>0.9111325117155267</v>
       </c>
     </row>
     <row r="35">
@@ -1026,16 +1026,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9259759086888475</v>
+        <v>0.9186527147179457</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9147297818342855</v>
+        <v>0.9148454054020605</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8737464805572961</v>
+        <v>0.9108223462433567</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8704640566340118</v>
+        <v>0.9110128565797719</v>
       </c>
     </row>
     <row r="36">
@@ -1043,16 +1043,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9263439380053737</v>
+        <v>0.9173582619788139</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9151647742185726</v>
+        <v>0.9138198888638766</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8738994850228673</v>
+        <v>0.9075040978949747</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8707189374838824</v>
+        <v>0.908006775310907</v>
       </c>
     </row>
     <row r="37">
@@ -1060,16 +1060,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9268204703411154</v>
+        <v>0.9189408794521698</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9157022416805443</v>
+        <v>0.9158541868383309</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8745632618181329</v>
+        <v>0.906273313577922</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8712599152999305</v>
+        <v>0.9072176583692421</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9271748167851205</v>
+        <v>0.9195173300808774</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9161741887207637</v>
+        <v>0.9166951994894259</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8748455684810961</v>
+        <v>0.9071676416119032</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8712178052853261</v>
+        <v>0.9082871672028822</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9280020089983643</v>
+        <v>0.9198002661712357</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9171499841803172</v>
+        <v>0.9172062314649359</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8744033499968439</v>
+        <v>0.9068345042539115</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8714341132071189</v>
+        <v>0.907767585066899</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.928898924819739</v>
+        <v>0.9176135942260129</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9182344325077346</v>
+        <v>0.9147586198801867</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8748491692975312</v>
+        <v>0.9042502720699763</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8715130819639121</v>
+        <v>0.9047081174216289</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.929632490283026</v>
+        <v>0.9177697307628608</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9191018776190316</v>
+        <v>0.9146138650964909</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8739688617099821</v>
+        <v>0.9036909157485841</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8710486928634392</v>
+        <v>0.9041183778620792</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9297249307686463</v>
+        <v>0.9172366141549952</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9192997986170403</v>
+        <v>0.9146205871319146</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8741870374444719</v>
+        <v>0.9036825486171068</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8711054289320301</v>
+        <v>0.9040806599032103</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9294104770915695</v>
+        <v>0.9181821552404279</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9191111060519679</v>
+        <v>0.9159603382221619</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8738802832007597</v>
+        <v>0.9043608237711627</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8708521847550288</v>
+        <v>0.9045275295618548</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9289064574466174</v>
+        <v>0.9125716864029755</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9187113137958294</v>
+        <v>0.9108513225687828</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8741554698157897</v>
+        <v>0.8995900737550271</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8707882094746889</v>
+        <v>0.8996242801758065</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9284751214759371</v>
+        <v>0.9123822808819777</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9183370733548629</v>
+        <v>0.9107578279201244</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8735993424774565</v>
+        <v>0.8982120684398369</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8702350053258228</v>
+        <v>0.898121054519859</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.928002033134957</v>
+        <v>0.9091009136951287</v>
       </c>
       <c r="C46" t="n">
-        <v>0.917913331715519</v>
+        <v>0.9069613626906735</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8751216203739962</v>
+        <v>0.8968709053014865</v>
       </c>
       <c r="E46" t="n">
-        <v>0.871045767848263</v>
+        <v>0.8967593294289166</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9275866103509056</v>
+        <v>0.9039730457307216</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9175629312958945</v>
+        <v>0.9013559519991292</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8749644253466362</v>
+        <v>0.8934252479148109</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8709589764953263</v>
+        <v>0.893289490550546</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9271995862911528</v>
+        <v>0.9002839463062976</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9172817382729925</v>
+        <v>0.8975549582782731</v>
       </c>
       <c r="D48" t="n">
-        <v>0.874392033433419</v>
+        <v>0.8873139457052847</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8706288181751174</v>
+        <v>0.8872446746757081</v>
       </c>
     </row>
     <row r="49">
@@ -1264,16 +1264,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9268104587349253</v>
+        <v>0.8994223067662284</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9169533701720317</v>
+        <v>0.8960986603848818</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8744269875800088</v>
+        <v>0.8855222897494514</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8708850610293272</v>
+        <v>0.8854964122665101</v>
       </c>
     </row>
     <row r="50">
@@ -1281,16 +1281,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9262109737776265</v>
+        <v>0.8979590986455133</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9163285454525057</v>
+        <v>0.8944173253810672</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8749206884916195</v>
+        <v>0.8854851984843657</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8708869585421672</v>
+        <v>0.8857041180913013</v>
       </c>
     </row>
     <row r="51">
@@ -1298,16 +1298,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9255908495993385</v>
+        <v>0.8967298535538744</v>
       </c>
       <c r="C51" t="n">
-        <v>0.915756223635215</v>
+        <v>0.893233611311307</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8744817627947015</v>
+        <v>0.887059956527343</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8707742907974423</v>
+        <v>0.887513020764834</v>
       </c>
     </row>
     <row r="52">
@@ -1315,16 +1315,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9253105116139754</v>
+        <v>0.9002240470231939</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9154202718180224</v>
+        <v>0.8964370302838357</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8738516503087485</v>
+        <v>0.8917265653974229</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8703667561784877</v>
+        <v>0.8921642845023596</v>
       </c>
     </row>
     <row r="53">
@@ -1332,16 +1332,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9256329123244563</v>
+        <v>0.8999526736494073</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9157169086943938</v>
+        <v>0.8964183579110754</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8745512150685961</v>
+        <v>0.8946664980093977</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8703576759475911</v>
+        <v>0.8950782848035079</v>
       </c>
     </row>
     <row r="54">
@@ -1349,16 +1349,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.925721949415381</v>
+        <v>0.8984927189685924</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9157066494989343</v>
+        <v>0.8953146621484058</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8727780915037781</v>
+        <v>0.8947644426130648</v>
       </c>
       <c r="E54" t="n">
-        <v>0.869630157033548</v>
+        <v>0.8947987509592326</v>
       </c>
     </row>
     <row r="55">
@@ -1366,16 +1366,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9260435254408128</v>
+        <v>0.9004493814999147</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9159649465223954</v>
+        <v>0.8972853651350902</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8727133772710344</v>
+        <v>0.8972632265599089</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8693231708625559</v>
+        <v>0.8964144395373053</v>
       </c>
     </row>
     <row r="56">
@@ -1383,16 +1383,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9258875653676639</v>
+        <v>0.9039782643759858</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9157704168078333</v>
+        <v>0.9008395858627881</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8722893522171578</v>
+        <v>0.8997282997078604</v>
       </c>
       <c r="E56" t="n">
-        <v>0.86885046834619</v>
+        <v>0.8987621480309169</v>
       </c>
     </row>
     <row r="57">
@@ -1400,16 +1400,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9259274130920281</v>
+        <v>0.9042194058952371</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9158236129228123</v>
+        <v>0.9010044146961103</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8721807979117143</v>
+        <v>0.8975936294305882</v>
       </c>
       <c r="E57" t="n">
-        <v>0.8687920031791051</v>
+        <v>0.896769335060127</v>
       </c>
     </row>
     <row r="58">
@@ -1417,16 +1417,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.925843490117269</v>
+        <v>0.906794892247592</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9156796720837977</v>
+        <v>0.9035245869954007</v>
       </c>
       <c r="D58" t="n">
-        <v>0.872209432989693</v>
+        <v>0.8962868456567732</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8684465021959454</v>
+        <v>0.8962128587413001</v>
       </c>
     </row>
     <row r="59">
@@ -1434,16 +1434,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9262289573562777</v>
+        <v>0.9045595257324457</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9160723736765174</v>
+        <v>0.9013803122131817</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8724566759653195</v>
+        <v>0.8931024493446631</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8688414617860656</v>
+        <v>0.8932313922902875</v>
       </c>
     </row>
     <row r="60">
@@ -1451,16 +1451,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9258190551793022</v>
+        <v>0.9008613372052338</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9156762321063719</v>
+        <v>0.8974660457007193</v>
       </c>
       <c r="D60" t="n">
-        <v>0.872664108013418</v>
+        <v>0.8893131474042044</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8693287658941107</v>
+        <v>0.8893677232349114</v>
       </c>
     </row>
     <row r="61">
@@ -1468,16 +1468,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9257299239997716</v>
+        <v>0.9030824885980777</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9155991981507527</v>
+        <v>0.8993800407756429</v>
       </c>
       <c r="D61" t="n">
-        <v>0.871978437398</v>
+        <v>0.8926690186651933</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8688382680568982</v>
+        <v>0.8924475770429391</v>
       </c>
     </row>
     <row r="62">
@@ -1485,16 +1485,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.925594200586829</v>
+        <v>0.9009736408684204</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9155575915146718</v>
+        <v>0.8970363295503836</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8717691628722217</v>
+        <v>0.8887871900058897</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8686303430996926</v>
+        <v>0.8886018123767794</v>
       </c>
     </row>
     <row r="63">
@@ -1502,16 +1502,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9252847258091914</v>
+        <v>0.9001174357915243</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9153764828893108</v>
+        <v>0.8961277821697213</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8727278373699272</v>
+        <v>0.8914639784504668</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8694875886875211</v>
+        <v>0.8914054986369943</v>
       </c>
     </row>
     <row r="64">
@@ -1519,16 +1519,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.9251191590824823</v>
+        <v>0.8996231221269857</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9152987767763379</v>
+        <v>0.8957897678293636</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8733538604855914</v>
+        <v>0.8916428046431548</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8700289758791415</v>
+        <v>0.8915872116332223</v>
       </c>
     </row>
     <row r="65">
@@ -1536,16 +1536,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9243951079467138</v>
+        <v>0.9024733717674421</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9147529004496564</v>
+        <v>0.8991263699826546</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8736793400904022</v>
+        <v>0.8948737629034723</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8702492435849997</v>
+        <v>0.8949786398644382</v>
       </c>
     </row>
     <row r="66">
@@ -1553,16 +1553,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9241943717601862</v>
+        <v>0.9027451994034497</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9146327823862483</v>
+        <v>0.8999274701101329</v>
       </c>
       <c r="D66" t="n">
-        <v>0.873711056048791</v>
+        <v>0.894654856480557</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8705657224908501</v>
+        <v>0.8946136002145596</v>
       </c>
     </row>
     <row r="67">
@@ -1570,16 +1570,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9239427905371655</v>
+        <v>0.905601530141031</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9145624667200161</v>
+        <v>0.902894048104512</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8737167447220696</v>
+        <v>0.8943850066048473</v>
       </c>
       <c r="E67" t="n">
-        <v>0.8710938227003977</v>
+        <v>0.8942529399754341</v>
       </c>
     </row>
     <row r="68">
@@ -1587,16 +1587,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9239823291863196</v>
+        <v>0.9020197716952819</v>
       </c>
       <c r="C68" t="n">
-        <v>0.914754801366941</v>
+        <v>0.8993519068900838</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8738236346109711</v>
+        <v>0.8953436531955753</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8711857250254869</v>
+        <v>0.8957643372785347</v>
       </c>
     </row>
     <row r="69">
@@ -1604,16 +1604,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.923774213250014</v>
+        <v>0.9084140884229905</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9148220107366505</v>
+        <v>0.9051240310345918</v>
       </c>
       <c r="D69" t="n">
-        <v>0.874187855837932</v>
+        <v>0.8990392260658964</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8711459679333918</v>
+        <v>0.8996091923414283</v>
       </c>
     </row>
     <row r="70">
@@ -1621,16 +1621,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9233923062612285</v>
+        <v>0.8965824373866603</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9147111976619398</v>
+        <v>0.893923573594134</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8740821762517148</v>
+        <v>0.8901929559681743</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8707373900802006</v>
+        <v>0.8912930876299867</v>
       </c>
     </row>
     <row r="71">
@@ -1638,16 +1638,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9230405179102674</v>
+        <v>0.8904459007536922</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9147408443710822</v>
+        <v>0.8887783982499157</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8751070132847916</v>
+        <v>0.8835951395487573</v>
       </c>
       <c r="E71" t="n">
-        <v>0.871056620532577</v>
+        <v>0.884531340387374</v>
       </c>
     </row>
     <row r="72">
@@ -1655,16 +1655,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9231131626354727</v>
+        <v>0.8876463896311569</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9150299787747066</v>
+        <v>0.8872059497117633</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8733833388564806</v>
+        <v>0.871273923030742</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8702692042931209</v>
+        <v>0.8728929301251104</v>
       </c>
     </row>
     <row r="73">
@@ -1672,16 +1672,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9224384795031995</v>
+        <v>0.9017613540649956</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9146382479576891</v>
+        <v>0.9007348831931583</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8738856868642055</v>
+        <v>0.8890966977063848</v>
       </c>
       <c r="E73" t="n">
-        <v>0.8698419165176693</v>
+        <v>0.8902281021092285</v>
       </c>
     </row>
     <row r="74">
@@ -1689,16 +1689,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9220683998337345</v>
+        <v>0.8955508112265522</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9144489073502313</v>
+        <v>0.8938181182949578</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8743025627836376</v>
+        <v>0.8814480790906225</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8704399596871921</v>
+        <v>0.8820510491527195</v>
       </c>
     </row>
     <row r="75">
@@ -1706,16 +1706,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9215263299273015</v>
+        <v>0.8867178296358627</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9139928428445598</v>
+        <v>0.8848225638985536</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8739361460259016</v>
+        <v>0.8735747071993174</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8705514810637954</v>
+        <v>0.8740359269760751</v>
       </c>
     </row>
     <row r="76">
@@ -1723,16 +1723,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9219812458043667</v>
+        <v>0.8889940589225356</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9144992413751398</v>
+        <v>0.8868113180714491</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8739561335879946</v>
+        <v>0.8789080431150522</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8708243926058472</v>
+        <v>0.8796645835681027</v>
       </c>
     </row>
     <row r="77">
@@ -1740,16 +1740,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.921968721494258</v>
+        <v>0.8945295589664982</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9146136413947176</v>
+        <v>0.8926757239230813</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8751489083790415</v>
+        <v>0.8859892450713169</v>
       </c>
       <c r="E77" t="n">
-        <v>0.8714090800328279</v>
+        <v>0.8870002390687802</v>
       </c>
     </row>
     <row r="78">
@@ -1757,16 +1757,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9221905385865933</v>
+        <v>0.8947131164538263</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9149910841850758</v>
+        <v>0.8923260863406874</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8754049101545489</v>
+        <v>0.8847220475188224</v>
       </c>
       <c r="E78" t="n">
-        <v>0.8725044915801791</v>
+        <v>0.8857329502257709</v>
       </c>
     </row>
     <row r="79">
@@ -1774,16 +1774,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9218857141571677</v>
+        <v>0.8972097502333801</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9147871782450954</v>
+        <v>0.8943096026504482</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8762069332430752</v>
+        <v>0.8896671870283813</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8728949575425881</v>
+        <v>0.8906711388035703</v>
       </c>
     </row>
     <row r="80">
@@ -1791,16 +1791,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9221981754230051</v>
+        <v>0.9015039757388086</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9151196520510575</v>
+        <v>0.8984874787821122</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8765290731588421</v>
+        <v>0.8909499363757778</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8739263396984713</v>
+        <v>0.8921108593574377</v>
       </c>
     </row>
     <row r="81">
@@ -1808,16 +1808,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9230397714826292</v>
+        <v>0.9061782966763922</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9159596033048188</v>
+        <v>0.9032537595060627</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8790393408871627</v>
+        <v>0.8935931473083245</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8756951453314228</v>
+        <v>0.8947160924720123</v>
       </c>
     </row>
     <row r="82">
@@ -1825,16 +1825,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9242599391900088</v>
+        <v>0.9113880249212725</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9172213357886507</v>
+        <v>0.9089367283391562</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8807201063116648</v>
+        <v>0.8969563877337038</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8774306750969236</v>
+        <v>0.8979325205743619</v>
       </c>
     </row>
     <row r="83">
@@ -1842,16 +1842,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9251560602281027</v>
+        <v>0.9118675013903814</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9180830381901879</v>
+        <v>0.9089571110814397</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8809587498529494</v>
+        <v>0.8988441333460175</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8780503844239878</v>
+        <v>0.8996344643503376</v>
       </c>
     </row>
     <row r="84">
@@ -1859,16 +1859,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9258690765825323</v>
+        <v>0.911471917833</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9187763236085241</v>
+        <v>0.9086044475575035</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8813270008380549</v>
+        <v>0.902434061939787</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8783641053589761</v>
+        <v>0.9027605406782783</v>
       </c>
     </row>
     <row r="85">
@@ -1876,16 +1876,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.926614953043157</v>
+        <v>0.9108492828237575</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9195308706759291</v>
+        <v>0.9074879728819207</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8820120266893267</v>
+        <v>0.9019036404470224</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8790632728852628</v>
+        <v>0.9014237384508239</v>
       </c>
     </row>
     <row r="86">
@@ -1893,16 +1893,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9275683351753057</v>
+        <v>0.9097707701304819</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9205053459496803</v>
+        <v>0.9063602689705775</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8822069189088266</v>
+        <v>0.9046823054234866</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8786621547443996</v>
+        <v>0.9036560329681012</v>
       </c>
     </row>
     <row r="87">
@@ -1910,16 +1910,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9280985735932505</v>
+        <v>0.9118135610826543</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9210484238297365</v>
+        <v>0.9073378577337727</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8823507870133557</v>
+        <v>0.9053978088207766</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8787240735985157</v>
+        <v>0.9032969135472151</v>
       </c>
     </row>
     <row r="88">
@@ -1927,16 +1927,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9283088526589693</v>
+        <v>0.9068548449925342</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9212810199160137</v>
+        <v>0.9014181519851183</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8817661654103117</v>
+        <v>0.9014704657806301</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8781188433173759</v>
+        <v>0.8984485056710215</v>
       </c>
     </row>
     <row r="89">
@@ -1944,16 +1944,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.928375490973871</v>
+        <v>0.9016079384637351</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9213412057656384</v>
+        <v>0.8957414583561421</v>
       </c>
       <c r="D89" t="n">
-        <v>0.8821009547489964</v>
+        <v>0.893387436351764</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8790828431576632</v>
+        <v>0.8896097505815099</v>
       </c>
     </row>
     <row r="90">
@@ -1961,16 +1961,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9285884033171488</v>
+        <v>0.904010792681174</v>
       </c>
       <c r="C90" t="n">
-        <v>0.921616435610813</v>
+        <v>0.8976935852399919</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8825721444458202</v>
+        <v>0.8963042820538222</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8794099326957068</v>
+        <v>0.8920337124572348</v>
       </c>
     </row>
     <row r="91">
@@ -1978,16 +1978,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9288161950783022</v>
+        <v>0.906838281145375</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9217414859159683</v>
+        <v>0.9001853542102523</v>
       </c>
       <c r="D91" t="n">
-        <v>0.8825116325305018</v>
+        <v>0.9019021217596453</v>
       </c>
       <c r="E91" t="n">
-        <v>0.8798526010149718</v>
+        <v>0.897547096657169</v>
       </c>
     </row>
     <row r="92">
@@ -1995,16 +1995,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9292845614376452</v>
+        <v>0.9067909140330951</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9222376610447758</v>
+        <v>0.9003919195513341</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8828690366983627</v>
+        <v>0.8983317209225873</v>
       </c>
       <c r="E92" t="n">
-        <v>0.8795934320856525</v>
+        <v>0.89412137443777</v>
       </c>
     </row>
     <row r="93">
@@ -2012,16 +2012,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9286379191629862</v>
+        <v>0.9122835474439489</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9215872771668666</v>
+        <v>0.9058430488034255</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8836727005809745</v>
+        <v>0.9055870226823469</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8798265219443326</v>
+        <v>0.9019891538987249</v>
       </c>
     </row>
     <row r="94">
@@ -2029,16 +2029,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9282537442826679</v>
+        <v>0.9206884239438311</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9212755807629371</v>
+        <v>0.91385484327463</v>
       </c>
       <c r="D94" t="n">
-        <v>0.882481191392111</v>
+        <v>0.9168408503984951</v>
       </c>
       <c r="E94" t="n">
-        <v>0.8792510595012413</v>
+        <v>0.9131033819894701</v>
       </c>
     </row>
     <row r="95">
@@ -2046,16 +2046,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.926576220947956</v>
+        <v>0.9185077057747066</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9195955479455323</v>
+        <v>0.9117152795415201</v>
       </c>
       <c r="D95" t="n">
-        <v>0.8818021968814878</v>
+        <v>0.9180933480714656</v>
       </c>
       <c r="E95" t="n">
-        <v>0.8787330847264804</v>
+        <v>0.9141559787929082</v>
       </c>
     </row>
     <row r="96">
@@ -2063,16 +2063,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9260259235903013</v>
+        <v>0.9208263834115766</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9190668234713021</v>
+        <v>0.91415918187511</v>
       </c>
       <c r="D96" t="n">
-        <v>0.881294231013847</v>
+        <v>0.9203366638746198</v>
       </c>
       <c r="E96" t="n">
-        <v>0.8784268270121942</v>
+        <v>0.9159648834501397</v>
       </c>
     </row>
     <row r="97">
@@ -2080,16 +2080,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9250480875070416</v>
+        <v>0.9272024592629915</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9180607458883036</v>
+        <v>0.9205605306597214</v>
       </c>
       <c r="D97" t="n">
-        <v>0.880593794496054</v>
+        <v>0.9242960144245791</v>
       </c>
       <c r="E97" t="n">
-        <v>0.8775934158740825</v>
+        <v>0.9206057970528764</v>
       </c>
     </row>
     <row r="98">
@@ -2097,16 +2097,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9254150739673903</v>
+        <v>0.9279538529360415</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9183849922089439</v>
+        <v>0.921918219301737</v>
       </c>
       <c r="D98" t="n">
-        <v>0.879887865732166</v>
+        <v>0.9255645632340637</v>
       </c>
       <c r="E98" t="n">
-        <v>0.8774174188245264</v>
+        <v>0.9215072564005309</v>
       </c>
     </row>
     <row r="99">
@@ -2114,16 +2114,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.925168563228625</v>
+        <v>0.9291362331288</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9179982200960942</v>
+        <v>0.9229778944727381</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8799913767523568</v>
+        <v>0.9248936623967737</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8770036886747888</v>
+        <v>0.921529567548639</v>
       </c>
     </row>
     <row r="100">
@@ -2131,16 +2131,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9262527611649376</v>
+        <v>0.9251500471651966</v>
       </c>
       <c r="C100" t="n">
-        <v>0.919016277864769</v>
+        <v>0.9190298530165337</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8811875695295733</v>
+        <v>0.9238431484940357</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8780562910407244</v>
+        <v>0.9212396310463671</v>
       </c>
     </row>
     <row r="101">
@@ -2148,16 +2148,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9266302453471496</v>
+        <v>0.9250511476714893</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9192678927211563</v>
+        <v>0.9191163024216843</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8821345104713925</v>
+        <v>0.917837875745994</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8790761745234899</v>
+        <v>0.9159550915821468</v>
       </c>
     </row>
     <row r="102">
@@ -2165,16 +2165,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9278217952586074</v>
+        <v>0.9148218996730285</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9204286230615399</v>
+        <v>0.9064194090253261</v>
       </c>
       <c r="D102" t="n">
-        <v>0.8825638323488508</v>
+        <v>0.9059738852991637</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8799696785841399</v>
+        <v>0.9043447887851843</v>
       </c>
     </row>
     <row r="103">
@@ -2182,16 +2182,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9279180997486348</v>
+        <v>0.9033183836028682</v>
       </c>
       <c r="C103" t="n">
-        <v>0.920506720754913</v>
+        <v>0.8936685653818011</v>
       </c>
       <c r="D103" t="n">
-        <v>0.8827174443927082</v>
+        <v>0.901958611477393</v>
       </c>
       <c r="E103" t="n">
-        <v>0.880232984905136</v>
+        <v>0.8985635108816101</v>
       </c>
     </row>
     <row r="104">
@@ -2199,16 +2199,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9281369715198099</v>
+        <v>0.8981227065900502</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9207141345680944</v>
+        <v>0.8883815636199841</v>
       </c>
       <c r="D104" t="n">
-        <v>0.8835185572008566</v>
+        <v>0.9000553543271055</v>
       </c>
       <c r="E104" t="n">
-        <v>0.8801962895478923</v>
+        <v>0.8966194600789206</v>
       </c>
     </row>
     <row r="105">
@@ -2216,16 +2216,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9281771335122462</v>
+        <v>0.9094220308668793</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9207794504531577</v>
+        <v>0.901504129070489</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8845743402203586</v>
+        <v>0.889975128406535</v>
       </c>
       <c r="E105" t="n">
-        <v>0.8813595520631359</v>
+        <v>0.8860353655020516</v>
       </c>
     </row>
     <row r="106">
@@ -2233,16 +2233,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9277071943811535</v>
+        <v>0.9174493793552155</v>
       </c>
       <c r="C106" t="n">
-        <v>0.920259128949631</v>
+        <v>0.9096552535567624</v>
       </c>
       <c r="D106" t="n">
-        <v>0.8848641944401239</v>
+        <v>0.8843863073114564</v>
       </c>
       <c r="E106" t="n">
-        <v>0.8815632197754351</v>
+        <v>0.8800667042672984</v>
       </c>
     </row>
     <row r="107">
@@ -2250,16 +2250,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9270699979244236</v>
+        <v>0.9154221709805768</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9195469482578371</v>
+        <v>0.9085661724656183</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8852778110546012</v>
+        <v>0.8858170558132457</v>
       </c>
       <c r="E107" t="n">
-        <v>0.8817838172023132</v>
+        <v>0.8815007236787509</v>
       </c>
     </row>
     <row r="108">
@@ -2267,16 +2267,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9267987738056364</v>
+        <v>0.9223334368375915</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9192612701978931</v>
+        <v>0.9149880063621193</v>
       </c>
       <c r="D108" t="n">
-        <v>0.8843630092437113</v>
+        <v>0.9037068520239563</v>
       </c>
       <c r="E108" t="n">
-        <v>0.8813884582878301</v>
+        <v>0.9012533774724332</v>
       </c>
     </row>
     <row r="109">
@@ -2284,16 +2284,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9255958065029349</v>
+        <v>0.9316478517699236</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9180047237776342</v>
+        <v>0.9231332722217273</v>
       </c>
       <c r="D109" t="n">
-        <v>0.8848597381919654</v>
+        <v>0.915763932313346</v>
       </c>
       <c r="E109" t="n">
-        <v>0.8815329847381261</v>
+        <v>0.9142991462907089</v>
       </c>
     </row>
     <row r="110">
@@ -2301,16 +2301,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9254066170609669</v>
+        <v>0.9317086297834696</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9177304655654819</v>
+        <v>0.9225391023020288</v>
       </c>
       <c r="D110" t="n">
-        <v>0.8841451642567033</v>
+        <v>0.9219260799749948</v>
       </c>
       <c r="E110" t="n">
-        <v>0.8806935048138456</v>
+        <v>0.9204316963262097</v>
       </c>
     </row>
     <row r="111">
@@ -2318,16 +2318,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9247040908689887</v>
+        <v>0.9279067238867115</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9169744805727553</v>
+        <v>0.9177347473689336</v>
       </c>
       <c r="D111" t="n">
-        <v>0.8831729815282232</v>
+        <v>0.9229209562940551</v>
       </c>
       <c r="E111" t="n">
-        <v>0.8799039762068077</v>
+        <v>0.9210354245832477</v>
       </c>
     </row>
     <row r="112">
@@ -2335,16 +2335,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9250181044081196</v>
+        <v>0.9279495202455306</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9171973599500376</v>
+        <v>0.9173020073154768</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8828699561748016</v>
+        <v>0.924651935982583</v>
       </c>
       <c r="E112" t="n">
-        <v>0.8792085708300625</v>
+        <v>0.9229288453525468</v>
       </c>
     </row>
     <row r="113">
@@ -2352,16 +2352,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9242986381633709</v>
+        <v>0.9302464763886078</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9164019307226373</v>
+        <v>0.9193986236914462</v>
       </c>
       <c r="D113" t="n">
-        <v>0.8820911235943563</v>
+        <v>0.9283494402347785</v>
       </c>
       <c r="E113" t="n">
-        <v>0.878800317648636</v>
+        <v>0.9267673017330098</v>
       </c>
     </row>
     <row r="114">
@@ -2369,16 +2369,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.923311172380274</v>
+        <v>0.9340113342253383</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9153805585453557</v>
+        <v>0.923485185956081</v>
       </c>
       <c r="D114" t="n">
-        <v>0.8812232891830435</v>
+        <v>0.9294980111391606</v>
       </c>
       <c r="E114" t="n">
-        <v>0.8783356611212859</v>
+        <v>0.928150518365978</v>
       </c>
     </row>
     <row r="115">
@@ -2386,16 +2386,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9227551109216011</v>
+        <v>0.9353284783259057</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9147987090904932</v>
+        <v>0.9250855862861237</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8808304681380558</v>
+        <v>0.9290785838565958</v>
       </c>
       <c r="E115" t="n">
-        <v>0.878052157402063</v>
+        <v>0.927869366905741</v>
       </c>
     </row>
     <row r="116">
@@ -2403,16 +2403,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.922227341615398</v>
+        <v>0.9359199844845997</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9141880024067488</v>
+        <v>0.9256554438075391</v>
       </c>
       <c r="D116" t="n">
-        <v>0.8815142032657675</v>
+        <v>0.928695942644303</v>
       </c>
       <c r="E116" t="n">
-        <v>0.8775603292887895</v>
+        <v>0.9280469107558629</v>
       </c>
     </row>
     <row r="117">
@@ -2420,16 +2420,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9216136971713372</v>
+        <v>0.9356860260705204</v>
       </c>
       <c r="C117" t="n">
-        <v>0.913503037443693</v>
+        <v>0.9252327673838345</v>
       </c>
       <c r="D117" t="n">
-        <v>0.8807118072278067</v>
+        <v>0.9272648599269293</v>
       </c>
       <c r="E117" t="n">
-        <v>0.8775361060306686</v>
+        <v>0.9270031190125989</v>
       </c>
     </row>
     <row r="118">
@@ -2437,16 +2437,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.921348596803501</v>
+        <v>0.9329543913250414</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9131111508350825</v>
+        <v>0.9225876089250703</v>
       </c>
       <c r="D118" t="n">
-        <v>0.8808401930808661</v>
+        <v>0.9236306448795805</v>
       </c>
       <c r="E118" t="n">
-        <v>0.8771655947400518</v>
+        <v>0.9235922805416081</v>
       </c>
     </row>
     <row r="119">
@@ -2454,16 +2454,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9209304476923394</v>
+        <v>0.9304560862257124</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9126674412075093</v>
+        <v>0.9201245949341612</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8802624114365916</v>
+        <v>0.9175825000756381</v>
       </c>
       <c r="E119" t="n">
-        <v>0.876892594152629</v>
+        <v>0.9175412978688369</v>
       </c>
     </row>
     <row r="120">
@@ -2471,16 +2471,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.921159908594675</v>
+        <v>0.9306017949753531</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9128923388974346</v>
+        <v>0.9210334710869283</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8803994830611291</v>
+        <v>0.9148554887826895</v>
       </c>
       <c r="E120" t="n">
-        <v>0.8765598992511239</v>
+        <v>0.9144803611122663</v>
       </c>
     </row>
     <row r="121">
@@ -2488,16 +2488,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9204558344461214</v>
+        <v>0.9319371834709946</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9121825700540218</v>
+        <v>0.9226210275876526</v>
       </c>
       <c r="D121" t="n">
-        <v>0.8790759496517135</v>
+        <v>0.9141179335567684</v>
       </c>
       <c r="E121" t="n">
-        <v>0.8759280320418265</v>
+        <v>0.9136695265868039</v>
       </c>
     </row>
     <row r="122">
@@ -2505,16 +2505,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.920037075765181</v>
+        <v>0.9331444464261608</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9117028250571568</v>
+        <v>0.9236842675466129</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8785745353111597</v>
+        <v>0.9152549166758053</v>
       </c>
       <c r="E122" t="n">
-        <v>0.8750898187175349</v>
+        <v>0.91486701133194</v>
       </c>
     </row>
     <row r="123">
@@ -2522,16 +2522,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9187710295982024</v>
+        <v>0.934411314369508</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9103750074612754</v>
+        <v>0.9250073326923023</v>
       </c>
       <c r="D123" t="n">
-        <v>0.8771862055729589</v>
+        <v>0.9161183240239492</v>
       </c>
       <c r="E123" t="n">
-        <v>0.8739065398448866</v>
+        <v>0.9154203515351166</v>
       </c>
     </row>
     <row r="124">
@@ -2539,16 +2539,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9179536337729037</v>
+        <v>0.9307304484261707</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9095996700889516</v>
+        <v>0.9214085034441669</v>
       </c>
       <c r="D124" t="n">
-        <v>0.8763093929393807</v>
+        <v>0.9127692261187832</v>
       </c>
       <c r="E124" t="n">
-        <v>0.8732906971111709</v>
+        <v>0.912187592188497</v>
       </c>
     </row>
     <row r="125">
@@ -2556,16 +2556,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9172031684371651</v>
+        <v>0.9268878861222312</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9089501250844162</v>
+        <v>0.9174126744662428</v>
       </c>
       <c r="D125" t="n">
-        <v>0.8757068563195416</v>
+        <v>0.9097665795379204</v>
       </c>
       <c r="E125" t="n">
-        <v>0.8726507918107304</v>
+        <v>0.9088458868129753</v>
       </c>
     </row>
     <row r="126">
@@ -2573,16 +2573,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.9156493847960687</v>
+        <v>0.9271868091369668</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9075215153985019</v>
+        <v>0.9171097395155661</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8746496639650956</v>
+        <v>0.9114579964437803</v>
       </c>
       <c r="E126" t="n">
-        <v>0.8719725697584184</v>
+        <v>0.9100381401248845</v>
       </c>
     </row>
     <row r="127">
@@ -2590,16 +2590,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9139767993977973</v>
+        <v>0.9262378324555735</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9059624452949686</v>
+        <v>0.915435839535679</v>
       </c>
       <c r="D127" t="n">
-        <v>0.8744987948867343</v>
+        <v>0.9119449992266546</v>
       </c>
       <c r="E127" t="n">
-        <v>0.8716244138521418</v>
+        <v>0.9099541253216615</v>
       </c>
     </row>
     <row r="128">
@@ -2607,16 +2607,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9128351719743921</v>
+        <v>0.9247588602793055</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9049719026720979</v>
+        <v>0.9132874938080524</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8743937729383164</v>
+        <v>0.909081387160891</v>
       </c>
       <c r="E128" t="n">
-        <v>0.8715651246873855</v>
+        <v>0.9067810841285879</v>
       </c>
     </row>
     <row r="129">
@@ -2624,16 +2624,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.9107607082846499</v>
+        <v>0.9249446816238873</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9030300437903506</v>
+        <v>0.9133609625303134</v>
       </c>
       <c r="D129" t="n">
-        <v>0.8745351925537528</v>
+        <v>0.9088679848750159</v>
       </c>
       <c r="E129" t="n">
-        <v>0.8708193389385895</v>
+        <v>0.9065282125416758</v>
       </c>
     </row>
     <row r="130">
@@ -2641,16 +2641,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9094042323970769</v>
+        <v>0.9243759717610449</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9018690003373095</v>
+        <v>0.912436357695525</v>
       </c>
       <c r="D130" t="n">
-        <v>0.8738710345761801</v>
+        <v>0.9086564625406449</v>
       </c>
       <c r="E130" t="n">
-        <v>0.8700958875318744</v>
+        <v>0.9059987597763951</v>
       </c>
     </row>
     <row r="131">
@@ -2658,16 +2658,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.907696062678738</v>
+        <v>0.923122706657854</v>
       </c>
       <c r="C131" t="n">
-        <v>0.900299000566963</v>
+        <v>0.9110124691345926</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8715734008188853</v>
+        <v>0.9088681599836387</v>
       </c>
       <c r="E131" t="n">
-        <v>0.8692701305830264</v>
+        <v>0.9058939871575724</v>
       </c>
     </row>
     <row r="132">
@@ -2675,16 +2675,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9063234448502715</v>
+        <v>0.9202298765322382</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8990830620090748</v>
+        <v>0.9078145389989946</v>
       </c>
       <c r="D132" t="n">
-        <v>0.8708873395671632</v>
+        <v>0.9067934932434809</v>
       </c>
       <c r="E132" t="n">
-        <v>0.8681960454076927</v>
+        <v>0.90396401092746</v>
       </c>
     </row>
     <row r="133">
@@ -2692,16 +2692,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.9044503304089795</v>
+        <v>0.917051167777676</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8972164030102405</v>
+        <v>0.9044426277599305</v>
       </c>
       <c r="D133" t="n">
-        <v>0.8698137539810679</v>
+        <v>0.9031529178089585</v>
       </c>
       <c r="E133" t="n">
-        <v>0.867285646283228</v>
+        <v>0.9001131845749119</v>
       </c>
     </row>
     <row r="134">
@@ -2709,16 +2709,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9039496346707434</v>
+        <v>0.9166792587100362</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8968443738452252</v>
+        <v>0.9044663239788763</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8701821889530568</v>
+        <v>0.9030264124847921</v>
       </c>
       <c r="E134" t="n">
-        <v>0.8668939927975883</v>
+        <v>0.8999295459704201</v>
       </c>
     </row>
     <row r="135">
@@ -2726,16 +2726,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.9026095972438279</v>
+        <v>0.9172628032648196</v>
       </c>
       <c r="C135" t="n">
-        <v>0.8956753286895499</v>
+        <v>0.9053605473950581</v>
       </c>
       <c r="D135" t="n">
-        <v>0.8691985975875408</v>
+        <v>0.9031423296025491</v>
       </c>
       <c r="E135" t="n">
-        <v>0.8665546511471743</v>
+        <v>0.8997505282848051</v>
       </c>
     </row>
     <row r="136">
@@ -2743,16 +2743,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.90185236454492</v>
+        <v>0.9216165190611254</v>
       </c>
       <c r="C136" t="n">
-        <v>0.8950145399077196</v>
+        <v>0.909509095026771</v>
       </c>
       <c r="D136" t="n">
-        <v>0.867593346446524</v>
+        <v>0.9077549246487703</v>
       </c>
       <c r="E136" t="n">
-        <v>0.8653360147091185</v>
+        <v>0.9045786432417178</v>
       </c>
     </row>
     <row r="137">
@@ -2760,16 +2760,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.9011032501779737</v>
+        <v>0.924082541731156</v>
       </c>
       <c r="C137" t="n">
-        <v>0.8944117431804266</v>
+        <v>0.911911958718404</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8668699588376665</v>
+        <v>0.9075580873918729</v>
       </c>
       <c r="E137" t="n">
-        <v>0.8646010379529419</v>
+        <v>0.9047319167437433</v>
       </c>
     </row>
     <row r="138">
@@ -2777,16 +2777,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.9006490231045301</v>
+        <v>0.9221033607248362</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8941054722140533</v>
+        <v>0.9096405214138937</v>
       </c>
       <c r="D138" t="n">
-        <v>0.86594982109765</v>
+        <v>0.9076293023429993</v>
       </c>
       <c r="E138" t="n">
-        <v>0.8639311424088966</v>
+        <v>0.9049906837007116</v>
       </c>
     </row>
     <row r="139">
@@ -2794,16 +2794,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9006043706478717</v>
+        <v>0.9259587504516746</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8942543907821858</v>
+        <v>0.9140563158820627</v>
       </c>
       <c r="D139" t="n">
-        <v>0.8660906923861882</v>
+        <v>0.9109960117261484</v>
       </c>
       <c r="E139" t="n">
-        <v>0.8632532804150856</v>
+        <v>0.9092238129269441</v>
       </c>
     </row>
     <row r="140">
@@ -2811,16 +2811,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9011807231561469</v>
+        <v>0.9266061232973339</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8950513547463611</v>
+        <v>0.9149539879730695</v>
       </c>
       <c r="D140" t="n">
-        <v>0.8644261084495188</v>
+        <v>0.9101163559870413</v>
       </c>
       <c r="E140" t="n">
-        <v>0.862221930619732</v>
+        <v>0.9088065804586344</v>
       </c>
     </row>
     <row r="141">
@@ -2828,16 +2828,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.900904765344426</v>
+        <v>0.9249742163432781</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8949327806416489</v>
+        <v>0.9134724934377559</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8636898052439742</v>
+        <v>0.9078869880115878</v>
       </c>
       <c r="E141" t="n">
-        <v>0.8608976838902124</v>
+        <v>0.9072467880604647</v>
       </c>
     </row>
     <row r="142">
@@ -2845,16 +2845,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.9005385732258371</v>
+        <v>0.9220662299235332</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8947682261066869</v>
+        <v>0.9105414628788513</v>
       </c>
       <c r="D142" t="n">
-        <v>0.8628891480477825</v>
+        <v>0.9060005285742028</v>
       </c>
       <c r="E142" t="n">
-        <v>0.8604231808527296</v>
+        <v>0.9060121664407421</v>
       </c>
     </row>
     <row r="143">
@@ -2862,16 +2862,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.9003338491976338</v>
+        <v>0.9212844940397602</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8946137479682802</v>
+        <v>0.9104436830505709</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8630725101951496</v>
+        <v>0.9062199001217736</v>
       </c>
       <c r="E143" t="n">
-        <v>0.8609605002983138</v>
+        <v>0.9066506574184476</v>
       </c>
     </row>
     <row r="144">
@@ -2879,16 +2879,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.9001120001824707</v>
+        <v>0.9245413928370332</v>
       </c>
       <c r="C144" t="n">
-        <v>0.8944565505948949</v>
+        <v>0.9144770286391675</v>
       </c>
       <c r="D144" t="n">
-        <v>0.8638502555067581</v>
+        <v>0.9092410887457507</v>
       </c>
       <c r="E144" t="n">
-        <v>0.8616679065375208</v>
+        <v>0.9094403645911544</v>
       </c>
     </row>
     <row r="145">
@@ -2896,16 +2896,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.8988127971184949</v>
+        <v>0.9230075828617641</v>
       </c>
       <c r="C145" t="n">
-        <v>0.8932713034770807</v>
+        <v>0.9134585797796564</v>
       </c>
       <c r="D145" t="n">
-        <v>0.8632346934398947</v>
+        <v>0.9081593806426177</v>
       </c>
       <c r="E145" t="n">
-        <v>0.8612648804400937</v>
+        <v>0.9076465626637839</v>
       </c>
     </row>
     <row r="146">
@@ -2913,16 +2913,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.8981831483136296</v>
+        <v>0.9245267188499342</v>
       </c>
       <c r="C146" t="n">
-        <v>0.8927337132646276</v>
+        <v>0.9161875500888561</v>
       </c>
       <c r="D146" t="n">
-        <v>0.8637370697999066</v>
+        <v>0.909328332071175</v>
       </c>
       <c r="E146" t="n">
-        <v>0.8613111797323568</v>
+        <v>0.9087935866429788</v>
       </c>
     </row>
     <row r="147">
@@ -2930,16 +2930,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.8972216893665141</v>
+        <v>0.9224030438625748</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8918187857524817</v>
+        <v>0.9146737531989724</v>
       </c>
       <c r="D147" t="n">
-        <v>0.8630684086862066</v>
+        <v>0.9099034301915679</v>
       </c>
       <c r="E147" t="n">
-        <v>0.8609540379946755</v>
+        <v>0.9091044966305923</v>
       </c>
     </row>
     <row r="148">
@@ -2947,16 +2947,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.8969587983347571</v>
+        <v>0.9222894253000015</v>
       </c>
       <c r="C148" t="n">
-        <v>0.8916155898169712</v>
+        <v>0.9144210572674341</v>
       </c>
       <c r="D148" t="n">
-        <v>0.8636303206448868</v>
+        <v>0.9134211220370388</v>
       </c>
       <c r="E148" t="n">
-        <v>0.8613132957669638</v>
+        <v>0.9126206399196664</v>
       </c>
     </row>
     <row r="149">
@@ -2964,16 +2964,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.8965137663297402</v>
+        <v>0.9216227936254189</v>
       </c>
       <c r="C149" t="n">
-        <v>0.8912061427041393</v>
+        <v>0.913718991530771</v>
       </c>
       <c r="D149" t="n">
-        <v>0.8632120797921319</v>
+        <v>0.9166198157501897</v>
       </c>
       <c r="E149" t="n">
-        <v>0.8610998788898026</v>
+        <v>0.9162064921433524</v>
       </c>
     </row>
     <row r="150">
@@ -2981,16 +2981,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.8957681096496072</v>
+        <v>0.9214075906288322</v>
       </c>
       <c r="C150" t="n">
-        <v>0.8904782609716315</v>
+        <v>0.9129733659470778</v>
       </c>
       <c r="D150" t="n">
-        <v>0.8628007889980035</v>
+        <v>0.9194485300762478</v>
       </c>
       <c r="E150" t="n">
-        <v>0.8608816504697314</v>
+        <v>0.919469211043946</v>
       </c>
     </row>
     <row r="151">
@@ -2998,16 +2998,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.8952853483574275</v>
+        <v>0.9224008842717093</v>
       </c>
       <c r="C151" t="n">
-        <v>0.8899676725231661</v>
+        <v>0.9132373407779535</v>
       </c>
       <c r="D151" t="n">
-        <v>0.862804021722033</v>
+        <v>0.9236941773204128</v>
       </c>
       <c r="E151" t="n">
-        <v>0.8608686692327762</v>
+        <v>0.9235749579230524</v>
       </c>
     </row>
     <row r="152">
@@ -3015,16 +3015,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.8952909867581433</v>
+        <v>0.9189791868707744</v>
       </c>
       <c r="C152" t="n">
-        <v>0.8899924106509365</v>
+        <v>0.909288898968899</v>
       </c>
       <c r="D152" t="n">
-        <v>0.8625343336338782</v>
+        <v>0.9201237693122357</v>
       </c>
       <c r="E152" t="n">
-        <v>0.860890668063912</v>
+        <v>0.9183531005553034</v>
       </c>
     </row>
     <row r="153">
@@ -3032,16 +3032,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.895927457588037</v>
+        <v>0.9153686538583337</v>
       </c>
       <c r="C153" t="n">
-        <v>0.8906595158687018</v>
+        <v>0.9059913979822521</v>
       </c>
       <c r="D153" t="n">
-        <v>0.8628253162066022</v>
+        <v>0.9144653498415285</v>
       </c>
       <c r="E153" t="n">
-        <v>0.8610717571917641</v>
+        <v>0.9125773869865083</v>
       </c>
     </row>
     <row r="154">
@@ -3049,16 +3049,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.8953493729820671</v>
+        <v>0.9119486249448234</v>
       </c>
       <c r="C154" t="n">
-        <v>0.8900950800707352</v>
+        <v>0.9028691059624984</v>
       </c>
       <c r="D154" t="n">
-        <v>0.8630560292165562</v>
+        <v>0.9108378759550866</v>
       </c>
       <c r="E154" t="n">
-        <v>0.8606946309955883</v>
+        <v>0.909546394966573</v>
       </c>
     </row>
     <row r="155">
@@ -3066,16 +3066,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.8946963275985931</v>
+        <v>0.9114159351898723</v>
       </c>
       <c r="C155" t="n">
-        <v>0.8894469110582455</v>
+        <v>0.9024740267556863</v>
       </c>
       <c r="D155" t="n">
-        <v>0.8620817873095949</v>
+        <v>0.911220980497321</v>
       </c>
       <c r="E155" t="n">
-        <v>0.8597536304116862</v>
+        <v>0.9104960086822704</v>
       </c>
     </row>
     <row r="156">
@@ -3083,16 +3083,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.8944225754020958</v>
+        <v>0.9145642657829813</v>
       </c>
       <c r="C156" t="n">
-        <v>0.8892215257215967</v>
+        <v>0.9057223555061968</v>
       </c>
       <c r="D156" t="n">
-        <v>0.8616722090638934</v>
+        <v>0.9140860156392027</v>
       </c>
       <c r="E156" t="n">
-        <v>0.8591860915378404</v>
+        <v>0.9136482829089683</v>
       </c>
     </row>
     <row r="157">
@@ -3100,16 +3100,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.8946352651787033</v>
+        <v>0.9159813671893466</v>
       </c>
       <c r="C157" t="n">
-        <v>0.8895358607436905</v>
+        <v>0.907919542658945</v>
       </c>
       <c r="D157" t="n">
-        <v>0.8608251031185102</v>
+        <v>0.9124329261568502</v>
       </c>
       <c r="E157" t="n">
-        <v>0.8584369257436452</v>
+        <v>0.9119871241809292</v>
       </c>
     </row>
     <row r="158">
@@ -3117,16 +3117,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.894427076376126</v>
+        <v>0.9171685616780729</v>
       </c>
       <c r="C158" t="n">
-        <v>0.8894928310288921</v>
+        <v>0.909520472567543</v>
       </c>
       <c r="D158" t="n">
-        <v>0.8600136315450589</v>
+        <v>0.914000183110564</v>
       </c>
       <c r="E158" t="n">
-        <v>0.8578013378098566</v>
+        <v>0.913858864588035</v>
       </c>
     </row>
     <row r="159">
@@ -3134,16 +3134,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.8935955395880442</v>
+        <v>0.9200378875076929</v>
       </c>
       <c r="C159" t="n">
-        <v>0.888835180288839</v>
+        <v>0.9121449433021165</v>
       </c>
       <c r="D159" t="n">
-        <v>0.8594469617887478</v>
+        <v>0.914473220270156</v>
       </c>
       <c r="E159" t="n">
-        <v>0.8567095917830625</v>
+        <v>0.9142197715704213</v>
       </c>
     </row>
     <row r="160">
@@ -3151,16 +3151,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.8927758734326188</v>
+        <v>0.9285848740838758</v>
       </c>
       <c r="C160" t="n">
-        <v>0.8881641852702669</v>
+        <v>0.9212017774293455</v>
       </c>
       <c r="D160" t="n">
-        <v>0.8583206195659628</v>
+        <v>0.9229204069955936</v>
       </c>
       <c r="E160" t="n">
-        <v>0.855671642279846</v>
+        <v>0.9231913029729777</v>
       </c>
     </row>
     <row r="161">
@@ -3168,16 +3168,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.8925996204788681</v>
+        <v>0.934393759297552</v>
       </c>
       <c r="C161" t="n">
-        <v>0.8880406942472382</v>
+        <v>0.9262103468864908</v>
       </c>
       <c r="D161" t="n">
-        <v>0.8577873069680549</v>
+        <v>0.9267513796996751</v>
       </c>
       <c r="E161" t="n">
-        <v>0.8549859266375827</v>
+        <v>0.9275562948385208</v>
       </c>
     </row>
     <row r="162">
@@ -3185,16 +3185,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.8925829492435883</v>
+        <v>0.9309529665896864</v>
       </c>
       <c r="C162" t="n">
-        <v>0.8880713869361334</v>
+        <v>0.9233903847705031</v>
       </c>
       <c r="D162" t="n">
-        <v>0.8572098604699565</v>
+        <v>0.9230843372639252</v>
       </c>
       <c r="E162" t="n">
-        <v>0.8544357871147242</v>
+        <v>0.9218707365147838</v>
       </c>
     </row>
     <row r="163">
@@ -3202,16 +3202,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.8920133681807025</v>
+        <v>0.9360925188194201</v>
       </c>
       <c r="C163" t="n">
-        <v>0.8875226104249511</v>
+        <v>0.928808730692682</v>
       </c>
       <c r="D163" t="n">
-        <v>0.8566329951480638</v>
+        <v>0.927792771613228</v>
       </c>
       <c r="E163" t="n">
-        <v>0.8538080585252596</v>
+        <v>0.9293646441953574</v>
       </c>
     </row>
     <row r="164">
@@ -3219,16 +3219,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.8916109574584864</v>
+        <v>0.9365418093025559</v>
       </c>
       <c r="C164" t="n">
-        <v>0.8871452749509762</v>
+        <v>0.9293466310266194</v>
       </c>
       <c r="D164" t="n">
-        <v>0.8562798317351619</v>
+        <v>0.9280719898071118</v>
       </c>
       <c r="E164" t="n">
-        <v>0.8536801600471304</v>
+        <v>0.928915079520409</v>
       </c>
     </row>
     <row r="165">
@@ -3236,16 +3236,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.8908737604866944</v>
+        <v>0.9340333458869596</v>
       </c>
       <c r="C165" t="n">
-        <v>0.8864222694184634</v>
+        <v>0.9263824642546317</v>
       </c>
       <c r="D165" t="n">
-        <v>0.856799246955211</v>
+        <v>0.9268076837137544</v>
       </c>
       <c r="E165" t="n">
-        <v>0.854301121156829</v>
+        <v>0.9277865223836614</v>
       </c>
     </row>
     <row r="166">
@@ -3253,16 +3253,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.8897594654986867</v>
+        <v>0.9330666538074253</v>
       </c>
       <c r="C166" t="n">
-        <v>0.8852676232753025</v>
+        <v>0.9249792402292469</v>
       </c>
       <c r="D166" t="n">
-        <v>0.8575010415974191</v>
+        <v>0.9268591529998129</v>
       </c>
       <c r="E166" t="n">
-        <v>0.8546498661015113</v>
+        <v>0.9276513547778258</v>
       </c>
     </row>
     <row r="167">
@@ -3270,16 +3270,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.8887593595337672</v>
+        <v>0.9345416181920285</v>
       </c>
       <c r="C167" t="n">
-        <v>0.8842270833273214</v>
+        <v>0.9259164993468962</v>
       </c>
       <c r="D167" t="n">
-        <v>0.8573981546844387</v>
+        <v>0.9277066054727932</v>
       </c>
       <c r="E167" t="n">
-        <v>0.8550271997324749</v>
+        <v>0.9283855352517491</v>
       </c>
     </row>
     <row r="168">
@@ -3287,16 +3287,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.8884061527203806</v>
+        <v>0.9316245453650898</v>
       </c>
       <c r="C168" t="n">
-        <v>0.8838004538762586</v>
+        <v>0.9227985284790571</v>
       </c>
       <c r="D168" t="n">
-        <v>0.8580342189649235</v>
+        <v>0.9253797045034116</v>
       </c>
       <c r="E168" t="n">
-        <v>0.8554027530934446</v>
+        <v>0.9261565913729435</v>
       </c>
     </row>
     <row r="169">
@@ -3304,16 +3304,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.8882118004545959</v>
+        <v>0.9312727265167554</v>
       </c>
       <c r="C169" t="n">
-        <v>0.8836163507537421</v>
+        <v>0.9216941422886361</v>
       </c>
       <c r="D169" t="n">
-        <v>0.8574089156671598</v>
+        <v>0.9232360378751233</v>
       </c>
       <c r="E169" t="n">
-        <v>0.8552217817777159</v>
+        <v>0.92460081401131</v>
       </c>
     </row>
     <row r="170">
@@ -3321,16 +3321,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.8879801588376012</v>
+        <v>0.928756175945185</v>
       </c>
       <c r="C170" t="n">
-        <v>0.8834141184964247</v>
+        <v>0.9196142803425515</v>
       </c>
       <c r="D170" t="n">
-        <v>0.8562154450989761</v>
+        <v>0.9202378518386406</v>
       </c>
       <c r="E170" t="n">
-        <v>0.8543989897350657</v>
+        <v>0.9222335374803442</v>
       </c>
     </row>
     <row r="171">
@@ -3338,16 +3338,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.8875124388407185</v>
+        <v>0.9262291936161047</v>
       </c>
       <c r="C171" t="n">
-        <v>0.8829072972802392</v>
+        <v>0.9162502046520655</v>
       </c>
       <c r="D171" t="n">
-        <v>0.8547614194432487</v>
+        <v>0.9176748395361386</v>
       </c>
       <c r="E171" t="n">
-        <v>0.8526908745323269</v>
+        <v>0.9197458654955813</v>
       </c>
     </row>
     <row r="172">
@@ -3355,16 +3355,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.8877586953008404</v>
+        <v>0.9266935740572346</v>
       </c>
       <c r="C172" t="n">
-        <v>0.8831277103578672</v>
+        <v>0.9167159070537176</v>
       </c>
       <c r="D172" t="n">
-        <v>0.8542588876701714</v>
+        <v>0.9165707984660287</v>
       </c>
       <c r="E172" t="n">
-        <v>0.8523282816573488</v>
+        <v>0.9184974409429406</v>
       </c>
     </row>
     <row r="173">
@@ -3372,16 +3372,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.8877266624517917</v>
+        <v>0.9243088774645017</v>
       </c>
       <c r="C173" t="n">
-        <v>0.8830191645367302</v>
+        <v>0.9137722255227826</v>
       </c>
       <c r="D173" t="n">
-        <v>0.8540280258366048</v>
+        <v>0.9128268271125504</v>
       </c>
       <c r="E173" t="n">
-        <v>0.8517720903980537</v>
+        <v>0.9141413802334514</v>
       </c>
     </row>
     <row r="174">
@@ -3389,16 +3389,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.8875009989777776</v>
+        <v>0.9235599942687747</v>
       </c>
       <c r="C174" t="n">
-        <v>0.8827404590058596</v>
+        <v>0.9127904813341521</v>
       </c>
       <c r="D174" t="n">
-        <v>0.8539305892351798</v>
+        <v>0.909133970449061</v>
       </c>
       <c r="E174" t="n">
-        <v>0.851354088422029</v>
+        <v>0.9101836567501149</v>
       </c>
     </row>
     <row r="175">
@@ -3406,16 +3406,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.8875047432170233</v>
+        <v>0.9258231567284491</v>
       </c>
       <c r="C175" t="n">
-        <v>0.8826148114740862</v>
+        <v>0.915270927673143</v>
       </c>
       <c r="D175" t="n">
-        <v>0.8527298576623972</v>
+        <v>0.907168251794638</v>
       </c>
       <c r="E175" t="n">
-        <v>0.8509691516554807</v>
+        <v>0.9079502698200921</v>
       </c>
     </row>
     <row r="176">
@@ -3423,16 +3423,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.8869515423793403</v>
+        <v>0.9268384160947176</v>
       </c>
       <c r="C176" t="n">
-        <v>0.8819160520036906</v>
+        <v>0.916554400380664</v>
       </c>
       <c r="D176" t="n">
-        <v>0.8523861629011497</v>
+        <v>0.9097097809231423</v>
       </c>
       <c r="E176" t="n">
-        <v>0.8504384554657556</v>
+        <v>0.9097382636230338</v>
       </c>
     </row>
     <row r="177">
@@ -3440,16 +3440,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.8864494308452913</v>
+        <v>0.9233872473981397</v>
       </c>
       <c r="C177" t="n">
-        <v>0.8812842529369717</v>
+        <v>0.9132616642339866</v>
       </c>
       <c r="D177" t="n">
-        <v>0.8521294906634149</v>
+        <v>0.9100938909315742</v>
       </c>
       <c r="E177" t="n">
-        <v>0.8499685111411781</v>
+        <v>0.9093667386024582</v>
       </c>
     </row>
     <row r="178">
@@ -3457,16 +3457,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.8864963348439032</v>
+        <v>0.922057927530487</v>
       </c>
       <c r="C178" t="n">
-        <v>0.8811772034709549</v>
+        <v>0.9123407159398619</v>
       </c>
       <c r="D178" t="n">
-        <v>0.8527463268833381</v>
+        <v>0.9115553585539063</v>
       </c>
       <c r="E178" t="n">
-        <v>0.8501808143443903</v>
+        <v>0.9103830005096663</v>
       </c>
     </row>
     <row r="179">
@@ -3474,16 +3474,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.8862571354009567</v>
+        <v>0.9231414843086182</v>
       </c>
       <c r="C179" t="n">
-        <v>0.8807113988932667</v>
+        <v>0.9139228528297956</v>
       </c>
       <c r="D179" t="n">
-        <v>0.8520316799395522</v>
+        <v>0.9129925060917776</v>
       </c>
       <c r="E179" t="n">
-        <v>0.8501080499802948</v>
+        <v>0.9121496579360913</v>
       </c>
     </row>
     <row r="180">
@@ -3491,16 +3491,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.8855081586537077</v>
+        <v>0.9212320210396285</v>
       </c>
       <c r="C180" t="n">
-        <v>0.8798123418996036</v>
+        <v>0.9117707714546959</v>
       </c>
       <c r="D180" t="n">
-        <v>0.8519506126132337</v>
+        <v>0.9102502658397192</v>
       </c>
       <c r="E180" t="n">
-        <v>0.8499710178487023</v>
+        <v>0.909555793998331</v>
       </c>
     </row>
     <row r="181">
@@ -3508,16 +3508,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.8848038691918585</v>
+        <v>0.916515050203469</v>
       </c>
       <c r="C181" t="n">
-        <v>0.8790067447338739</v>
+        <v>0.9076363796883564</v>
       </c>
       <c r="D181" t="n">
-        <v>0.8526009734047082</v>
+        <v>0.9051323281826168</v>
       </c>
       <c r="E181" t="n">
-        <v>0.8495372207774997</v>
+        <v>0.9047341413318484</v>
       </c>
     </row>
     <row r="182">
@@ -3525,16 +3525,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.8845304943669101</v>
+        <v>0.9133431821143158</v>
       </c>
       <c r="C182" t="n">
-        <v>0.878668323713733</v>
+        <v>0.9049347856816496</v>
       </c>
       <c r="D182" t="n">
-        <v>0.8516881792059379</v>
+        <v>0.9012434054216542</v>
       </c>
       <c r="E182" t="n">
-        <v>0.8493481640472369</v>
+        <v>0.9010735657701826</v>
       </c>
     </row>
     <row r="183">
@@ -3542,16 +3542,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.8835991573841973</v>
+        <v>0.9131048830969608</v>
       </c>
       <c r="C183" t="n">
-        <v>0.8776718620827823</v>
+        <v>0.9050638762914703</v>
       </c>
       <c r="D183" t="n">
-        <v>0.8506541534623797</v>
+        <v>0.8975814577564442</v>
       </c>
       <c r="E183" t="n">
-        <v>0.8481781403556145</v>
+        <v>0.8972950019329613</v>
       </c>
     </row>
     <row r="184">
@@ -3559,16 +3559,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.8828732547574154</v>
+        <v>0.9108943737086868</v>
       </c>
       <c r="C184" t="n">
-        <v>0.8769353427120709</v>
+        <v>0.9029676854816093</v>
       </c>
       <c r="D184" t="n">
-        <v>0.8497552489830085</v>
+        <v>0.8969442223141491</v>
       </c>
       <c r="E184" t="n">
-        <v>0.8471997496350485</v>
+        <v>0.8962607162762182</v>
       </c>
     </row>
     <row r="185">
@@ -3576,16 +3576,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.8820120701914212</v>
+        <v>0.9088700611043539</v>
       </c>
       <c r="C185" t="n">
-        <v>0.8760721767992202</v>
+        <v>0.9007554190475651</v>
       </c>
       <c r="D185" t="n">
-        <v>0.848422190598896</v>
+        <v>0.8962735872052179</v>
       </c>
       <c r="E185" t="n">
-        <v>0.8460607740801998</v>
+        <v>0.8952282057263434</v>
       </c>
     </row>
     <row r="186">
@@ -3593,16 +3593,16 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.8810238458311449</v>
+        <v>0.9085201594357953</v>
       </c>
       <c r="C186" t="n">
-        <v>0.8750318602690123</v>
+        <v>0.900517175446351</v>
       </c>
       <c r="D186" t="n">
-        <v>0.847858463332033</v>
+        <v>0.8946472228290662</v>
       </c>
       <c r="E186" t="n">
-        <v>0.8452670740068637</v>
+        <v>0.8938726761656082</v>
       </c>
     </row>
     <row r="187">
@@ -3610,16 +3610,16 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.8801926816623689</v>
+        <v>0.9075862811881232</v>
       </c>
       <c r="C187" t="n">
-        <v>0.8742156296090315</v>
+        <v>0.899525727649941</v>
       </c>
       <c r="D187" t="n">
-        <v>0.8472144932427226</v>
+        <v>0.8928117169047528</v>
       </c>
       <c r="E187" t="n">
-        <v>0.8444921542454762</v>
+        <v>0.8921323366382814</v>
       </c>
     </row>
     <row r="188">
@@ -3627,16 +3627,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.8789589378094534</v>
+        <v>0.9034681181749744</v>
       </c>
       <c r="C188" t="n">
-        <v>0.8730625560677433</v>
+        <v>0.8950640675628665</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8459339317887191</v>
+        <v>0.8919116965661706</v>
       </c>
       <c r="E188" t="n">
-        <v>0.8431013452565717</v>
+        <v>0.8910873268419641</v>
       </c>
     </row>
     <row r="189">
@@ -3644,16 +3644,16 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.8784824249932464</v>
+        <v>0.9033124517081088</v>
       </c>
       <c r="C189" t="n">
-        <v>0.8726724446083656</v>
+        <v>0.8951187944231944</v>
       </c>
       <c r="D189" t="n">
-        <v>0.8440777866243758</v>
+        <v>0.8946191082063669</v>
       </c>
       <c r="E189" t="n">
-        <v>0.8415316251020197</v>
+        <v>0.8936854532199923</v>
       </c>
     </row>
     <row r="190">
@@ -3661,16 +3661,16 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.8791812965856718</v>
+        <v>0.9021767666689824</v>
       </c>
       <c r="C190" t="n">
-        <v>0.873408317352561</v>
+        <v>0.8939184230992985</v>
       </c>
       <c r="D190" t="n">
-        <v>0.8438564288114687</v>
+        <v>0.89649012835388</v>
       </c>
       <c r="E190" t="n">
-        <v>0.8410387854273981</v>
+        <v>0.8952089353243651</v>
       </c>
     </row>
     <row r="191">
@@ -3678,16 +3678,16 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.8796044712910274</v>
+        <v>0.9011682896806503</v>
       </c>
       <c r="C191" t="n">
-        <v>0.8739221302483778</v>
+        <v>0.8925553439636658</v>
       </c>
       <c r="D191" t="n">
-        <v>0.8431345182861536</v>
+        <v>0.8959914367317341</v>
       </c>
       <c r="E191" t="n">
-        <v>0.8402549658303812</v>
+        <v>0.8949968029313224</v>
       </c>
     </row>
     <row r="192">
@@ -3695,16 +3695,16 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.8798975098770525</v>
+        <v>0.8988812675847863</v>
       </c>
       <c r="C192" t="n">
-        <v>0.8742459050061839</v>
+        <v>0.8904571101103675</v>
       </c>
       <c r="D192" t="n">
-        <v>0.8432797453821337</v>
+        <v>0.8947372131571483</v>
       </c>
       <c r="E192" t="n">
-        <v>0.8405522038954587</v>
+        <v>0.8929890635137725</v>
       </c>
     </row>
     <row r="193">
@@ -3712,16 +3712,16 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.8790236040236716</v>
+        <v>0.8882610170832753</v>
       </c>
       <c r="C193" t="n">
-        <v>0.8732852676210779</v>
+        <v>0.8800618333940347</v>
       </c>
       <c r="D193" t="n">
-        <v>0.8425219763119128</v>
+        <v>0.8866172017792016</v>
       </c>
       <c r="E193" t="n">
-        <v>0.8395957886165765</v>
+        <v>0.8847688302637891</v>
       </c>
     </row>
     <row r="194">
@@ -3729,16 +3729,16 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.879027359753537</v>
+        <v>0.8877532192502997</v>
       </c>
       <c r="C194" t="n">
-        <v>0.873166286963251</v>
+        <v>0.8796391288229319</v>
       </c>
       <c r="D194" t="n">
-        <v>0.8414252279905444</v>
+        <v>0.8898521267463902</v>
       </c>
       <c r="E194" t="n">
-        <v>0.8386609216484934</v>
+        <v>0.8882417355252883</v>
       </c>
     </row>
     <row r="195">
@@ -3746,16 +3746,16 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.8791563294142273</v>
+        <v>0.8881817815157499</v>
       </c>
       <c r="C195" t="n">
-        <v>0.8732246124163946</v>
+        <v>0.8802729393111542</v>
       </c>
       <c r="D195" t="n">
-        <v>0.8405007633179228</v>
+        <v>0.8893544515836977</v>
       </c>
       <c r="E195" t="n">
-        <v>0.8375713996817293</v>
+        <v>0.8882092062485032</v>
       </c>
     </row>
     <row r="196">
@@ -3763,16 +3763,16 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.8790198801958875</v>
+        <v>0.8878234685782536</v>
       </c>
       <c r="C196" t="n">
-        <v>0.8730757845702507</v>
+        <v>0.8797941613548541</v>
       </c>
       <c r="D196" t="n">
-        <v>0.8392169534212327</v>
+        <v>0.8857623420175458</v>
       </c>
       <c r="E196" t="n">
-        <v>0.8363291340068573</v>
+        <v>0.8849731318253269</v>
       </c>
     </row>
     <row r="197">
@@ -3780,16 +3780,16 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.8799926664129176</v>
+        <v>0.8859690608683768</v>
       </c>
       <c r="C197" t="n">
-        <v>0.8741476671971046</v>
+        <v>0.8776421588918535</v>
       </c>
       <c r="D197" t="n">
-        <v>0.8381912979687811</v>
+        <v>0.8829597177804122</v>
       </c>
       <c r="E197" t="n">
-        <v>0.8357340460688625</v>
+        <v>0.8821809440381917</v>
       </c>
     </row>
     <row r="198">
@@ -3797,16 +3797,16 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.8814760330266491</v>
+        <v>0.8872737162721595</v>
       </c>
       <c r="C198" t="n">
-        <v>0.8756816948754079</v>
+        <v>0.8786593407715024</v>
       </c>
       <c r="D198" t="n">
-        <v>0.8388938331622671</v>
+        <v>0.8834785346422197</v>
       </c>
       <c r="E198" t="n">
-        <v>0.8352865530485092</v>
+        <v>0.8830531297974531</v>
       </c>
     </row>
     <row r="199">
@@ -3814,16 +3814,16 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.8819487064438734</v>
+        <v>0.8884650520314313</v>
       </c>
       <c r="C199" t="n">
-        <v>0.8760735756671534</v>
+        <v>0.8799811956945718</v>
       </c>
       <c r="D199" t="n">
-        <v>0.8379957960317386</v>
+        <v>0.8818946014916985</v>
       </c>
       <c r="E199" t="n">
-        <v>0.8341345784149075</v>
+        <v>0.8817085185145277</v>
       </c>
     </row>
     <row r="200">
@@ -3831,16 +3831,16 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.8829747031855848</v>
+        <v>0.8879403264891017</v>
       </c>
       <c r="C200" t="n">
-        <v>0.8770405130111201</v>
+        <v>0.8790584994071734</v>
       </c>
       <c r="D200" t="n">
-        <v>0.8379642950587327</v>
+        <v>0.8829211758209348</v>
       </c>
       <c r="E200" t="n">
-        <v>0.8342736022130832</v>
+        <v>0.8826661034531614</v>
       </c>
     </row>
     <row r="201">
@@ -3848,16 +3848,16 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.8833075218735613</v>
+        <v>0.8871604430460072</v>
       </c>
       <c r="C201" t="n">
-        <v>0.8773345791562772</v>
+        <v>0.8780243646353708</v>
       </c>
       <c r="D201" t="n">
-        <v>0.8367603400759971</v>
+        <v>0.8856982762241427</v>
       </c>
       <c r="E201" t="n">
-        <v>0.8337650663966317</v>
+        <v>0.8853031217722795</v>
       </c>
     </row>
     <row r="202">
@@ -3865,16 +3865,16 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.884006692922934</v>
+        <v>0.8913988543040524</v>
       </c>
       <c r="C202" t="n">
-        <v>0.8780311758890242</v>
+        <v>0.8820553778884923</v>
       </c>
       <c r="D202" t="n">
-        <v>0.836831416200198</v>
+        <v>0.8888171625633842</v>
       </c>
       <c r="E202" t="n">
-        <v>0.8323959126486291</v>
+        <v>0.8884851425601783</v>
       </c>
     </row>
     <row r="203">
@@ -3882,16 +3882,16 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.8843541105082431</v>
+        <v>0.8936933082016663</v>
       </c>
       <c r="C203" t="n">
-        <v>0.8783167362365689</v>
+        <v>0.8839693163203793</v>
       </c>
       <c r="D203" t="n">
-        <v>0.8357214903491261</v>
+        <v>0.8880505417937112</v>
       </c>
       <c r="E203" t="n">
-        <v>0.8317237115453553</v>
+        <v>0.8877757413586407</v>
       </c>
     </row>
     <row r="204">
@@ -3899,16 +3899,16 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.8849276280626397</v>
+        <v>0.8964598189870867</v>
       </c>
       <c r="C204" t="n">
-        <v>0.8787452877277719</v>
+        <v>0.8865375902475425</v>
       </c>
       <c r="D204" t="n">
-        <v>0.8352822121561431</v>
+        <v>0.8872724530010846</v>
       </c>
       <c r="E204" t="n">
-        <v>0.8309326768339894</v>
+        <v>0.8867940141525729</v>
       </c>
     </row>
     <row r="205">
@@ -3916,16 +3916,16 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.8840416291518957</v>
+        <v>0.900191164044406</v>
       </c>
       <c r="C205" t="n">
-        <v>0.877703239091148</v>
+        <v>0.8904293746955798</v>
       </c>
       <c r="D205" t="n">
-        <v>0.8334763198972843</v>
+        <v>0.8915594652169456</v>
       </c>
       <c r="E205" t="n">
-        <v>0.8298848273365</v>
+        <v>0.8911577347160931</v>
       </c>
     </row>
     <row r="206">
@@ -3933,16 +3933,16 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.8839792371931704</v>
+        <v>0.9034718904490133</v>
       </c>
       <c r="C206" t="n">
-        <v>0.8775746742421113</v>
+        <v>0.8937540746520023</v>
       </c>
       <c r="D206" t="n">
-        <v>0.8336566131004178</v>
+        <v>0.8942697973584522</v>
       </c>
       <c r="E206" t="n">
-        <v>0.8295581773861613</v>
+        <v>0.8945154800075881</v>
       </c>
     </row>
     <row r="207">
@@ -3950,16 +3950,16 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.8824758300777037</v>
+        <v>0.9074705408552483</v>
       </c>
       <c r="C207" t="n">
-        <v>0.8760592206504825</v>
+        <v>0.8978980653985329</v>
       </c>
       <c r="D207" t="n">
-        <v>0.8315654755327857</v>
+        <v>0.8955992706056329</v>
       </c>
       <c r="E207" t="n">
-        <v>0.8276090228531695</v>
+        <v>0.8964061872390152</v>
       </c>
     </row>
     <row r="208">
@@ -3967,16 +3967,16 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.8827526882787726</v>
+        <v>0.9037032229692659</v>
       </c>
       <c r="C208" t="n">
-        <v>0.8763126996436659</v>
+        <v>0.8940640518157085</v>
       </c>
       <c r="D208" t="n">
-        <v>0.8307855163183101</v>
+        <v>0.8950080250261023</v>
       </c>
       <c r="E208" t="n">
-        <v>0.8271035336098498</v>
+        <v>0.8963598762251672</v>
       </c>
     </row>
     <row r="209">
@@ -3984,16 +3984,16 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.8822386577116892</v>
+        <v>0.8997954873640387</v>
       </c>
       <c r="C209" t="n">
-        <v>0.8757823816721264</v>
+        <v>0.8899580062562437</v>
       </c>
       <c r="D209" t="n">
-        <v>0.8300763012347128</v>
+        <v>0.8927367154235335</v>
       </c>
       <c r="E209" t="n">
-        <v>0.8258813465976457</v>
+        <v>0.8938369150391987</v>
       </c>
     </row>
     <row r="210">
@@ -4001,16 +4001,16 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0.8826882548411235</v>
+        <v>0.9023396344776262</v>
       </c>
       <c r="C210" t="n">
-        <v>0.8761761973271847</v>
+        <v>0.8933506158442548</v>
       </c>
       <c r="D210" t="n">
-        <v>0.8297129741699566</v>
+        <v>0.8939480473321406</v>
       </c>
       <c r="E210" t="n">
-        <v>0.8257423269325023</v>
+        <v>0.8948487225845959</v>
       </c>
     </row>
     <row r="211">
@@ -4018,16 +4018,16 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>0.8824656669027967</v>
+        <v>0.904642644676142</v>
       </c>
       <c r="C211" t="n">
-        <v>0.8758425462336266</v>
+        <v>0.8968779232765487</v>
       </c>
       <c r="D211" t="n">
-        <v>0.8295791213258665</v>
+        <v>0.8960676959972604</v>
       </c>
       <c r="E211" t="n">
-        <v>0.8253286686618306</v>
+        <v>0.8967483227869605</v>
       </c>
     </row>
     <row r="212">
@@ -4035,16 +4035,16 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.8821599104136275</v>
+        <v>0.9047869086044733</v>
       </c>
       <c r="C212" t="n">
-        <v>0.8753833584930227</v>
+        <v>0.8979937658040833</v>
       </c>
       <c r="D212" t="n">
-        <v>0.8289381883662397</v>
+        <v>0.8966412726378472</v>
       </c>
       <c r="E212" t="n">
-        <v>0.8244721645584562</v>
+        <v>0.8958961268947667</v>
       </c>
     </row>
     <row r="213">
@@ -4052,16 +4052,16 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.881268524059399</v>
+        <v>0.9075764759999025</v>
       </c>
       <c r="C213" t="n">
-        <v>0.8742570757820598</v>
+        <v>0.9017206874119432</v>
       </c>
       <c r="D213" t="n">
-        <v>0.8281656783781344</v>
+        <v>0.9018062710324077</v>
       </c>
       <c r="E213" t="n">
-        <v>0.8241960012212821</v>
+        <v>0.9009468930828515</v>
       </c>
     </row>
     <row r="214">
@@ -4069,16 +4069,16 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.8811654566685841</v>
+        <v>0.9132724689927642</v>
       </c>
       <c r="C214" t="n">
-        <v>0.8739772518811192</v>
+        <v>0.9071949922271404</v>
       </c>
       <c r="D214" t="n">
-        <v>0.827507421423607</v>
+        <v>0.9064448673129545</v>
       </c>
       <c r="E214" t="n">
-        <v>0.8236787005590869</v>
+        <v>0.9050192678620926</v>
       </c>
     </row>
     <row r="215">
@@ -4086,16 +4086,16 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.8815815337439624</v>
+        <v>0.9137585124654497</v>
       </c>
       <c r="C215" t="n">
-        <v>0.8742522056014904</v>
+        <v>0.9074431723716075</v>
       </c>
       <c r="D215" t="n">
-        <v>0.82807306950624</v>
+        <v>0.9064056104192474</v>
       </c>
       <c r="E215" t="n">
-        <v>0.8231045686601691</v>
+        <v>0.9042297800251817</v>
       </c>
     </row>
     <row r="216">
@@ -4103,16 +4103,16 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>0.8836787928278185</v>
+        <v>0.91280201647157</v>
       </c>
       <c r="C216" t="n">
-        <v>0.8762666468988515</v>
+        <v>0.9051422034423233</v>
       </c>
       <c r="D216" t="n">
-        <v>0.8272274493635611</v>
+        <v>0.9029850444188288</v>
       </c>
       <c r="E216" t="n">
-        <v>0.8233572945915719</v>
+        <v>0.9014509397125847</v>
       </c>
     </row>
     <row r="217">
@@ -4120,16 +4120,16 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.8850094517189533</v>
+        <v>0.9140252225024292</v>
       </c>
       <c r="C217" t="n">
-        <v>0.8774010789960627</v>
+        <v>0.9050480778552635</v>
       </c>
       <c r="D217" t="n">
-        <v>0.825695759838334</v>
+        <v>0.9065031097600776</v>
       </c>
       <c r="E217" t="n">
-        <v>0.8222013240199729</v>
+        <v>0.9056018345735263</v>
       </c>
     </row>
     <row r="218">
@@ -4137,16 +4137,16 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.88642703026963</v>
+        <v>0.9111214583750957</v>
       </c>
       <c r="C218" t="n">
-        <v>0.878668797878011</v>
+        <v>0.9025612944145627</v>
       </c>
       <c r="D218" t="n">
-        <v>0.8265178864013909</v>
+        <v>0.9049742774865097</v>
       </c>
       <c r="E218" t="n">
-        <v>0.8228356958182672</v>
+        <v>0.9040794953534208</v>
       </c>
     </row>
     <row r="219">
@@ -4154,16 +4154,16 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.8867677735050874</v>
+        <v>0.9121394791330439</v>
       </c>
       <c r="C219" t="n">
-        <v>0.8788615562757279</v>
+        <v>0.9043687958845612</v>
       </c>
       <c r="D219" t="n">
-        <v>0.8269099059400539</v>
+        <v>0.8962483291405317</v>
       </c>
       <c r="E219" t="n">
-        <v>0.8226050519622992</v>
+        <v>0.8957390266848168</v>
       </c>
     </row>
     <row r="220">
@@ -4171,16 +4171,16 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0.8875571323936152</v>
+        <v>0.9091607679865052</v>
       </c>
       <c r="C220" t="n">
-        <v>0.8796675999203116</v>
+        <v>0.9009249345592659</v>
       </c>
       <c r="D220" t="n">
-        <v>0.828071766428084</v>
+        <v>0.8895577829525086</v>
       </c>
       <c r="E220" t="n">
-        <v>0.823331269510407</v>
+        <v>0.888689839069736</v>
       </c>
     </row>
     <row r="221">
@@ -4188,16 +4188,16 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0.8875024801028902</v>
+        <v>0.9134721211379774</v>
       </c>
       <c r="C221" t="n">
-        <v>0.8797241830440383</v>
+        <v>0.9047934071944254</v>
       </c>
       <c r="D221" t="n">
-        <v>0.8275664780270304</v>
+        <v>0.8906515355517134</v>
       </c>
       <c r="E221" t="n">
-        <v>0.8233316536578852</v>
+        <v>0.8900372853306242</v>
       </c>
     </row>
     <row r="222">
@@ -4205,16 +4205,16 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.8878175782644417</v>
+        <v>0.9161291945116098</v>
       </c>
       <c r="C222" t="n">
-        <v>0.8800406059202982</v>
+        <v>0.9074656802191727</v>
       </c>
       <c r="D222" t="n">
-        <v>0.8273309331478347</v>
+        <v>0.8923486613847429</v>
       </c>
       <c r="E222" t="n">
-        <v>0.8230858129126459</v>
+        <v>0.8913944213691479</v>
       </c>
     </row>
     <row r="223">
@@ -4222,16 +4222,16 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.888086170093787</v>
+        <v>0.9209552641017427</v>
       </c>
       <c r="C223" t="n">
-        <v>0.8802044535207443</v>
+        <v>0.9117361818561989</v>
       </c>
       <c r="D223" t="n">
-        <v>0.8266921922829422</v>
+        <v>0.898678096860456</v>
       </c>
       <c r="E223" t="n">
-        <v>0.8225569309283814</v>
+        <v>0.8972438556670667</v>
       </c>
     </row>
     <row r="224">
@@ -4239,16 +4239,16 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0.8896477284551495</v>
+        <v>0.9222161884092035</v>
       </c>
       <c r="C224" t="n">
-        <v>0.8817332711746243</v>
+        <v>0.9129372433265501</v>
       </c>
       <c r="D224" t="n">
-        <v>0.8277977070520194</v>
+        <v>0.8997694705105889</v>
       </c>
       <c r="E224" t="n">
-        <v>0.8227072462886732</v>
+        <v>0.8958055809049095</v>
       </c>
     </row>
     <row r="225">
@@ -4256,16 +4256,16 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.8915470208624467</v>
+        <v>0.917663060812695</v>
       </c>
       <c r="C225" t="n">
-        <v>0.8835287528899924</v>
+        <v>0.9083053797864821</v>
       </c>
       <c r="D225" t="n">
-        <v>0.8280987524502319</v>
+        <v>0.8878786156544048</v>
       </c>
       <c r="E225" t="n">
-        <v>0.8232893688991564</v>
+        <v>0.8834526368984894</v>
       </c>
     </row>
     <row r="226">
@@ -4273,16 +4273,16 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>0.8941559130464916</v>
+        <v>0.9157063454443823</v>
       </c>
       <c r="C226" t="n">
-        <v>0.8860513947374806</v>
+        <v>0.9058985734392919</v>
       </c>
       <c r="D226" t="n">
-        <v>0.8296850467070145</v>
+        <v>0.8808344780611768</v>
       </c>
       <c r="E226" t="n">
-        <v>0.8248516460589174</v>
+        <v>0.8758739228739079</v>
       </c>
     </row>
     <row r="227">
@@ -4290,16 +4290,16 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.8957692817655397</v>
+        <v>0.91454628599639</v>
       </c>
       <c r="C227" t="n">
-        <v>0.8876621320140151</v>
+        <v>0.9050956075963801</v>
       </c>
       <c r="D227" t="n">
-        <v>0.8315579369585833</v>
+        <v>0.8792564770294939</v>
       </c>
       <c r="E227" t="n">
-        <v>0.826128358074697</v>
+        <v>0.8737725758482116</v>
       </c>
     </row>
     <row r="228">
@@ -4307,16 +4307,16 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.8975882376680515</v>
+        <v>0.9133905420863826</v>
       </c>
       <c r="C228" t="n">
-        <v>0.8894953893505673</v>
+        <v>0.9037885489297518</v>
       </c>
       <c r="D228" t="n">
-        <v>0.832569157043308</v>
+        <v>0.8840990374492876</v>
       </c>
       <c r="E228" t="n">
-        <v>0.8272002577456683</v>
+        <v>0.8774319372812779</v>
       </c>
     </row>
     <row r="229">
@@ -4324,16 +4324,16 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>0.8988778500659552</v>
+        <v>0.9122033887732623</v>
       </c>
       <c r="C229" t="n">
-        <v>0.8907421678266183</v>
+        <v>0.9017384384264808</v>
       </c>
       <c r="D229" t="n">
-        <v>0.8329371939622724</v>
+        <v>0.8870779438704013</v>
       </c>
       <c r="E229" t="n">
-        <v>0.8287020050630498</v>
+        <v>0.8772280841118452</v>
       </c>
     </row>
     <row r="230">
@@ -4341,16 +4341,16 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0.8999011596234293</v>
+        <v>0.9047299082263105</v>
       </c>
       <c r="C230" t="n">
-        <v>0.8916657572081401</v>
+        <v>0.8928960997633444</v>
       </c>
       <c r="D230" t="n">
-        <v>0.83520009651785</v>
+        <v>0.8733010828152434</v>
       </c>
       <c r="E230" t="n">
-        <v>0.8304840140262134</v>
+        <v>0.8639300702100605</v>
       </c>
     </row>
     <row r="231">
@@ -4358,16 +4358,16 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>0.9007945963570396</v>
+        <v>0.8957020108139482</v>
       </c>
       <c r="C231" t="n">
-        <v>0.8925686834310815</v>
+        <v>0.8839922848281119</v>
       </c>
       <c r="D231" t="n">
-        <v>0.8363265788484712</v>
+        <v>0.8507162043255315</v>
       </c>
       <c r="E231" t="n">
-        <v>0.8318131823390807</v>
+        <v>0.8411677215647233</v>
       </c>
     </row>
     <row r="232">
@@ -4375,16 +4375,16 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.9029142869822511</v>
+        <v>0.8926449083416652</v>
       </c>
       <c r="C232" t="n">
-        <v>0.8946560218566667</v>
+        <v>0.8825970656068756</v>
       </c>
       <c r="D232" t="n">
-        <v>0.839553702726074</v>
+        <v>0.8460791703015516</v>
       </c>
       <c r="E232" t="n">
-        <v>0.8342429096588609</v>
+        <v>0.8360025735445098</v>
       </c>
     </row>
     <row r="233">
@@ -4392,16 +4392,16 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.9047732268318349</v>
+        <v>0.8945013295085911</v>
       </c>
       <c r="C233" t="n">
-        <v>0.8964227634237382</v>
+        <v>0.8858341506934969</v>
       </c>
       <c r="D233" t="n">
-        <v>0.8398864442267179</v>
+        <v>0.8549211212940051</v>
       </c>
       <c r="E233" t="n">
-        <v>0.8357136429530556</v>
+        <v>0.8445219997913065</v>
       </c>
     </row>
     <row r="234">
@@ -4409,16 +4409,16 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0.9062005415391698</v>
+        <v>0.9026074694070823</v>
       </c>
       <c r="C234" t="n">
-        <v>0.8978492744538522</v>
+        <v>0.8945278138330028</v>
       </c>
       <c r="D234" t="n">
-        <v>0.8418478250528244</v>
+        <v>0.8726247504818192</v>
       </c>
       <c r="E234" t="n">
-        <v>0.8372790067686516</v>
+        <v>0.8629260073342542</v>
       </c>
     </row>
     <row r="235">
@@ -4426,16 +4426,16 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>0.9073967619904968</v>
+        <v>0.9015448600248234</v>
       </c>
       <c r="C235" t="n">
-        <v>0.899051567188526</v>
+        <v>0.8928610113703475</v>
       </c>
       <c r="D235" t="n">
-        <v>0.8430670577516639</v>
+        <v>0.8784373562598126</v>
       </c>
       <c r="E235" t="n">
-        <v>0.8388408519398887</v>
+        <v>0.8698136514777148</v>
       </c>
     </row>
     <row r="236">
@@ -4443,16 +4443,16 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>0.9079795187533874</v>
+        <v>0.8992215553638854</v>
       </c>
       <c r="C236" t="n">
-        <v>0.8996545308598531</v>
+        <v>0.8903842046186301</v>
       </c>
       <c r="D236" t="n">
-        <v>0.8438975373273809</v>
+        <v>0.8835944956329417</v>
       </c>
       <c r="E236" t="n">
-        <v>0.8394300341600855</v>
+        <v>0.8788297007745529</v>
       </c>
     </row>
     <row r="237">
@@ -4460,16 +4460,16 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>0.9088889602380705</v>
+        <v>0.8921172092099381</v>
       </c>
       <c r="C237" t="n">
-        <v>0.9005618924322769</v>
+        <v>0.8838652047486424</v>
       </c>
       <c r="D237" t="n">
-        <v>0.8459594866711608</v>
+        <v>0.8737766501084413</v>
       </c>
       <c r="E237" t="n">
-        <v>0.8407614222502027</v>
+        <v>0.8730973272262742</v>
       </c>
     </row>
     <row r="238">
@@ -4477,16 +4477,16 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>0.910195797440106</v>
+        <v>0.8874073928195865</v>
       </c>
       <c r="C238" t="n">
-        <v>0.9018913759680744</v>
+        <v>0.8794802852013233</v>
       </c>
       <c r="D238" t="n">
-        <v>0.8467753946496575</v>
+        <v>0.8712665623782586</v>
       </c>
       <c r="E238" t="n">
-        <v>0.8417447254070052</v>
+        <v>0.8711150578980138</v>
       </c>
     </row>
     <row r="239">
@@ -4494,16 +4494,16 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>0.9120576701636367</v>
+        <v>0.8864111064747074</v>
       </c>
       <c r="C239" t="n">
-        <v>0.9037414204301963</v>
+        <v>0.878318247675182</v>
       </c>
       <c r="D239" t="n">
-        <v>0.8474085216181575</v>
+        <v>0.8761489585370076</v>
       </c>
       <c r="E239" t="n">
-        <v>0.8424140365867052</v>
+        <v>0.8753152842347869</v>
       </c>
     </row>
     <row r="240">
@@ -4511,16 +4511,16 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>0.9143419503204624</v>
+        <v>0.8865496287627248</v>
       </c>
       <c r="C240" t="n">
-        <v>0.9060254151458351</v>
+        <v>0.8775011781310067</v>
       </c>
       <c r="D240" t="n">
-        <v>0.8471546479751815</v>
+        <v>0.8776408673937172</v>
       </c>
       <c r="E240" t="n">
-        <v>0.8432036585403201</v>
+        <v>0.8762899209832079</v>
       </c>
     </row>
     <row r="241">
@@ -4528,16 +4528,16 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>0.9160996669424799</v>
+        <v>0.8852370993938901</v>
       </c>
       <c r="C241" t="n">
-        <v>0.9077779332161847</v>
+        <v>0.8767578605726107</v>
       </c>
       <c r="D241" t="n">
-        <v>0.8491454981741979</v>
+        <v>0.8855773057113974</v>
       </c>
       <c r="E241" t="n">
-        <v>0.8440829709161319</v>
+        <v>0.8846007734555793</v>
       </c>
     </row>
     <row r="242">
@@ -4545,16 +4545,16 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>0.9173767326750428</v>
+        <v>0.8857448114086288</v>
       </c>
       <c r="C242" t="n">
-        <v>0.909069555829763</v>
+        <v>0.877577268082899</v>
       </c>
       <c r="D242" t="n">
-        <v>0.8491977510440066</v>
+        <v>0.8930914713134259</v>
       </c>
       <c r="E242" t="n">
-        <v>0.8443075375006265</v>
+        <v>0.8919863433395454</v>
       </c>
     </row>
     <row r="243">
@@ -4562,16 +4562,16 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>0.9180039951128437</v>
+        <v>0.8807405751957146</v>
       </c>
       <c r="C243" t="n">
-        <v>0.9097180787985415</v>
+        <v>0.8720158743785396</v>
       </c>
       <c r="D243" t="n">
-        <v>0.8503886489664272</v>
+        <v>0.891994612264378</v>
       </c>
       <c r="E243" t="n">
-        <v>0.8449743498706758</v>
+        <v>0.8909830962727006</v>
       </c>
     </row>
     <row r="244">
@@ -4579,16 +4579,16 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>0.9188639989627172</v>
+        <v>0.8738611849539949</v>
       </c>
       <c r="C244" t="n">
-        <v>0.9106191913865426</v>
+        <v>0.8644131946595761</v>
       </c>
       <c r="D244" t="n">
-        <v>0.8510493992236895</v>
+        <v>0.8892828224635747</v>
       </c>
       <c r="E244" t="n">
-        <v>0.8460167323129699</v>
+        <v>0.8884241028363504</v>
       </c>
     </row>
     <row r="245">
@@ -4596,16 +4596,16 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>0.9198203285805757</v>
+        <v>0.874373208114186</v>
       </c>
       <c r="C245" t="n">
-        <v>0.9117022301420248</v>
+        <v>0.8650416893176703</v>
       </c>
       <c r="D245" t="n">
-        <v>0.8521665164590078</v>
+        <v>0.8894322010574682</v>
       </c>
       <c r="E245" t="n">
-        <v>0.8470623168786495</v>
+        <v>0.8882161662563091</v>
       </c>
     </row>
     <row r="246">
@@ -4613,16 +4613,16 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0.9207511124565134</v>
+        <v>0.8720809525036148</v>
       </c>
       <c r="C246" t="n">
-        <v>0.9128168336821776</v>
+        <v>0.8624644003561808</v>
       </c>
       <c r="D246" t="n">
-        <v>0.8533082011441653</v>
+        <v>0.8814212662678274</v>
       </c>
       <c r="E246" t="n">
-        <v>0.8489496164709269</v>
+        <v>0.8794889493961352</v>
       </c>
     </row>
     <row r="247">
@@ -4630,16 +4630,16 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>0.9215796877125403</v>
+        <v>0.8771787658466463</v>
       </c>
       <c r="C247" t="n">
-        <v>0.9137582994110751</v>
+        <v>0.8674224219878597</v>
       </c>
       <c r="D247" t="n">
-        <v>0.8540819061405093</v>
+        <v>0.8758610145804507</v>
       </c>
       <c r="E247" t="n">
-        <v>0.8499970147041477</v>
+        <v>0.8714529032496636</v>
       </c>
     </row>
     <row r="248">
@@ -4647,16 +4647,16 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>0.9229399271405466</v>
+        <v>0.8824994514093092</v>
       </c>
       <c r="C248" t="n">
-        <v>0.9152061756575309</v>
+        <v>0.8726908296333532</v>
       </c>
       <c r="D248" t="n">
-        <v>0.8558111620313799</v>
+        <v>0.8712928116331415</v>
       </c>
       <c r="E248" t="n">
-        <v>0.8512382434957978</v>
+        <v>0.866226744531449</v>
       </c>
     </row>
     <row r="249">
@@ -4664,16 +4664,16 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>0.9250387495071231</v>
+        <v>0.8790741873300859</v>
       </c>
       <c r="C249" t="n">
-        <v>0.917495825250611</v>
+        <v>0.8698086606017122</v>
       </c>
       <c r="D249" t="n">
-        <v>0.8573359489285037</v>
+        <v>0.8598598485891693</v>
       </c>
       <c r="E249" t="n">
-        <v>0.8520547614563466</v>
+        <v>0.8546950808227726</v>
       </c>
     </row>
     <row r="250">
@@ -4681,16 +4681,16 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>0.9267891838321639</v>
+        <v>0.8737865864028966</v>
       </c>
       <c r="C250" t="n">
-        <v>0.9195364170586335</v>
+        <v>0.8646189812112075</v>
       </c>
       <c r="D250" t="n">
-        <v>0.8575612264159194</v>
+        <v>0.8494268867839609</v>
       </c>
       <c r="E250" t="n">
-        <v>0.8532944647030832</v>
+        <v>0.8445286028877705</v>
       </c>
     </row>
     <row r="251">
@@ -4698,16 +4698,16 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>0.9287771766093206</v>
+        <v>0.8745926406983479</v>
       </c>
       <c r="C251" t="n">
-        <v>0.9218475778049732</v>
+        <v>0.8657075475228582</v>
       </c>
       <c r="D251" t="n">
-        <v>0.8586890263458827</v>
+        <v>0.8466495075972127</v>
       </c>
       <c r="E251" t="n">
-        <v>0.8544826860347765</v>
+        <v>0.8427370253901427</v>
       </c>
     </row>
     <row r="252">
@@ -4715,16 +4715,16 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>0.9307376242502088</v>
+        <v>0.8790178605414533</v>
       </c>
       <c r="C252" t="n">
-        <v>0.9241624947467142</v>
+        <v>0.8712220388014211</v>
       </c>
       <c r="D252" t="n">
-        <v>0.8592520042445778</v>
+        <v>0.8520030377889725</v>
       </c>
       <c r="E252" t="n">
-        <v>0.8554433093488473</v>
+        <v>0.8512844306549294</v>
       </c>
     </row>
     <row r="253">
@@ -4732,16 +4732,16 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>0.9321401540528256</v>
+        <v>0.8814823703407428</v>
       </c>
       <c r="C253" t="n">
-        <v>0.9259460177357011</v>
+        <v>0.8742569806857925</v>
       </c>
       <c r="D253" t="n">
-        <v>0.860038729917734</v>
+        <v>0.862267764066428</v>
       </c>
       <c r="E253" t="n">
-        <v>0.8562875969531339</v>
+        <v>0.8641077792183542</v>
       </c>
     </row>
     <row r="254">
@@ -4749,16 +4749,16 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0.9328254812952296</v>
+        <v>0.8868747824845595</v>
       </c>
       <c r="C254" t="n">
-        <v>0.9271273304284913</v>
+        <v>0.8806894712381914</v>
       </c>
       <c r="D254" t="n">
-        <v>0.8624028499371824</v>
+        <v>0.868160991144851</v>
       </c>
       <c r="E254" t="n">
-        <v>0.8585078937453106</v>
+        <v>0.8714050552112662</v>
       </c>
     </row>
     <row r="255">
@@ -4766,16 +4766,16 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>0.9346977392591105</v>
+        <v>0.8872590803392107</v>
       </c>
       <c r="C255" t="n">
-        <v>0.9297624031183866</v>
+        <v>0.8814553755502637</v>
       </c>
       <c r="D255" t="n">
-        <v>0.8632346539718091</v>
+        <v>0.8775374577426828</v>
       </c>
       <c r="E255" t="n">
-        <v>0.8587289235545699</v>
+        <v>0.8815299129104556</v>
       </c>
     </row>
   </sheetData>

--- a/pearson.xlsx
+++ b/pearson.xlsx
@@ -471,10 +471,10 @@
         <v>0.8644955147840302</v>
       </c>
       <c r="D2" t="n">
-        <v>0.864480758781777</v>
+        <v>0.8662989067596205</v>
       </c>
       <c r="E2" t="n">
-        <v>0.864811322685918</v>
+        <v>0.854006407242849</v>
       </c>
     </row>
     <row r="3">
@@ -488,10 +488,10 @@
         <v>0.8668045598860106</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8594382452531389</v>
+        <v>0.8742031668762507</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8604596763994128</v>
+        <v>0.8614414046671504</v>
       </c>
     </row>
     <row r="4">
@@ -505,10 +505,10 @@
         <v>0.865329999458986</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8597065801950039</v>
+        <v>0.879204799299699</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8579115460387617</v>
+        <v>0.8645491137311284</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +522,10 @@
         <v>0.8646869710718474</v>
       </c>
       <c r="D5" t="n">
-        <v>0.864419192782975</v>
+        <v>0.8764950060087754</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8621560242397992</v>
+        <v>0.859675587842482</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         <v>0.8644786614327263</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8625020852523384</v>
+        <v>0.8788110954581128</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8618210089567671</v>
+        <v>0.8639865770415374</v>
       </c>
     </row>
     <row r="7">
@@ -556,10 +556,10 @@
         <v>0.8712425174070918</v>
       </c>
       <c r="D7" t="n">
-        <v>0.863673820011528</v>
+        <v>0.8832764976810307</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8629839798341865</v>
+        <v>0.8728458974396092</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>0.8724256058578737</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8629146029551826</v>
+        <v>0.8823992039684745</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8625301933433265</v>
+        <v>0.8754331914732313</v>
       </c>
     </row>
     <row r="9">
@@ -590,10 +590,10 @@
         <v>0.8710893997341895</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8610326858649926</v>
+        <v>0.8785118451000233</v>
       </c>
       <c r="E9" t="n">
-        <v>0.861296838210694</v>
+        <v>0.8725558353917322</v>
       </c>
     </row>
     <row r="10">
@@ -607,10 +607,10 @@
         <v>0.8709488165201522</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8591271452820712</v>
+        <v>0.8754895630275406</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8603396193414372</v>
+        <v>0.8707417446566392</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         <v>0.8672477815724539</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8568994363883802</v>
+        <v>0.8656031653103515</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8595107077380391</v>
+        <v>0.8611691458196093</v>
       </c>
     </row>
     <row r="12">
@@ -641,10 +641,10 @@
         <v>0.8727011209244664</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8650628096966052</v>
+        <v>0.8637855907119278</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8681574016823529</v>
+        <v>0.8577126504728712</v>
       </c>
     </row>
     <row r="13">
@@ -658,10 +658,10 @@
         <v>0.880736794623116</v>
       </c>
       <c r="D13" t="n">
-        <v>0.872579649664268</v>
+        <v>0.8529444357698502</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8759667533949925</v>
+        <v>0.8452389521427355</v>
       </c>
     </row>
     <row r="14">
@@ -675,10 +675,10 @@
         <v>0.8841632583544478</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8789098223006518</v>
+        <v>0.8504009022497058</v>
       </c>
       <c r="E14" t="n">
-        <v>0.882021501115497</v>
+        <v>0.8428888230790702</v>
       </c>
     </row>
     <row r="15">
@@ -692,10 +692,10 @@
         <v>0.8871499818643476</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8816820717793492</v>
+        <v>0.8603351567779782</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8847468075264513</v>
+        <v>0.8547894325101182</v>
       </c>
     </row>
     <row r="16">
@@ -709,10 +709,10 @@
         <v>0.8937241306607648</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8847336367088096</v>
+        <v>0.8683475596138196</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8887215108705128</v>
+        <v>0.8635442909812907</v>
       </c>
     </row>
     <row r="17">
@@ -726,10 +726,10 @@
         <v>0.8972480268585586</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8876590914868685</v>
+        <v>0.8708513082694196</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8919434214110114</v>
+        <v>0.8662502146510513</v>
       </c>
     </row>
     <row r="18">
@@ -743,10 +743,10 @@
         <v>0.8999784448085179</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8872760438855997</v>
+        <v>0.8766280805590292</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8920347462776499</v>
+        <v>0.872551199377108</v>
       </c>
     </row>
     <row r="19">
@@ -760,10 +760,10 @@
         <v>0.900985609000085</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8858999293870237</v>
+        <v>0.8817349935323422</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8913828641852304</v>
+        <v>0.8766887861660431</v>
       </c>
     </row>
     <row r="20">
@@ -777,10 +777,10 @@
         <v>0.9009539264291773</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8839738425641829</v>
+        <v>0.8824946830215538</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8900811887541604</v>
+        <v>0.8759727347695558</v>
       </c>
     </row>
     <row r="21">
@@ -794,10 +794,10 @@
         <v>0.8943047703311046</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8814092343531474</v>
+        <v>0.8784653712621837</v>
       </c>
       <c r="E21" t="n">
-        <v>0.886832931587856</v>
+        <v>0.8707292247666536</v>
       </c>
     </row>
     <row r="22">
@@ -811,10 +811,10 @@
         <v>0.8880795775101353</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8791495855640278</v>
+        <v>0.8698958283453102</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8841545876656987</v>
+        <v>0.8600645746979232</v>
       </c>
     </row>
     <row r="23">
@@ -828,10 +828,10 @@
         <v>0.886707366385422</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8785339323874171</v>
+        <v>0.8547584789185334</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8828170288045909</v>
+        <v>0.8425046693685918</v>
       </c>
     </row>
     <row r="24">
@@ -845,10 +845,10 @@
         <v>0.8841593732641956</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8780669298836397</v>
+        <v>0.8364399042435064</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8819108679701275</v>
+        <v>0.823208182785899</v>
       </c>
     </row>
     <row r="25">
@@ -862,10 +862,10 @@
         <v>0.8822837778553698</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8781725322407896</v>
+        <v>0.8383760419366122</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8818619473060453</v>
+        <v>0.8250519390036224</v>
       </c>
     </row>
     <row r="26">
@@ -879,10 +879,10 @@
         <v>0.8824218584288516</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8807562480690782</v>
+        <v>0.8500910287821325</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8842349619161689</v>
+        <v>0.836678834409043</v>
       </c>
     </row>
     <row r="27">
@@ -896,10 +896,10 @@
         <v>0.8851402548842742</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8853804117703371</v>
+        <v>0.859658287026992</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8880032406394323</v>
+        <v>0.8440270407109397</v>
       </c>
     </row>
     <row r="28">
@@ -913,10 +913,10 @@
         <v>0.8810941325559025</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8821142627866452</v>
+        <v>0.8583595249187916</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8843991126088883</v>
+        <v>0.8407730930579476</v>
       </c>
     </row>
     <row r="29">
@@ -930,10 +930,10 @@
         <v>0.8940189720498579</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8908812227561507</v>
+        <v>0.8717576595642668</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8930817574796833</v>
+        <v>0.8547158342405207</v>
       </c>
     </row>
     <row r="30">
@@ -947,10 +947,10 @@
         <v>0.9065640378501701</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9020484422586202</v>
+        <v>0.874346808031909</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9039053727209854</v>
+        <v>0.8567668025985612</v>
       </c>
     </row>
     <row r="31">
@@ -964,10 +964,10 @@
         <v>0.916569380858301</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9130716987481071</v>
+        <v>0.8781368053794429</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9151485816620034</v>
+        <v>0.8606533321922136</v>
       </c>
     </row>
     <row r="32">
@@ -981,10 +981,10 @@
         <v>0.9237386019509467</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9176985415146123</v>
+        <v>0.8840902804705034</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9194723167251135</v>
+        <v>0.8681656097383708</v>
       </c>
     </row>
     <row r="33">
@@ -998,10 +998,10 @@
         <v>0.9220816859562453</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9149457910110842</v>
+        <v>0.8813614382949105</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9163609472213025</v>
+        <v>0.8667263991977466</v>
       </c>
     </row>
     <row r="34">
@@ -1015,10 +1015,10 @@
         <v>0.9149287813478313</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9107536967021654</v>
+        <v>0.8750552027627657</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9111325117155267</v>
+        <v>0.8593729685143419</v>
       </c>
     </row>
     <row r="35">
@@ -1032,10 +1032,10 @@
         <v>0.9148454054020605</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9108223462433567</v>
+        <v>0.8798599953341701</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9110128565797719</v>
+        <v>0.862927823453117</v>
       </c>
     </row>
     <row r="36">
@@ -1049,10 +1049,10 @@
         <v>0.9138198888638766</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9075040978949747</v>
+        <v>0.8797852624916142</v>
       </c>
       <c r="E36" t="n">
-        <v>0.908006775310907</v>
+        <v>0.8624469977397892</v>
       </c>
     </row>
     <row r="37">
@@ -1066,10 +1066,10 @@
         <v>0.9158541868383309</v>
       </c>
       <c r="D37" t="n">
-        <v>0.906273313577922</v>
+        <v>0.8833142982027822</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9072176583692421</v>
+        <v>0.8671314198994929</v>
       </c>
     </row>
     <row r="38">
@@ -1083,10 +1083,10 @@
         <v>0.9166951994894259</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9071676416119032</v>
+        <v>0.8825037015506266</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9082871672028822</v>
+        <v>0.8642339174369856</v>
       </c>
     </row>
     <row r="39">
@@ -1100,10 +1100,10 @@
         <v>0.9172062314649359</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9068345042539115</v>
+        <v>0.8844223266915301</v>
       </c>
       <c r="E39" t="n">
-        <v>0.907767585066899</v>
+        <v>0.8646430043460038</v>
       </c>
     </row>
     <row r="40">
@@ -1117,10 +1117,10 @@
         <v>0.9147586198801867</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9042502720699763</v>
+        <v>0.8808057653163965</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9047081174216289</v>
+        <v>0.8592659476148449</v>
       </c>
     </row>
     <row r="41">
@@ -1134,10 +1134,10 @@
         <v>0.9146138650964909</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9036909157485841</v>
+        <v>0.8785406910287888</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9041183778620792</v>
+        <v>0.8576510097135598</v>
       </c>
     </row>
     <row r="42">
@@ -1151,10 +1151,10 @@
         <v>0.9146205871319146</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9036825486171068</v>
+        <v>0.8797417512302599</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9040806599032103</v>
+        <v>0.8590901011556792</v>
       </c>
     </row>
     <row r="43">
@@ -1168,10 +1168,10 @@
         <v>0.9159603382221619</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9043608237711627</v>
+        <v>0.8837898368296875</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9045275295618548</v>
+        <v>0.8635688137891102</v>
       </c>
     </row>
     <row r="44">
@@ -1185,10 +1185,10 @@
         <v>0.9108513225687828</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8995900737550271</v>
+        <v>0.8858158344717471</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8996242801758065</v>
+        <v>0.8681429089260051</v>
       </c>
     </row>
     <row r="45">
@@ -1202,10 +1202,10 @@
         <v>0.9107578279201244</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8982120684398369</v>
+        <v>0.8880375292631358</v>
       </c>
       <c r="E45" t="n">
-        <v>0.898121054519859</v>
+        <v>0.8735345813990196</v>
       </c>
     </row>
     <row r="46">
@@ -1219,10 +1219,10 @@
         <v>0.9069613626906735</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8968709053014865</v>
+        <v>0.8827477125612724</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8967593294289166</v>
+        <v>0.8695563618030022</v>
       </c>
     </row>
     <row r="47">
@@ -1236,10 +1236,10 @@
         <v>0.9013559519991292</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8934252479148109</v>
+        <v>0.8690009843139885</v>
       </c>
       <c r="E47" t="n">
-        <v>0.893289490550546</v>
+        <v>0.8552707795387838</v>
       </c>
     </row>
     <row r="48">
@@ -1253,10 +1253,10 @@
         <v>0.8975549582782731</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8873139457052847</v>
+        <v>0.854609935982969</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8872446746757081</v>
+        <v>0.8418828022993181</v>
       </c>
     </row>
     <row r="49">
@@ -1270,10 +1270,10 @@
         <v>0.8960986603848818</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8855222897494514</v>
+        <v>0.8426251176514929</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8854964122665101</v>
+        <v>0.8314307291627148</v>
       </c>
     </row>
     <row r="50">
@@ -1287,10 +1287,10 @@
         <v>0.8944173253810672</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8854851984843657</v>
+        <v>0.8348089639049555</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8857041180913013</v>
+        <v>0.8239542755555407</v>
       </c>
     </row>
     <row r="51">
@@ -1304,10 +1304,10 @@
         <v>0.893233611311307</v>
       </c>
       <c r="D51" t="n">
-        <v>0.887059956527343</v>
+        <v>0.8223749022429341</v>
       </c>
       <c r="E51" t="n">
-        <v>0.887513020764834</v>
+        <v>0.8104167097142356</v>
       </c>
     </row>
     <row r="52">
@@ -1321,10 +1321,10 @@
         <v>0.8964370302838357</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8917265653974229</v>
+        <v>0.8256218802954238</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8921642845023596</v>
+        <v>0.8139023846356533</v>
       </c>
     </row>
     <row r="53">
@@ -1338,10 +1338,10 @@
         <v>0.8964183579110754</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8946664980093977</v>
+        <v>0.8391980133723004</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8950782848035079</v>
+        <v>0.8277462323808106</v>
       </c>
     </row>
     <row r="54">
@@ -1355,10 +1355,10 @@
         <v>0.8953146621484058</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8947644426130648</v>
+        <v>0.8527498106628609</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8947987509592326</v>
+        <v>0.8418772879422345</v>
       </c>
     </row>
     <row r="55">
@@ -1372,10 +1372,10 @@
         <v>0.8972853651350902</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8972632265599089</v>
+        <v>0.8671490120601003</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8964144395373053</v>
+        <v>0.8558316423607022</v>
       </c>
     </row>
     <row r="56">
@@ -1389,10 +1389,10 @@
         <v>0.9008395858627881</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8997282997078604</v>
+        <v>0.8749478544611081</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8987621480309169</v>
+        <v>0.8639657869343305</v>
       </c>
     </row>
     <row r="57">
@@ -1406,10 +1406,10 @@
         <v>0.9010044146961103</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8975936294305882</v>
+        <v>0.8747525237524486</v>
       </c>
       <c r="E57" t="n">
-        <v>0.896769335060127</v>
+        <v>0.8641281501738908</v>
       </c>
     </row>
     <row r="58">
@@ -1423,10 +1423,10 @@
         <v>0.9035245869954007</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8962868456567732</v>
+        <v>0.8754220358298876</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8962128587413001</v>
+        <v>0.8660629966840871</v>
       </c>
     </row>
     <row r="59">
@@ -1440,10 +1440,10 @@
         <v>0.9013803122131817</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8931024493446631</v>
+        <v>0.875319187502847</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8932313922902875</v>
+        <v>0.8667854141768283</v>
       </c>
     </row>
     <row r="60">
@@ -1457,10 +1457,10 @@
         <v>0.8974660457007193</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8893131474042044</v>
+        <v>0.8743234565464386</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8893677232349114</v>
+        <v>0.8661070917598701</v>
       </c>
     </row>
     <row r="61">
@@ -1474,10 +1474,10 @@
         <v>0.8993800407756429</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8926690186651933</v>
+        <v>0.8757876814925671</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8924475770429391</v>
+        <v>0.8677625022650167</v>
       </c>
     </row>
     <row r="62">
@@ -1491,10 +1491,10 @@
         <v>0.8970363295503836</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8887871900058897</v>
+        <v>0.8716124286329443</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8886018123767794</v>
+        <v>0.8633890902522829</v>
       </c>
     </row>
     <row r="63">
@@ -1508,10 +1508,10 @@
         <v>0.8961277821697213</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8914639784504668</v>
+        <v>0.8709444207957757</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8914054986369943</v>
+        <v>0.8596437481678301</v>
       </c>
     </row>
     <row r="64">
@@ -1525,10 +1525,10 @@
         <v>0.8957897678293636</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8916428046431548</v>
+        <v>0.8623635482953249</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8915872116332223</v>
+        <v>0.8463160708405376</v>
       </c>
     </row>
     <row r="65">
@@ -1542,10 +1542,10 @@
         <v>0.8991263699826546</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8948737629034723</v>
+        <v>0.856964800980671</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8949786398644382</v>
+        <v>0.8401651380544737</v>
       </c>
     </row>
     <row r="66">
@@ -1559,10 +1559,10 @@
         <v>0.8999274701101329</v>
       </c>
       <c r="D66" t="n">
-        <v>0.894654856480557</v>
+        <v>0.8548600431847174</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8946136002145596</v>
+        <v>0.8411420720102474</v>
       </c>
     </row>
     <row r="67">
@@ -1576,10 +1576,10 @@
         <v>0.902894048104512</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8943850066048473</v>
+        <v>0.8525399578971288</v>
       </c>
       <c r="E67" t="n">
-        <v>0.8942529399754341</v>
+        <v>0.8387358354607624</v>
       </c>
     </row>
     <row r="68">
@@ -1593,10 +1593,10 @@
         <v>0.8993519068900838</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8953436531955753</v>
+        <v>0.8496494206843629</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8957643372785347</v>
+        <v>0.8320667587484686</v>
       </c>
     </row>
     <row r="69">
@@ -1610,10 +1610,10 @@
         <v>0.9051240310345918</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8990392260658964</v>
+        <v>0.8365167128255975</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8996091923414283</v>
+        <v>0.8147469357326995</v>
       </c>
     </row>
     <row r="70">
@@ -1627,10 +1627,10 @@
         <v>0.893923573594134</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8901929559681743</v>
+        <v>0.8341216834195867</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8912930876299867</v>
+        <v>0.8113630203638578</v>
       </c>
     </row>
     <row r="71">
@@ -1644,10 +1644,10 @@
         <v>0.8887783982499157</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8835951395487573</v>
+        <v>0.8314971389062111</v>
       </c>
       <c r="E71" t="n">
-        <v>0.884531340387374</v>
+        <v>0.8086897456286288</v>
       </c>
     </row>
     <row r="72">
@@ -1661,10 +1661,10 @@
         <v>0.8872059497117633</v>
       </c>
       <c r="D72" t="n">
-        <v>0.871273923030742</v>
+        <v>0.8379109955675079</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8728929301251104</v>
+        <v>0.818453859292964</v>
       </c>
     </row>
     <row r="73">
@@ -1678,10 +1678,10 @@
         <v>0.9007348831931583</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8890966977063848</v>
+        <v>0.8444246272297242</v>
       </c>
       <c r="E73" t="n">
-        <v>0.8902281021092285</v>
+        <v>0.8260663731642948</v>
       </c>
     </row>
     <row r="74">
@@ -1695,10 +1695,10 @@
         <v>0.8938181182949578</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8814480790906225</v>
+        <v>0.8433913724240416</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8820510491527195</v>
+        <v>0.8253584126736391</v>
       </c>
     </row>
     <row r="75">
@@ -1712,10 +1712,10 @@
         <v>0.8848225638985536</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8735747071993174</v>
+        <v>0.83624650214536</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8740359269760751</v>
+        <v>0.8206456123274488</v>
       </c>
     </row>
     <row r="76">
@@ -1729,10 +1729,10 @@
         <v>0.8868113180714491</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8789080431150522</v>
+        <v>0.8373680986907274</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8796645835681027</v>
+        <v>0.8213072248719702</v>
       </c>
     </row>
     <row r="77">
@@ -1746,10 +1746,10 @@
         <v>0.8926757239230813</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8859892450713169</v>
+        <v>0.8511501554906121</v>
       </c>
       <c r="E77" t="n">
-        <v>0.8870002390687802</v>
+        <v>0.8338363259796655</v>
       </c>
     </row>
     <row r="78">
@@ -1763,10 +1763,10 @@
         <v>0.8923260863406874</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8847220475188224</v>
+        <v>0.8539569297047641</v>
       </c>
       <c r="E78" t="n">
-        <v>0.8857329502257709</v>
+        <v>0.8398378379036927</v>
       </c>
     </row>
     <row r="79">
@@ -1780,10 +1780,10 @@
         <v>0.8943096026504482</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8896671870283813</v>
+        <v>0.8629402498243542</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8906711388035703</v>
+        <v>0.8451211944798825</v>
       </c>
     </row>
     <row r="80">
@@ -1797,10 +1797,10 @@
         <v>0.8984874787821122</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8909499363757778</v>
+        <v>0.8607771805748932</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8921108593574377</v>
+        <v>0.8443266385671201</v>
       </c>
     </row>
     <row r="81">
@@ -1814,10 +1814,10 @@
         <v>0.9032537595060627</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8935931473083245</v>
+        <v>0.8639689659074562</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8947160924720123</v>
+        <v>0.8509790431409016</v>
       </c>
     </row>
     <row r="82">
@@ -1831,10 +1831,10 @@
         <v>0.9089367283391562</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8969563877337038</v>
+        <v>0.8684985986659421</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8979325205743619</v>
+        <v>0.8585443000085353</v>
       </c>
     </row>
     <row r="83">
@@ -1848,10 +1848,10 @@
         <v>0.9089571110814397</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8988441333460175</v>
+        <v>0.8631381020231246</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8996344643503376</v>
+        <v>0.8528115895955808</v>
       </c>
     </row>
     <row r="84">
@@ -1865,10 +1865,10 @@
         <v>0.9086044475575035</v>
       </c>
       <c r="D84" t="n">
-        <v>0.902434061939787</v>
+        <v>0.8584034672548002</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9027605406782783</v>
+        <v>0.847713994385151</v>
       </c>
     </row>
     <row r="85">
@@ -1882,10 +1882,10 @@
         <v>0.9074879728819207</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9019036404470224</v>
+        <v>0.8412913741206101</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9014237384508239</v>
+        <v>0.8290810040666519</v>
       </c>
     </row>
     <row r="86">
@@ -1899,10 +1899,10 @@
         <v>0.9063602689705775</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9046823054234866</v>
+        <v>0.8308636600468152</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9036560329681012</v>
+        <v>0.8157734616977356</v>
       </c>
     </row>
     <row r="87">
@@ -1916,10 +1916,10 @@
         <v>0.9073378577337727</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9053978088207766</v>
+        <v>0.8231784478561457</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9032969135472151</v>
+        <v>0.8041180543392958</v>
       </c>
     </row>
     <row r="88">
@@ -1933,10 +1933,10 @@
         <v>0.9014181519851183</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9014704657806301</v>
+        <v>0.8307964421908032</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8984485056710215</v>
+        <v>0.8116487317441168</v>
       </c>
     </row>
     <row r="89">
@@ -1950,10 +1950,10 @@
         <v>0.8957414583561421</v>
       </c>
       <c r="D89" t="n">
-        <v>0.893387436351764</v>
+        <v>0.8340731076032398</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8896097505815099</v>
+        <v>0.8158870180575906</v>
       </c>
     </row>
     <row r="90">
@@ -1967,10 +1967,10 @@
         <v>0.8976935852399919</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8963042820538222</v>
+        <v>0.8348308638974566</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8920337124572348</v>
+        <v>0.8159193775652585</v>
       </c>
     </row>
     <row r="91">
@@ -1984,10 +1984,10 @@
         <v>0.9001853542102523</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9019021217596453</v>
+        <v>0.8346443059204883</v>
       </c>
       <c r="E91" t="n">
-        <v>0.897547096657169</v>
+        <v>0.8154069590429445</v>
       </c>
     </row>
     <row r="92">
@@ -2001,10 +2001,10 @@
         <v>0.9003919195513341</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8983317209225873</v>
+        <v>0.8270745183755248</v>
       </c>
       <c r="E92" t="n">
-        <v>0.89412137443777</v>
+        <v>0.807822708706853</v>
       </c>
     </row>
     <row r="93">
@@ -2018,10 +2018,10 @@
         <v>0.9058430488034255</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9055870226823469</v>
+        <v>0.8513827122309042</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9019891538987249</v>
+        <v>0.8358953809158183</v>
       </c>
     </row>
     <row r="94">
@@ -2035,10 +2035,10 @@
         <v>0.91385484327463</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9168408503984951</v>
+        <v>0.8742563400833752</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9131033819894701</v>
+        <v>0.8618440547302528</v>
       </c>
     </row>
     <row r="95">
@@ -2052,10 +2052,10 @@
         <v>0.9117152795415201</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9180933480714656</v>
+        <v>0.8760745938026078</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9141559787929082</v>
+        <v>0.8664184038808955</v>
       </c>
     </row>
     <row r="96">
@@ -2069,10 +2069,10 @@
         <v>0.91415918187511</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9203366638746198</v>
+        <v>0.8721809837222915</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9159648834501397</v>
+        <v>0.8615022463795399</v>
       </c>
     </row>
     <row r="97">
@@ -2086,10 +2086,10 @@
         <v>0.9205605306597214</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9242960144245791</v>
+        <v>0.8817286967877613</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9206057970528764</v>
+        <v>0.870906305890089</v>
       </c>
     </row>
     <row r="98">
@@ -2103,10 +2103,10 @@
         <v>0.921918219301737</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9255645632340637</v>
+        <v>0.8796512366453835</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9215072564005309</v>
+        <v>0.869267748553892</v>
       </c>
     </row>
     <row r="99">
@@ -2120,10 +2120,10 @@
         <v>0.9229778944727381</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9248936623967737</v>
+        <v>0.8689262429661785</v>
       </c>
       <c r="E99" t="n">
-        <v>0.921529567548639</v>
+        <v>0.8578789772930969</v>
       </c>
     </row>
     <row r="100">
@@ -2137,10 +2137,10 @@
         <v>0.9190298530165337</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9238431484940357</v>
+        <v>0.853324789299247</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9212396310463671</v>
+        <v>0.8401741371964525</v>
       </c>
     </row>
     <row r="101">
@@ -2154,10 +2154,10 @@
         <v>0.9191163024216843</v>
       </c>
       <c r="D101" t="n">
-        <v>0.917837875745994</v>
+        <v>0.7975637048889144</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9159550915821468</v>
+        <v>0.7818603561881559</v>
       </c>
     </row>
     <row r="102">
@@ -2171,10 +2171,10 @@
         <v>0.9064194090253261</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9059738852991637</v>
+        <v>0.7737902151801173</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9043447887851843</v>
+        <v>0.7545564108143267</v>
       </c>
     </row>
     <row r="103">
@@ -2188,10 +2188,10 @@
         <v>0.8936685653818011</v>
       </c>
       <c r="D103" t="n">
-        <v>0.901958611477393</v>
+        <v>0.7602886035280886</v>
       </c>
       <c r="E103" t="n">
-        <v>0.8985635108816101</v>
+        <v>0.7261420651386524</v>
       </c>
     </row>
     <row r="104">
@@ -2205,10 +2205,10 @@
         <v>0.8883815636199841</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9000553543271055</v>
+        <v>0.8169203489166319</v>
       </c>
       <c r="E104" t="n">
-        <v>0.8966194600789206</v>
+        <v>0.7843860559536574</v>
       </c>
     </row>
     <row r="105">
@@ -2222,10 +2222,10 @@
         <v>0.901504129070489</v>
       </c>
       <c r="D105" t="n">
-        <v>0.889975128406535</v>
+        <v>0.8004735235783156</v>
       </c>
       <c r="E105" t="n">
-        <v>0.8860353655020516</v>
+        <v>0.7788517959562347</v>
       </c>
     </row>
     <row r="106">
@@ -2239,10 +2239,10 @@
         <v>0.9096552535567624</v>
       </c>
       <c r="D106" t="n">
-        <v>0.8843863073114564</v>
+        <v>0.7950275063232067</v>
       </c>
       <c r="E106" t="n">
-        <v>0.8800667042672984</v>
+        <v>0.7743288042817116</v>
       </c>
     </row>
     <row r="107">
@@ -2256,10 +2256,10 @@
         <v>0.9085661724656183</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8858170558132457</v>
+        <v>0.8066236206532336</v>
       </c>
       <c r="E107" t="n">
-        <v>0.8815007236787509</v>
+        <v>0.7828053219996985</v>
       </c>
     </row>
     <row r="108">
@@ -2273,10 +2273,10 @@
         <v>0.9149880063621193</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9037068520239563</v>
+        <v>0.8108191205733111</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9012533774724332</v>
+        <v>0.7850425268086085</v>
       </c>
     </row>
     <row r="109">
@@ -2290,10 +2290,10 @@
         <v>0.9231332722217273</v>
       </c>
       <c r="D109" t="n">
-        <v>0.915763932313346</v>
+        <v>0.8218314051873883</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9142991462907089</v>
+        <v>0.7944829761571253</v>
       </c>
     </row>
     <row r="110">
@@ -2307,10 +2307,10 @@
         <v>0.9225391023020288</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9219260799749948</v>
+        <v>0.8362697489772927</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9204316963262097</v>
+        <v>0.8085403110561108</v>
       </c>
     </row>
     <row r="111">
@@ -2324,10 +2324,10 @@
         <v>0.9177347473689336</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9229209562940551</v>
+        <v>0.8427538514102069</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9210354245832477</v>
+        <v>0.8166731039283491</v>
       </c>
     </row>
     <row r="112">
@@ -2341,10 +2341,10 @@
         <v>0.9173020073154768</v>
       </c>
       <c r="D112" t="n">
-        <v>0.924651935982583</v>
+        <v>0.8359858149376644</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9229288453525468</v>
+        <v>0.8104271766503219</v>
       </c>
     </row>
     <row r="113">
@@ -2358,10 +2358,10 @@
         <v>0.9193986236914462</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9283494402347785</v>
+        <v>0.8285295779420386</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9267673017330098</v>
+        <v>0.803969445032925</v>
       </c>
     </row>
     <row r="114">
@@ -2375,10 +2375,10 @@
         <v>0.923485185956081</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9294980111391606</v>
+        <v>0.8233693492294449</v>
       </c>
       <c r="E114" t="n">
-        <v>0.928150518365978</v>
+        <v>0.7979258436658672</v>
       </c>
     </row>
     <row r="115">
@@ -2392,10 +2392,10 @@
         <v>0.9250855862861237</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9290785838565958</v>
+        <v>0.819143186532641</v>
       </c>
       <c r="E115" t="n">
-        <v>0.927869366905741</v>
+        <v>0.7903595008903207</v>
       </c>
     </row>
     <row r="116">
@@ -2409,10 +2409,10 @@
         <v>0.9256554438075391</v>
       </c>
       <c r="D116" t="n">
-        <v>0.928695942644303</v>
+        <v>0.8253583918979797</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9280469107558629</v>
+        <v>0.7940991491254903</v>
       </c>
     </row>
     <row r="117">
@@ -2426,10 +2426,10 @@
         <v>0.9252327673838345</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9272648599269293</v>
+        <v>0.8319879252453746</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9270031190125989</v>
+        <v>0.7997001163265153</v>
       </c>
     </row>
     <row r="118">
@@ -2443,10 +2443,10 @@
         <v>0.9225876089250703</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9236306448795805</v>
+        <v>0.8320738836244053</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9235922805416081</v>
+        <v>0.798136687549274</v>
       </c>
     </row>
     <row r="119">
@@ -2460,10 +2460,10 @@
         <v>0.9201245949341612</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9175825000756381</v>
+        <v>0.8321380101402653</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9175412978688369</v>
+        <v>0.7971040481922329</v>
       </c>
     </row>
     <row r="120">
@@ -2477,10 +2477,10 @@
         <v>0.9210334710869283</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9148554887826895</v>
+        <v>0.8404984965392832</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9144803611122663</v>
+        <v>0.8055427144195479</v>
       </c>
     </row>
     <row r="121">
@@ -2494,10 +2494,10 @@
         <v>0.9226210275876526</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9141179335567684</v>
+        <v>0.8434786294860334</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9136695265868039</v>
+        <v>0.8086135924875032</v>
       </c>
     </row>
     <row r="122">
@@ -2511,10 +2511,10 @@
         <v>0.9236842675466129</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9152549166758053</v>
+        <v>0.847482354373213</v>
       </c>
       <c r="E122" t="n">
-        <v>0.91486701133194</v>
+        <v>0.8137027158299917</v>
       </c>
     </row>
     <row r="123">
@@ -2528,10 +2528,10 @@
         <v>0.9250073326923023</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9161183240239492</v>
+        <v>0.8565851853840039</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9154203515351166</v>
+        <v>0.8256739916550333</v>
       </c>
     </row>
     <row r="124">
@@ -2545,10 +2545,10 @@
         <v>0.9214085034441669</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9127692261187832</v>
+        <v>0.8607148229407942</v>
       </c>
       <c r="E124" t="n">
-        <v>0.912187592188497</v>
+        <v>0.8327075303569307</v>
       </c>
     </row>
     <row r="125">
@@ -2562,10 +2562,10 @@
         <v>0.9174126744662428</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9097665795379204</v>
+        <v>0.8591766458210021</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9088458868129753</v>
+        <v>0.8322815988922467</v>
       </c>
     </row>
     <row r="126">
@@ -2579,10 +2579,10 @@
         <v>0.9171097395155661</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9114579964437803</v>
+        <v>0.858948988156869</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9100381401248845</v>
+        <v>0.8330599819439054</v>
       </c>
     </row>
     <row r="127">
@@ -2596,10 +2596,10 @@
         <v>0.915435839535679</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9119449992266546</v>
+        <v>0.8564217585330965</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9099541253216615</v>
+        <v>0.8298468565644905</v>
       </c>
     </row>
     <row r="128">
@@ -2613,10 +2613,10 @@
         <v>0.9132874938080524</v>
       </c>
       <c r="D128" t="n">
-        <v>0.909081387160891</v>
+        <v>0.8483913043773272</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9067810841285879</v>
+        <v>0.8212718567870483</v>
       </c>
     </row>
     <row r="129">
@@ -2630,10 +2630,10 @@
         <v>0.9133609625303134</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9088679848750159</v>
+        <v>0.8416750057825386</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9065282125416758</v>
+        <v>0.8127156170655263</v>
       </c>
     </row>
     <row r="130">
@@ -2647,10 +2647,10 @@
         <v>0.912436357695525</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9086564625406449</v>
+        <v>0.8377525989300152</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9059987597763951</v>
+        <v>0.8062793971873834</v>
       </c>
     </row>
     <row r="131">
@@ -2664,10 +2664,10 @@
         <v>0.9110124691345926</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9088681599836387</v>
+        <v>0.8383071057441074</v>
       </c>
       <c r="E131" t="n">
-        <v>0.9058939871575724</v>
+        <v>0.8081655699680369</v>
       </c>
     </row>
     <row r="132">
@@ -2681,10 +2681,10 @@
         <v>0.9078145389989946</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9067934932434809</v>
+        <v>0.835797196705955</v>
       </c>
       <c r="E132" t="n">
-        <v>0.90396401092746</v>
+        <v>0.8074661951784106</v>
       </c>
     </row>
     <row r="133">
@@ -2698,10 +2698,10 @@
         <v>0.9044426277599305</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9031529178089585</v>
+        <v>0.831464602035207</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9001131845749119</v>
+        <v>0.8027318530812682</v>
       </c>
     </row>
     <row r="134">
@@ -2715,10 +2715,10 @@
         <v>0.9044663239788763</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9030264124847921</v>
+        <v>0.8324430315306692</v>
       </c>
       <c r="E134" t="n">
-        <v>0.8999295459704201</v>
+        <v>0.8045185521008298</v>
       </c>
     </row>
     <row r="135">
@@ -2732,10 +2732,10 @@
         <v>0.9053605473950581</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9031423296025491</v>
+        <v>0.8370496090460656</v>
       </c>
       <c r="E135" t="n">
-        <v>0.8997505282848051</v>
+        <v>0.8101525127386064</v>
       </c>
     </row>
     <row r="136">
@@ -2749,10 +2749,10 @@
         <v>0.909509095026771</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9077549246487703</v>
+        <v>0.8571829942304894</v>
       </c>
       <c r="E136" t="n">
-        <v>0.9045786432417178</v>
+        <v>0.834036517266753</v>
       </c>
     </row>
     <row r="137">
@@ -2766,10 +2766,10 @@
         <v>0.911911958718404</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9075580873918729</v>
+        <v>0.8663469304214686</v>
       </c>
       <c r="E137" t="n">
-        <v>0.9047319167437433</v>
+        <v>0.8454593011788941</v>
       </c>
     </row>
     <row r="138">
@@ -2783,10 +2783,10 @@
         <v>0.9096405214138937</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9076293023429993</v>
+        <v>0.8729461936969437</v>
       </c>
       <c r="E138" t="n">
-        <v>0.9049906837007116</v>
+        <v>0.8541452381734337</v>
       </c>
     </row>
     <row r="139">
@@ -2800,10 +2800,10 @@
         <v>0.9140563158820627</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9109960117261484</v>
+        <v>0.881778159188087</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9092238129269441</v>
+        <v>0.8648781228408813</v>
       </c>
     </row>
     <row r="140">
@@ -2817,10 +2817,10 @@
         <v>0.9149539879730695</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9101163559870413</v>
+        <v>0.8890499304696633</v>
       </c>
       <c r="E140" t="n">
-        <v>0.9088065804586344</v>
+        <v>0.8727577944922303</v>
       </c>
     </row>
     <row r="141">
@@ -2834,10 +2834,10 @@
         <v>0.9134724934377559</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9078869880115878</v>
+        <v>0.8908830669025858</v>
       </c>
       <c r="E141" t="n">
-        <v>0.9072467880604647</v>
+        <v>0.8741301410273974</v>
       </c>
     </row>
     <row r="142">
@@ -2851,10 +2851,10 @@
         <v>0.9105414628788513</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9060005285742028</v>
+        <v>0.8836755255796124</v>
       </c>
       <c r="E142" t="n">
-        <v>0.9060121664407421</v>
+        <v>0.8632866680247293</v>
       </c>
     </row>
     <row r="143">
@@ -2868,10 +2868,10 @@
         <v>0.9104436830505709</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9062199001217736</v>
+        <v>0.8766855909078853</v>
       </c>
       <c r="E143" t="n">
-        <v>0.9066506574184476</v>
+        <v>0.8536784509734205</v>
       </c>
     </row>
     <row r="144">
@@ -2885,10 +2885,10 @@
         <v>0.9144770286391675</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9092410887457507</v>
+        <v>0.8773738811198717</v>
       </c>
       <c r="E144" t="n">
-        <v>0.9094403645911544</v>
+        <v>0.8536014023388745</v>
       </c>
     </row>
     <row r="145">
@@ -2902,10 +2902,10 @@
         <v>0.9134585797796564</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9081593806426177</v>
+        <v>0.88474433354563</v>
       </c>
       <c r="E145" t="n">
-        <v>0.9076465626637839</v>
+        <v>0.8625851614784457</v>
       </c>
     </row>
     <row r="146">
@@ -2919,10 +2919,10 @@
         <v>0.9161875500888561</v>
       </c>
       <c r="D146" t="n">
-        <v>0.909328332071175</v>
+        <v>0.8951230103871567</v>
       </c>
       <c r="E146" t="n">
-        <v>0.9087935866429788</v>
+        <v>0.8765978710294386</v>
       </c>
     </row>
     <row r="147">
@@ -2936,10 +2936,10 @@
         <v>0.9146737531989724</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9099034301915679</v>
+        <v>0.8989895317466193</v>
       </c>
       <c r="E147" t="n">
-        <v>0.9091044966305923</v>
+        <v>0.8829831825302863</v>
       </c>
     </row>
     <row r="148">
@@ -2953,10 +2953,10 @@
         <v>0.9144210572674341</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9134211220370388</v>
+        <v>0.8994703371932217</v>
       </c>
       <c r="E148" t="n">
-        <v>0.9126206399196664</v>
+        <v>0.8841751935947612</v>
       </c>
     </row>
     <row r="149">
@@ -2970,10 +2970,10 @@
         <v>0.913718991530771</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9166198157501897</v>
+        <v>0.8922227083340354</v>
       </c>
       <c r="E149" t="n">
-        <v>0.9162064921433524</v>
+        <v>0.8763255057911322</v>
       </c>
     </row>
     <row r="150">
@@ -2987,10 +2987,10 @@
         <v>0.9129733659470778</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9194485300762478</v>
+        <v>0.8877991809847794</v>
       </c>
       <c r="E150" t="n">
-        <v>0.919469211043946</v>
+        <v>0.8688043783646096</v>
       </c>
     </row>
     <row r="151">
@@ -3004,10 +3004,10 @@
         <v>0.9132373407779535</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9236941773204128</v>
+        <v>0.8891314914991486</v>
       </c>
       <c r="E151" t="n">
-        <v>0.9235749579230524</v>
+        <v>0.868012718167668</v>
       </c>
     </row>
     <row r="152">
@@ -3021,10 +3021,10 @@
         <v>0.909288898968899</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9201237693122357</v>
+        <v>0.8842831698052122</v>
       </c>
       <c r="E152" t="n">
-        <v>0.9183531005553034</v>
+        <v>0.8631551823287146</v>
       </c>
     </row>
     <row r="153">
@@ -3038,10 +3038,10 @@
         <v>0.9059913979822521</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9144653498415285</v>
+        <v>0.8773019703495584</v>
       </c>
       <c r="E153" t="n">
-        <v>0.9125773869865083</v>
+        <v>0.8555994749121154</v>
       </c>
     </row>
     <row r="154">
@@ -3055,10 +3055,10 @@
         <v>0.9028691059624984</v>
       </c>
       <c r="D154" t="n">
-        <v>0.9108378759550866</v>
+        <v>0.8716568765274784</v>
       </c>
       <c r="E154" t="n">
-        <v>0.909546394966573</v>
+        <v>0.8496675849415647</v>
       </c>
     </row>
     <row r="155">
@@ -3072,10 +3072,10 @@
         <v>0.9024740267556863</v>
       </c>
       <c r="D155" t="n">
-        <v>0.911220980497321</v>
+        <v>0.8650314587344302</v>
       </c>
       <c r="E155" t="n">
-        <v>0.9104960086822704</v>
+        <v>0.8431565673840948</v>
       </c>
     </row>
     <row r="156">
@@ -3089,10 +3089,10 @@
         <v>0.9057223555061968</v>
       </c>
       <c r="D156" t="n">
-        <v>0.9140860156392027</v>
+        <v>0.8624737428459007</v>
       </c>
       <c r="E156" t="n">
-        <v>0.9136482829089683</v>
+        <v>0.8400410795726623</v>
       </c>
     </row>
     <row r="157">
@@ -3106,10 +3106,10 @@
         <v>0.907919542658945</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9124329261568502</v>
+        <v>0.8619835131373782</v>
       </c>
       <c r="E157" t="n">
-        <v>0.9119871241809292</v>
+        <v>0.8402726748670151</v>
       </c>
     </row>
     <row r="158">
@@ -3123,10 +3123,10 @@
         <v>0.909520472567543</v>
       </c>
       <c r="D158" t="n">
-        <v>0.914000183110564</v>
+        <v>0.86885930297859</v>
       </c>
       <c r="E158" t="n">
-        <v>0.913858864588035</v>
+        <v>0.8499744765549193</v>
       </c>
     </row>
     <row r="159">
@@ -3140,10 +3140,10 @@
         <v>0.9121449433021165</v>
       </c>
       <c r="D159" t="n">
-        <v>0.914473220270156</v>
+        <v>0.8774556356724021</v>
       </c>
       <c r="E159" t="n">
-        <v>0.9142197715704213</v>
+        <v>0.8622378637562378</v>
       </c>
     </row>
     <row r="160">
@@ -3157,10 +3157,10 @@
         <v>0.9212017774293455</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9229204069955936</v>
+        <v>0.8884101806850975</v>
       </c>
       <c r="E160" t="n">
-        <v>0.9231913029729777</v>
+        <v>0.8763924582561755</v>
       </c>
     </row>
     <row r="161">
@@ -3174,10 +3174,10 @@
         <v>0.9262103468864908</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9267513796996751</v>
+        <v>0.8965314653238292</v>
       </c>
       <c r="E161" t="n">
-        <v>0.9275562948385208</v>
+        <v>0.8880288183338747</v>
       </c>
     </row>
     <row r="162">
@@ -3191,10 +3191,10 @@
         <v>0.9233903847705031</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9230843372639252</v>
+        <v>0.9044209752184267</v>
       </c>
       <c r="E162" t="n">
-        <v>0.9218707365147838</v>
+        <v>0.897605476653187</v>
       </c>
     </row>
     <row r="163">
@@ -3208,10 +3208,10 @@
         <v>0.928808730692682</v>
       </c>
       <c r="D163" t="n">
-        <v>0.927792771613228</v>
+        <v>0.9013148121823062</v>
       </c>
       <c r="E163" t="n">
-        <v>0.9293646441953574</v>
+        <v>0.8942673863159842</v>
       </c>
     </row>
     <row r="164">
@@ -3225,10 +3225,10 @@
         <v>0.9293466310266194</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9280719898071118</v>
+        <v>0.8926107537770389</v>
       </c>
       <c r="E164" t="n">
-        <v>0.928915079520409</v>
+        <v>0.8835333016384384</v>
       </c>
     </row>
     <row r="165">
@@ -3242,10 +3242,10 @@
         <v>0.9263824642546317</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9268076837137544</v>
+        <v>0.8833124072576353</v>
       </c>
       <c r="E165" t="n">
-        <v>0.9277865223836614</v>
+        <v>0.8726807607700005</v>
       </c>
     </row>
     <row r="166">
@@ -3259,10 +3259,10 @@
         <v>0.9249792402292469</v>
       </c>
       <c r="D166" t="n">
-        <v>0.9268591529998129</v>
+        <v>0.8792749755948859</v>
       </c>
       <c r="E166" t="n">
-        <v>0.9276513547778258</v>
+        <v>0.8666180181211505</v>
       </c>
     </row>
     <row r="167">
@@ -3276,10 +3276,10 @@
         <v>0.9259164993468962</v>
       </c>
       <c r="D167" t="n">
-        <v>0.9277066054727932</v>
+        <v>0.8832653136538092</v>
       </c>
       <c r="E167" t="n">
-        <v>0.9283855352517491</v>
+        <v>0.8688666668996845</v>
       </c>
     </row>
     <row r="168">
@@ -3293,10 +3293,10 @@
         <v>0.9227985284790571</v>
       </c>
       <c r="D168" t="n">
-        <v>0.9253797045034116</v>
+        <v>0.8750631003739544</v>
       </c>
       <c r="E168" t="n">
-        <v>0.9261565913729435</v>
+        <v>0.8594094351021788</v>
       </c>
     </row>
     <row r="169">
@@ -3310,10 +3310,10 @@
         <v>0.9216941422886361</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9232360378751233</v>
+        <v>0.8681603619177717</v>
       </c>
       <c r="E169" t="n">
-        <v>0.92460081401131</v>
+        <v>0.8506138481210842</v>
       </c>
     </row>
     <row r="170">
@@ -3327,10 +3327,10 @@
         <v>0.9196142803425515</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9202378518386406</v>
+        <v>0.8639841182483839</v>
       </c>
       <c r="E170" t="n">
-        <v>0.9222335374803442</v>
+        <v>0.8447307268534863</v>
       </c>
     </row>
     <row r="171">
@@ -3344,10 +3344,10 @@
         <v>0.9162502046520655</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9176748395361386</v>
+        <v>0.8545673125223562</v>
       </c>
       <c r="E171" t="n">
-        <v>0.9197458654955813</v>
+        <v>0.8332025763936022</v>
       </c>
     </row>
     <row r="172">
@@ -3361,10 +3361,10 @@
         <v>0.9167159070537176</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9165707984660287</v>
+        <v>0.841522595806202</v>
       </c>
       <c r="E172" t="n">
-        <v>0.9184974409429406</v>
+        <v>0.8183467786327623</v>
       </c>
     </row>
     <row r="173">
@@ -3378,10 +3378,10 @@
         <v>0.9137722255227826</v>
       </c>
       <c r="D173" t="n">
-        <v>0.9128268271125504</v>
+        <v>0.8333294650180174</v>
       </c>
       <c r="E173" t="n">
-        <v>0.9141413802334514</v>
+        <v>0.8089560426934956</v>
       </c>
     </row>
     <row r="174">
@@ -3395,10 +3395,10 @@
         <v>0.9127904813341521</v>
       </c>
       <c r="D174" t="n">
-        <v>0.909133970449061</v>
+        <v>0.8232794662298986</v>
       </c>
       <c r="E174" t="n">
-        <v>0.9101836567501149</v>
+        <v>0.7950891619811737</v>
       </c>
     </row>
     <row r="175">
@@ -3412,10 +3412,10 @@
         <v>0.915270927673143</v>
       </c>
       <c r="D175" t="n">
-        <v>0.907168251794638</v>
+        <v>0.8135210586559831</v>
       </c>
       <c r="E175" t="n">
-        <v>0.9079502698200921</v>
+        <v>0.7822215431297181</v>
       </c>
     </row>
     <row r="176">
@@ -3429,10 +3429,10 @@
         <v>0.916554400380664</v>
       </c>
       <c r="D176" t="n">
-        <v>0.9097097809231423</v>
+        <v>0.7984189080921913</v>
       </c>
       <c r="E176" t="n">
-        <v>0.9097382636230338</v>
+        <v>0.7647283846116144</v>
       </c>
     </row>
     <row r="177">
@@ -3446,10 +3446,10 @@
         <v>0.9132616642339866</v>
       </c>
       <c r="D177" t="n">
-        <v>0.9100938909315742</v>
+        <v>0.7981447027260939</v>
       </c>
       <c r="E177" t="n">
-        <v>0.9093667386024582</v>
+        <v>0.7643202507232046</v>
       </c>
     </row>
     <row r="178">
@@ -3463,10 +3463,10 @@
         <v>0.9123407159398619</v>
       </c>
       <c r="D178" t="n">
-        <v>0.9115553585539063</v>
+        <v>0.8048304994616415</v>
       </c>
       <c r="E178" t="n">
-        <v>0.9103830005096663</v>
+        <v>0.7696837911202232</v>
       </c>
     </row>
     <row r="179">
@@ -3480,10 +3480,10 @@
         <v>0.9139228528297956</v>
       </c>
       <c r="D179" t="n">
-        <v>0.9129925060917776</v>
+        <v>0.8153476304362733</v>
       </c>
       <c r="E179" t="n">
-        <v>0.9121496579360913</v>
+        <v>0.781553668183435</v>
       </c>
     </row>
     <row r="180">
@@ -3497,10 +3497,10 @@
         <v>0.9117707714546959</v>
       </c>
       <c r="D180" t="n">
-        <v>0.9102502658397192</v>
+        <v>0.818826789121342</v>
       </c>
       <c r="E180" t="n">
-        <v>0.909555793998331</v>
+        <v>0.7885754131281564</v>
       </c>
     </row>
     <row r="181">
@@ -3514,10 +3514,10 @@
         <v>0.9076363796883564</v>
       </c>
       <c r="D181" t="n">
-        <v>0.9051323281826168</v>
+        <v>0.8141557726362523</v>
       </c>
       <c r="E181" t="n">
-        <v>0.9047341413318484</v>
+        <v>0.7855429581229217</v>
       </c>
     </row>
     <row r="182">
@@ -3531,10 +3531,10 @@
         <v>0.9049347856816496</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9012434054216542</v>
+        <v>0.8259973476659418</v>
       </c>
       <c r="E182" t="n">
-        <v>0.9010735657701826</v>
+        <v>0.7976365856882108</v>
       </c>
     </row>
     <row r="183">
@@ -3548,10 +3548,10 @@
         <v>0.9050638762914703</v>
       </c>
       <c r="D183" t="n">
-        <v>0.8975814577564442</v>
+        <v>0.8279584768138351</v>
       </c>
       <c r="E183" t="n">
-        <v>0.8972950019329613</v>
+        <v>0.7991754367252394</v>
       </c>
     </row>
     <row r="184">
@@ -3565,10 +3565,10 @@
         <v>0.9029676854816093</v>
       </c>
       <c r="D184" t="n">
-        <v>0.8969442223141491</v>
+        <v>0.8328918743071632</v>
       </c>
       <c r="E184" t="n">
-        <v>0.8962607162762182</v>
+        <v>0.8052493224043491</v>
       </c>
     </row>
     <row r="185">
@@ -3582,10 +3582,10 @@
         <v>0.9007554190475651</v>
       </c>
       <c r="D185" t="n">
-        <v>0.8962735872052179</v>
+        <v>0.8398966144685751</v>
       </c>
       <c r="E185" t="n">
-        <v>0.8952282057263434</v>
+        <v>0.8162301051575913</v>
       </c>
     </row>
     <row r="186">
@@ -3599,10 +3599,10 @@
         <v>0.900517175446351</v>
       </c>
       <c r="D186" t="n">
-        <v>0.8946472228290662</v>
+        <v>0.837851734781113</v>
       </c>
       <c r="E186" t="n">
-        <v>0.8938726761656082</v>
+        <v>0.8158083991332009</v>
       </c>
     </row>
     <row r="187">
@@ -3616,10 +3616,10 @@
         <v>0.899525727649941</v>
       </c>
       <c r="D187" t="n">
-        <v>0.8928117169047528</v>
+        <v>0.8374633766259749</v>
       </c>
       <c r="E187" t="n">
-        <v>0.8921323366382814</v>
+        <v>0.8164885526501571</v>
       </c>
     </row>
     <row r="188">
@@ -3633,10 +3633,10 @@
         <v>0.8950640675628665</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8919116965661706</v>
+        <v>0.8491500714820597</v>
       </c>
       <c r="E188" t="n">
-        <v>0.8910873268419641</v>
+        <v>0.8308641246768136</v>
       </c>
     </row>
     <row r="189">
@@ -3650,10 +3650,10 @@
         <v>0.8951187944231944</v>
       </c>
       <c r="D189" t="n">
-        <v>0.8946191082063669</v>
+        <v>0.8577239840294839</v>
       </c>
       <c r="E189" t="n">
-        <v>0.8936854532199923</v>
+        <v>0.8392691547177854</v>
       </c>
     </row>
     <row r="190">
@@ -3667,10 +3667,10 @@
         <v>0.8939184230992985</v>
       </c>
       <c r="D190" t="n">
-        <v>0.89649012835388</v>
+        <v>0.8523852582271974</v>
       </c>
       <c r="E190" t="n">
-        <v>0.8952089353243651</v>
+        <v>0.8314423435443723</v>
       </c>
     </row>
     <row r="191">
@@ -3684,10 +3684,10 @@
         <v>0.8925553439636658</v>
       </c>
       <c r="D191" t="n">
-        <v>0.8959914367317341</v>
+        <v>0.8456996425998635</v>
       </c>
       <c r="E191" t="n">
-        <v>0.8949968029313224</v>
+        <v>0.823555423079065</v>
       </c>
     </row>
     <row r="192">
@@ -3701,10 +3701,10 @@
         <v>0.8904571101103675</v>
       </c>
       <c r="D192" t="n">
-        <v>0.8947372131571483</v>
+        <v>0.8498868992676627</v>
       </c>
       <c r="E192" t="n">
-        <v>0.8929890635137725</v>
+        <v>0.8294011197382281</v>
       </c>
     </row>
     <row r="193">
@@ -3718,10 +3718,10 @@
         <v>0.8800618333940347</v>
       </c>
       <c r="D193" t="n">
-        <v>0.8866172017792016</v>
+        <v>0.8478656659440481</v>
       </c>
       <c r="E193" t="n">
-        <v>0.8847688302637891</v>
+        <v>0.828905454773921</v>
       </c>
     </row>
     <row r="194">
@@ -3735,10 +3735,10 @@
         <v>0.8796391288229319</v>
       </c>
       <c r="D194" t="n">
-        <v>0.8898521267463902</v>
+        <v>0.8558522364009448</v>
       </c>
       <c r="E194" t="n">
-        <v>0.8882417355252883</v>
+        <v>0.8386535731619866</v>
       </c>
     </row>
     <row r="195">
@@ -3752,10 +3752,10 @@
         <v>0.8802729393111542</v>
       </c>
       <c r="D195" t="n">
-        <v>0.8893544515836977</v>
+        <v>0.8623290939741231</v>
       </c>
       <c r="E195" t="n">
-        <v>0.8882092062485032</v>
+        <v>0.8473331163246648</v>
       </c>
     </row>
     <row r="196">
@@ -3769,10 +3769,10 @@
         <v>0.8797941613548541</v>
       </c>
       <c r="D196" t="n">
-        <v>0.8857623420175458</v>
+        <v>0.8706541162625028</v>
       </c>
       <c r="E196" t="n">
-        <v>0.8849731318253269</v>
+        <v>0.8590131179983921</v>
       </c>
     </row>
     <row r="197">
@@ -3786,10 +3786,10 @@
         <v>0.8776421588918535</v>
       </c>
       <c r="D197" t="n">
-        <v>0.8829597177804122</v>
+        <v>0.8695522259020303</v>
       </c>
       <c r="E197" t="n">
-        <v>0.8821809440381917</v>
+        <v>0.8590597048453541</v>
       </c>
     </row>
     <row r="198">
@@ -3803,10 +3803,10 @@
         <v>0.8786593407715024</v>
       </c>
       <c r="D198" t="n">
-        <v>0.8834785346422197</v>
+        <v>0.8665296808367671</v>
       </c>
       <c r="E198" t="n">
-        <v>0.8830531297974531</v>
+        <v>0.856899140472194</v>
       </c>
     </row>
     <row r="199">
@@ -3820,10 +3820,10 @@
         <v>0.8799811956945718</v>
       </c>
       <c r="D199" t="n">
-        <v>0.8818946014916985</v>
+        <v>0.8614697412788652</v>
       </c>
       <c r="E199" t="n">
-        <v>0.8817085185145277</v>
+        <v>0.8536801878675742</v>
       </c>
     </row>
     <row r="200">
@@ -3837,10 +3837,10 @@
         <v>0.8790584994071734</v>
       </c>
       <c r="D200" t="n">
-        <v>0.8829211758209348</v>
+        <v>0.8643161858634979</v>
       </c>
       <c r="E200" t="n">
-        <v>0.8826661034531614</v>
+        <v>0.853616324477102</v>
       </c>
     </row>
     <row r="201">
@@ -3854,10 +3854,10 @@
         <v>0.8780243646353708</v>
       </c>
       <c r="D201" t="n">
-        <v>0.8856982762241427</v>
+        <v>0.8681439444773684</v>
       </c>
       <c r="E201" t="n">
-        <v>0.8853031217722795</v>
+        <v>0.8557297959992105</v>
       </c>
     </row>
     <row r="202">
@@ -3871,10 +3871,10 @@
         <v>0.8820553778884923</v>
       </c>
       <c r="D202" t="n">
-        <v>0.8888171625633842</v>
+        <v>0.8722343034485032</v>
       </c>
       <c r="E202" t="n">
-        <v>0.8884851425601783</v>
+        <v>0.8613582818183644</v>
       </c>
     </row>
     <row r="203">
@@ -3888,10 +3888,10 @@
         <v>0.8839693163203793</v>
       </c>
       <c r="D203" t="n">
-        <v>0.8880505417937112</v>
+        <v>0.8717838554517487</v>
       </c>
       <c r="E203" t="n">
-        <v>0.8877757413586407</v>
+        <v>0.8614602666476536</v>
       </c>
     </row>
     <row r="204">
@@ -3905,10 +3905,10 @@
         <v>0.8865375902475425</v>
       </c>
       <c r="D204" t="n">
-        <v>0.8872724530010846</v>
+        <v>0.8733679737000726</v>
       </c>
       <c r="E204" t="n">
-        <v>0.8867940141525729</v>
+        <v>0.8630585469989707</v>
       </c>
     </row>
     <row r="205">
@@ -3922,10 +3922,10 @@
         <v>0.8904293746955798</v>
       </c>
       <c r="D205" t="n">
-        <v>0.8915594652169456</v>
+        <v>0.8755988790480951</v>
       </c>
       <c r="E205" t="n">
-        <v>0.8911577347160931</v>
+        <v>0.8653714447507309</v>
       </c>
     </row>
     <row r="206">
@@ -3939,10 +3939,10 @@
         <v>0.8937540746520023</v>
       </c>
       <c r="D206" t="n">
-        <v>0.8942697973584522</v>
+        <v>0.8764113671170237</v>
       </c>
       <c r="E206" t="n">
-        <v>0.8945154800075881</v>
+        <v>0.8668387399662552</v>
       </c>
     </row>
     <row r="207">
@@ -3956,10 +3956,10 @@
         <v>0.8978980653985329</v>
       </c>
       <c r="D207" t="n">
-        <v>0.8955992706056329</v>
+        <v>0.8713303358680422</v>
       </c>
       <c r="E207" t="n">
-        <v>0.8964061872390152</v>
+        <v>0.8629293467361874</v>
       </c>
     </row>
     <row r="208">
@@ -3973,10 +3973,10 @@
         <v>0.8940640518157085</v>
       </c>
       <c r="D208" t="n">
-        <v>0.8950080250261023</v>
+        <v>0.8542353988861011</v>
       </c>
       <c r="E208" t="n">
-        <v>0.8963598762251672</v>
+        <v>0.8447283139853384</v>
       </c>
     </row>
     <row r="209">
@@ -3990,10 +3990,10 @@
         <v>0.8899580062562437</v>
       </c>
       <c r="D209" t="n">
-        <v>0.8927367154235335</v>
+        <v>0.8391723424397979</v>
       </c>
       <c r="E209" t="n">
-        <v>0.8938369150391987</v>
+        <v>0.8305552929292703</v>
       </c>
     </row>
     <row r="210">
@@ -4007,10 +4007,10 @@
         <v>0.8933506158442548</v>
       </c>
       <c r="D210" t="n">
-        <v>0.8939480473321406</v>
+        <v>0.8248416582740667</v>
       </c>
       <c r="E210" t="n">
-        <v>0.8948487225845959</v>
+        <v>0.816768052750388</v>
       </c>
     </row>
     <row r="211">
@@ -4024,10 +4024,10 @@
         <v>0.8968779232765487</v>
       </c>
       <c r="D211" t="n">
-        <v>0.8960676959972604</v>
+        <v>0.8170031563353373</v>
       </c>
       <c r="E211" t="n">
-        <v>0.8967483227869605</v>
+        <v>0.8085020761506659</v>
       </c>
     </row>
     <row r="212">
@@ -4041,10 +4041,10 @@
         <v>0.8979937658040833</v>
       </c>
       <c r="D212" t="n">
-        <v>0.8966412726378472</v>
+        <v>0.8099659140260052</v>
       </c>
       <c r="E212" t="n">
-        <v>0.8958961268947667</v>
+        <v>0.7995834102451835</v>
       </c>
     </row>
     <row r="213">
@@ -4058,10 +4058,10 @@
         <v>0.9017206874119432</v>
       </c>
       <c r="D213" t="n">
-        <v>0.9018062710324077</v>
+        <v>0.8136735625875144</v>
       </c>
       <c r="E213" t="n">
-        <v>0.9009468930828515</v>
+        <v>0.8026208989475316</v>
       </c>
     </row>
     <row r="214">
@@ -4075,10 +4075,10 @@
         <v>0.9071949922271404</v>
       </c>
       <c r="D214" t="n">
-        <v>0.9064448673129545</v>
+        <v>0.8160484575305105</v>
       </c>
       <c r="E214" t="n">
-        <v>0.9050192678620926</v>
+        <v>0.8058362195378185</v>
       </c>
     </row>
     <row r="215">
@@ -4092,10 +4092,10 @@
         <v>0.9074431723716075</v>
       </c>
       <c r="D215" t="n">
-        <v>0.9064056104192474</v>
+        <v>0.8071080982254235</v>
       </c>
       <c r="E215" t="n">
-        <v>0.9042297800251817</v>
+        <v>0.7948937040253308</v>
       </c>
     </row>
     <row r="216">
@@ -4109,10 +4109,10 @@
         <v>0.9051422034423233</v>
       </c>
       <c r="D216" t="n">
-        <v>0.9029850444188288</v>
+        <v>0.7953202105493241</v>
       </c>
       <c r="E216" t="n">
-        <v>0.9014509397125847</v>
+        <v>0.7788073452687878</v>
       </c>
     </row>
     <row r="217">
@@ -4126,10 +4126,10 @@
         <v>0.9050480778552635</v>
       </c>
       <c r="D217" t="n">
-        <v>0.9065031097600776</v>
+        <v>0.7876561991942923</v>
       </c>
       <c r="E217" t="n">
-        <v>0.9056018345735263</v>
+        <v>0.7679132342523931</v>
       </c>
     </row>
     <row r="218">
@@ -4143,10 +4143,10 @@
         <v>0.9025612944145627</v>
       </c>
       <c r="D218" t="n">
-        <v>0.9049742774865097</v>
+        <v>0.7820686418144736</v>
       </c>
       <c r="E218" t="n">
-        <v>0.9040794953534208</v>
+        <v>0.7637191775147906</v>
       </c>
     </row>
     <row r="219">
@@ -4160,10 +4160,10 @@
         <v>0.9043687958845612</v>
       </c>
       <c r="D219" t="n">
-        <v>0.8962483291405317</v>
+        <v>0.7741564357227289</v>
       </c>
       <c r="E219" t="n">
-        <v>0.8957390266848168</v>
+        <v>0.7583490673757214</v>
       </c>
     </row>
     <row r="220">
@@ -4177,10 +4177,10 @@
         <v>0.9009249345592659</v>
       </c>
       <c r="D220" t="n">
-        <v>0.8895577829525086</v>
+        <v>0.754280471994714</v>
       </c>
       <c r="E220" t="n">
-        <v>0.888689839069736</v>
+        <v>0.7393718888627487</v>
       </c>
     </row>
     <row r="221">
@@ -4194,10 +4194,10 @@
         <v>0.9047934071944254</v>
       </c>
       <c r="D221" t="n">
-        <v>0.8906515355517134</v>
+        <v>0.750444036039714</v>
       </c>
       <c r="E221" t="n">
-        <v>0.8900372853306242</v>
+        <v>0.7372430062329105</v>
       </c>
     </row>
     <row r="222">
@@ -4211,10 +4211,10 @@
         <v>0.9074656802191727</v>
       </c>
       <c r="D222" t="n">
-        <v>0.8923486613847429</v>
+        <v>0.7521167964440552</v>
       </c>
       <c r="E222" t="n">
-        <v>0.8913944213691479</v>
+        <v>0.7382798014112919</v>
       </c>
     </row>
     <row r="223">
@@ -4228,10 +4228,10 @@
         <v>0.9117361818561989</v>
       </c>
       <c r="D223" t="n">
-        <v>0.898678096860456</v>
+        <v>0.7374460369450377</v>
       </c>
       <c r="E223" t="n">
-        <v>0.8972438556670667</v>
+        <v>0.717104093886845</v>
       </c>
     </row>
     <row r="224">
@@ -4245,10 +4245,10 @@
         <v>0.9129372433265501</v>
       </c>
       <c r="D224" t="n">
-        <v>0.8997694705105889</v>
+        <v>0.7074160237733877</v>
       </c>
       <c r="E224" t="n">
-        <v>0.8958055809049095</v>
+        <v>0.6793825366375014</v>
       </c>
     </row>
     <row r="225">
@@ -4262,10 +4262,10 @@
         <v>0.9083053797864821</v>
       </c>
       <c r="D225" t="n">
-        <v>0.8878786156544048</v>
+        <v>0.6828518506791322</v>
       </c>
       <c r="E225" t="n">
-        <v>0.8834526368984894</v>
+        <v>0.6508829846325894</v>
       </c>
     </row>
     <row r="226">
@@ -4279,10 +4279,10 @@
         <v>0.9058985734392919</v>
       </c>
       <c r="D226" t="n">
-        <v>0.8808344780611768</v>
+        <v>0.6668809842910886</v>
       </c>
       <c r="E226" t="n">
-        <v>0.8758739228739079</v>
+        <v>0.6331888463381747</v>
       </c>
     </row>
     <row r="227">
@@ -4296,10 +4296,10 @@
         <v>0.9050956075963801</v>
       </c>
       <c r="D227" t="n">
-        <v>0.8792564770294939</v>
+        <v>0.6621531425990101</v>
       </c>
       <c r="E227" t="n">
-        <v>0.8737725758482116</v>
+        <v>0.6266570117964176</v>
       </c>
     </row>
     <row r="228">
@@ -4313,10 +4313,10 @@
         <v>0.9037885489297518</v>
       </c>
       <c r="D228" t="n">
-        <v>0.8840990374492876</v>
+        <v>0.6440544473069052</v>
       </c>
       <c r="E228" t="n">
-        <v>0.8774319372812779</v>
+        <v>0.6061111631933082</v>
       </c>
     </row>
     <row r="229">
@@ -4330,10 +4330,10 @@
         <v>0.9017384384264808</v>
       </c>
       <c r="D229" t="n">
-        <v>0.8870779438704013</v>
+        <v>0.6256487428377387</v>
       </c>
       <c r="E229" t="n">
-        <v>0.8772280841118452</v>
+        <v>0.5870372078536399</v>
       </c>
     </row>
     <row r="230">
@@ -4347,10 +4347,10 @@
         <v>0.8928960997633444</v>
       </c>
       <c r="D230" t="n">
-        <v>0.8733010828152434</v>
+        <v>0.6157752213061638</v>
       </c>
       <c r="E230" t="n">
-        <v>0.8639300702100605</v>
+        <v>0.5770850838486301</v>
       </c>
     </row>
     <row r="231">
@@ -4364,10 +4364,10 @@
         <v>0.8839922848281119</v>
       </c>
       <c r="D231" t="n">
-        <v>0.8507162043255315</v>
+        <v>0.624991308588572</v>
       </c>
       <c r="E231" t="n">
-        <v>0.8411677215647233</v>
+        <v>0.5899309487116963</v>
       </c>
     </row>
     <row r="232">
@@ -4381,10 +4381,10 @@
         <v>0.8825970656068756</v>
       </c>
       <c r="D232" t="n">
-        <v>0.8460791703015516</v>
+        <v>0.6179204952780009</v>
       </c>
       <c r="E232" t="n">
-        <v>0.8360025735445098</v>
+        <v>0.580000888892807</v>
       </c>
     </row>
     <row r="233">
@@ -4398,10 +4398,10 @@
         <v>0.8858341506934969</v>
       </c>
       <c r="D233" t="n">
-        <v>0.8549211212940051</v>
+        <v>0.6210671437205034</v>
       </c>
       <c r="E233" t="n">
-        <v>0.8445219997913065</v>
+        <v>0.5793008569174074</v>
       </c>
     </row>
     <row r="234">
@@ -4415,10 +4415,10 @@
         <v>0.8945278138330028</v>
       </c>
       <c r="D234" t="n">
-        <v>0.8726247504818192</v>
+        <v>0.6357843699855237</v>
       </c>
       <c r="E234" t="n">
-        <v>0.8629260073342542</v>
+        <v>0.5893383887122111</v>
       </c>
     </row>
     <row r="235">
@@ -4432,10 +4432,10 @@
         <v>0.8928610113703475</v>
       </c>
       <c r="D235" t="n">
-        <v>0.8784373562598126</v>
+        <v>0.6408940758774373</v>
       </c>
       <c r="E235" t="n">
-        <v>0.8698136514777148</v>
+        <v>0.5891801812806681</v>
       </c>
     </row>
     <row r="236">
@@ -4449,10 +4449,10 @@
         <v>0.8903842046186301</v>
       </c>
       <c r="D236" t="n">
-        <v>0.8835944956329417</v>
+        <v>0.6381809219679908</v>
       </c>
       <c r="E236" t="n">
-        <v>0.8788297007745529</v>
+        <v>0.5827620267111857</v>
       </c>
     </row>
     <row r="237">
@@ -4466,10 +4466,10 @@
         <v>0.8838652047486424</v>
       </c>
       <c r="D237" t="n">
-        <v>0.8737766501084413</v>
+        <v>0.6584235065501262</v>
       </c>
       <c r="E237" t="n">
-        <v>0.8730973272262742</v>
+        <v>0.6050296348438213</v>
       </c>
     </row>
     <row r="238">
@@ -4483,10 +4483,10 @@
         <v>0.8794802852013233</v>
       </c>
       <c r="D238" t="n">
-        <v>0.8712665623782586</v>
+        <v>0.7226625154770072</v>
       </c>
       <c r="E238" t="n">
-        <v>0.8711150578980138</v>
+        <v>0.6788795429813852</v>
       </c>
     </row>
     <row r="239">
@@ -4500,10 +4500,10 @@
         <v>0.878318247675182</v>
       </c>
       <c r="D239" t="n">
-        <v>0.8761489585370076</v>
+        <v>0.7628666145463823</v>
       </c>
       <c r="E239" t="n">
-        <v>0.8753152842347869</v>
+        <v>0.7264306333913495</v>
       </c>
     </row>
     <row r="240">
@@ -4517,10 +4517,10 @@
         <v>0.8775011781310067</v>
       </c>
       <c r="D240" t="n">
-        <v>0.8776408673937172</v>
+        <v>0.7836056089815407</v>
       </c>
       <c r="E240" t="n">
-        <v>0.8762899209832079</v>
+        <v>0.7513312225637596</v>
       </c>
     </row>
     <row r="241">
@@ -4534,10 +4534,10 @@
         <v>0.8767578605726107</v>
       </c>
       <c r="D241" t="n">
-        <v>0.8855773057113974</v>
+        <v>0.7927123943566788</v>
       </c>
       <c r="E241" t="n">
-        <v>0.8846007734555793</v>
+        <v>0.7587064630126383</v>
       </c>
     </row>
     <row r="242">
@@ -4551,10 +4551,10 @@
         <v>0.877577268082899</v>
       </c>
       <c r="D242" t="n">
-        <v>0.8930914713134259</v>
+        <v>0.7979180220952186</v>
       </c>
       <c r="E242" t="n">
-        <v>0.8919863433395454</v>
+        <v>0.763144666803268</v>
       </c>
     </row>
     <row r="243">
@@ -4568,10 +4568,10 @@
         <v>0.8720158743785396</v>
       </c>
       <c r="D243" t="n">
-        <v>0.891994612264378</v>
+        <v>0.7928143928078214</v>
       </c>
       <c r="E243" t="n">
-        <v>0.8909830962727006</v>
+        <v>0.7590728530819766</v>
       </c>
     </row>
     <row r="244">
@@ -4585,10 +4585,10 @@
         <v>0.8644131946595761</v>
       </c>
       <c r="D244" t="n">
-        <v>0.8892828224635747</v>
+        <v>0.7961083322004894</v>
       </c>
       <c r="E244" t="n">
-        <v>0.8884241028363504</v>
+        <v>0.764870492734204</v>
       </c>
     </row>
     <row r="245">
@@ -4602,10 +4602,10 @@
         <v>0.8650416893176703</v>
       </c>
       <c r="D245" t="n">
-        <v>0.8894322010574682</v>
+        <v>0.8100126928967808</v>
       </c>
       <c r="E245" t="n">
-        <v>0.8882161662563091</v>
+        <v>0.7819668174525878</v>
       </c>
     </row>
     <row r="246">
@@ -4619,10 +4619,10 @@
         <v>0.8624644003561808</v>
       </c>
       <c r="D246" t="n">
-        <v>0.8814212662678274</v>
+        <v>0.812615021700659</v>
       </c>
       <c r="E246" t="n">
-        <v>0.8794889493961352</v>
+        <v>0.7859067631841453</v>
       </c>
     </row>
     <row r="247">
@@ -4636,10 +4636,10 @@
         <v>0.8674224219878597</v>
       </c>
       <c r="D247" t="n">
-        <v>0.8758610145804507</v>
+        <v>0.8183909833409654</v>
       </c>
       <c r="E247" t="n">
-        <v>0.8714529032496636</v>
+        <v>0.7973126259735224</v>
       </c>
     </row>
     <row r="248">
@@ -4653,10 +4653,10 @@
         <v>0.8726908296333532</v>
       </c>
       <c r="D248" t="n">
-        <v>0.8712928116331415</v>
+        <v>0.8277914073227485</v>
       </c>
       <c r="E248" t="n">
-        <v>0.866226744531449</v>
+        <v>0.8129894457273354</v>
       </c>
     </row>
     <row r="249">
@@ -4670,10 +4670,10 @@
         <v>0.8698086606017122</v>
       </c>
       <c r="D249" t="n">
-        <v>0.8598598485891693</v>
+        <v>0.8411605262868264</v>
       </c>
       <c r="E249" t="n">
-        <v>0.8546950808227726</v>
+        <v>0.833252528454781</v>
       </c>
     </row>
     <row r="250">
@@ -4687,10 +4687,10 @@
         <v>0.8646189812112075</v>
       </c>
       <c r="D250" t="n">
-        <v>0.8494268867839609</v>
+        <v>0.8454304275661486</v>
       </c>
       <c r="E250" t="n">
-        <v>0.8445286028877705</v>
+        <v>0.8395910644457316</v>
       </c>
     </row>
     <row r="251">
@@ -4704,10 +4704,10 @@
         <v>0.8657075475228582</v>
       </c>
       <c r="D251" t="n">
-        <v>0.8466495075972127</v>
+        <v>0.8397992660591391</v>
       </c>
       <c r="E251" t="n">
-        <v>0.8427370253901427</v>
+        <v>0.8329186568655821</v>
       </c>
     </row>
     <row r="252">
@@ -4721,10 +4721,10 @@
         <v>0.8712220388014211</v>
       </c>
       <c r="D252" t="n">
-        <v>0.8520030377889725</v>
+        <v>0.8192934089344137</v>
       </c>
       <c r="E252" t="n">
-        <v>0.8512844306549294</v>
+        <v>0.8080319184374446</v>
       </c>
     </row>
     <row r="253">
@@ -4738,10 +4738,10 @@
         <v>0.8742569806857925</v>
       </c>
       <c r="D253" t="n">
-        <v>0.862267764066428</v>
+        <v>0.8080281093568855</v>
       </c>
       <c r="E253" t="n">
-        <v>0.8641077792183542</v>
+        <v>0.7925568072061985</v>
       </c>
     </row>
     <row r="254">
@@ -4755,10 +4755,10 @@
         <v>0.8806894712381914</v>
       </c>
       <c r="D254" t="n">
-        <v>0.868160991144851</v>
+        <v>0.800633463871645</v>
       </c>
       <c r="E254" t="n">
-        <v>0.8714050552112662</v>
+        <v>0.7816054931441949</v>
       </c>
     </row>
     <row r="255">
@@ -4772,10 +4772,10 @@
         <v>0.8814553755502637</v>
       </c>
       <c r="D255" t="n">
-        <v>0.8775374577426828</v>
+        <v>0.80845187949374</v>
       </c>
       <c r="E255" t="n">
-        <v>0.8815299129104556</v>
+        <v>0.7869044020699487</v>
       </c>
     </row>
   </sheetData>
